--- a/Build and upgrade-migration task by keshav.xlsx
+++ b/Build and upgrade-migration task by keshav.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://myl-my.sharepoint.com/personal/keshavamurti_vadavi_viatris_com/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3189" documentId="8_{16982375-DEFE-49B6-B461-43A11EE975A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2999D7C6-806B-47EF-8B53-C301CC48F728}"/>
+  <xr:revisionPtr revIDLastSave="3550" documentId="8_{16982375-DEFE-49B6-B461-43A11EE975A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C2644F5A-7AAF-4E5F-9E28-0212D8E80501}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" activeTab="3" xr2:uid="{A009D6BA-BFEC-4EA5-B8F3-816AE9C658AD}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" firstSheet="1" activeTab="4" xr2:uid="{A009D6BA-BFEC-4EA5-B8F3-816AE9C658AD}"/>
   </bookViews>
   <sheets>
     <sheet name="Server Build Sheet" sheetId="1" r:id="rId1"/>
     <sheet name="Server Upgrade Sheet" sheetId="2" r:id="rId2"/>
-    <sheet name="SRA &amp; Trackwise Srvs" sheetId="4" r:id="rId3"/>
-    <sheet name="EXP" sheetId="3" r:id="rId4"/>
+    <sheet name="C6-DUBLIN-Migration" sheetId="5" r:id="rId3"/>
+    <sheet name="SRA &amp; Trackwise Srvs" sheetId="4" r:id="rId4"/>
+    <sheet name="EXP" sheetId="3" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Server Upgrade Sheet'!$A$2:$G$367</definedName>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1104" uniqueCount="563">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1191" uniqueCount="610">
   <si>
     <t>Child RITM</t>
   </si>
@@ -1158,72 +1159,12 @@
     <t>RITM5035727</t>
   </si>
   <si>
-    <t xml:space="preserve">SL.no </t>
-  </si>
-  <si>
-    <t>Items</t>
-  </si>
-  <si>
     <t>Qty</t>
   </si>
   <si>
-    <t>Vaultech Solution Price</t>
-  </si>
-  <si>
-    <t>Nimbus Technologies Price</t>
-  </si>
-  <si>
-    <t>Mother Board = Intel H610</t>
-  </si>
-  <si>
-    <t>Processor = i5 12400F</t>
-  </si>
-  <si>
-    <t>RAM = 32GB</t>
-  </si>
-  <si>
-    <t>SSD = 1TB</t>
-  </si>
-  <si>
-    <t>Graphics Card = 2GB</t>
-  </si>
-  <si>
-    <t>ATX Cabinet</t>
-  </si>
-  <si>
-    <t>SMPS</t>
-  </si>
-  <si>
-    <t>LED Monitor HD</t>
-  </si>
-  <si>
-    <t>1 No's</t>
-  </si>
-  <si>
-    <t>Key board &amp; Mouse Combo</t>
-  </si>
-  <si>
-    <t>Quote Price</t>
-  </si>
-  <si>
-    <t>Quote for Nagarj Friend(CA)-25-10-24</t>
-  </si>
-  <si>
     <t>4k cash remains</t>
   </si>
   <si>
-    <t>TechPro Solution Price</t>
-  </si>
-  <si>
-    <t>GST=18%</t>
-  </si>
-  <si>
-    <t>Valtech Vendor</t>
-  </si>
-  <si>
-    <t>Installation &amp; Service charges</t>
-  </si>
-  <si>
     <t>Nov 2024 Expense</t>
   </si>
   <si>
@@ -1746,23 +1687,224 @@
     <t>DM: Shital N</t>
   </si>
   <si>
-    <t>RITM5083480- SAP_ End of Support Life (EOSL) W0BRTMP001 OS Upgrade | Activity Scheduled on 17th Oct 2024 10AM-10PM | Requestor: Nisha Bhat Madhavarapu</t>
-  </si>
-  <si>
     <t>Medicine &amp; scooty Petrols, car petrol</t>
   </si>
   <si>
-    <t>6500 Yet to rcvd.</t>
-  </si>
-  <si>
-    <t>87,705(HDFC), 85,202(SBI)</t>
+    <t>C6 Cluster Migration Plan</t>
+  </si>
+  <si>
+    <t>C6HADRS003---&gt; 001 &amp;002 All VM's need to migrate from cluster 3 to 2&amp;1</t>
+  </si>
+  <si>
+    <t>and need to add all cluster 3 nodes to cluster 2</t>
+  </si>
+  <si>
+    <t>DM: Senthinathan J</t>
+  </si>
+  <si>
+    <t>Suzlon&amp;TATA steel stocks</t>
+  </si>
+  <si>
+    <t>6500/- rcvd.</t>
+  </si>
+  <si>
+    <t>W0BPVSRAP001</t>
+  </si>
+  <si>
+    <t>CHG0175768</t>
+  </si>
+  <si>
+    <t>W0BPVSRAP002</t>
+  </si>
+  <si>
+    <t>CHG0175774</t>
+  </si>
+  <si>
+    <t>W07PVSRADR001</t>
+  </si>
+  <si>
+    <t>CHG0175777</t>
+  </si>
+  <si>
+    <t>Manually SRA Build Server(0B&amp;07)</t>
+  </si>
+  <si>
+    <t>OS-Win 2K22</t>
+  </si>
+  <si>
+    <t>Gold Ring Confirmed</t>
+  </si>
+  <si>
+    <t>2k Advance Given=22k yet to pay</t>
+  </si>
+  <si>
+    <t>32,574(HDFC), 85,202(SBI)</t>
+  </si>
+  <si>
+    <t>300=drinks sat night</t>
+  </si>
+  <si>
+    <t>225+868=sun nigth</t>
+  </si>
+  <si>
+    <t>ec6vm001.myl.com</t>
+  </si>
+  <si>
+    <t>ec6vm002.myl.com</t>
+  </si>
+  <si>
+    <t>ec6vm003.myl.com</t>
+  </si>
+  <si>
+    <t>ec6vm004.myl.com</t>
+  </si>
+  <si>
+    <t>C6HADRS001</t>
+  </si>
+  <si>
+    <t>C6HADRS002</t>
+  </si>
+  <si>
+    <t>ec6rr0u11.myl.com</t>
+  </si>
+  <si>
+    <t>ec6rr0u13.myl.com</t>
+  </si>
+  <si>
+    <t>ec6rr0u15.myl.com</t>
+  </si>
+  <si>
+    <t>ec6rr0u17.myl.com</t>
+  </si>
+  <si>
+    <t>ec6rr0u19.myl.com</t>
+  </si>
+  <si>
+    <t>C6-DUBLIN(4 Ports, 2MFG, 2ENT, 2FC)</t>
+  </si>
+  <si>
+    <t>C6HADRS003</t>
+  </si>
+  <si>
+    <t>ec6rr7u02.myl.com</t>
+  </si>
+  <si>
+    <t>ec6rr7u04.myl.com</t>
+  </si>
+  <si>
+    <t>ec6rr7u06.myl.com</t>
+  </si>
+  <si>
+    <t>Status/Remarks</t>
+  </si>
+  <si>
+    <t>IMM not reachable</t>
+  </si>
+  <si>
+    <t>UP &amp; Reachable</t>
+  </si>
+  <si>
+    <t>IDRAC UP &amp; Reachable</t>
+  </si>
+  <si>
+    <t>Change for Boot Lun Migration: CHG0176742</t>
+  </si>
+  <si>
+    <t>$3CuredW@ll!</t>
+  </si>
+  <si>
+    <t>Esxi Default Creds: root/</t>
+  </si>
+  <si>
+    <t>Only Cisco Servers</t>
+  </si>
+  <si>
+    <t>WWPN1</t>
+  </si>
+  <si>
+    <t>WWPN2</t>
+  </si>
+  <si>
+    <t> 21:00:F4:C7:AA:08:05:6D</t>
+  </si>
+  <si>
+    <t> 21:00:F4:C7:AA:08:04:CD</t>
+  </si>
+  <si>
+    <t>21:00:F4:C7:AA:08:06:07</t>
+  </si>
+  <si>
+    <t>21:00:F4:C7:AA:08:04:D7</t>
+  </si>
+  <si>
+    <t>21:00:F4:C7:AA:08:05:6F</t>
+  </si>
+  <si>
+    <t>21:00:F4:C7:AA:08:05:0B</t>
+  </si>
+  <si>
+    <t>21:00:F4:C7:AA:08:04:E1</t>
+  </si>
+  <si>
+    <t>21:00:F4:C7:AA:08:04:D3</t>
+  </si>
+  <si>
+    <t>21:00:F4:C7:AA:08:05:2D</t>
+  </si>
+  <si>
+    <t>21:00:F4:C7:AA:08:05:0F</t>
+  </si>
+  <si>
+    <t>CHG0176747</t>
+  </si>
+  <si>
+    <t>RITM5083480- SAP_ End of Support Life (EOSL) W0BRTMP001 OS Upgrade | Activity Scheduled on 16th Dec 2024 06.30 AM-2PM | Requestor: Nisha Bhat</t>
+  </si>
+  <si>
+    <t>10.243.94.15</t>
+  </si>
+  <si>
+    <t>10.243.94.16</t>
+  </si>
+  <si>
+    <t>10.243.94.17</t>
+  </si>
+  <si>
+    <t>10.243.94.18</t>
+  </si>
+  <si>
+    <t>10.243.94.19</t>
+  </si>
+  <si>
+    <t>Microsoft Windows Server 2019 STD</t>
+  </si>
+  <si>
+    <t>CTASK0558062</t>
+  </si>
+  <si>
+    <t>10.243.94.100</t>
+  </si>
+  <si>
+    <t>Only DELL servers IP</t>
+  </si>
+  <si>
+    <t>Server IP</t>
+  </si>
+  <si>
+    <t>20Pme1esx!/20pme1esx!/20pme1esx</t>
+  </si>
+  <si>
+    <t>14000+7000(Kuvera App)</t>
+  </si>
+  <si>
+    <t>Server UP OS Installed, IP, Hostname configured, need to add to the cluster</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="29">
+  <fonts count="34">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1967,8 +2109,42 @@
       <name val="Segoe UI"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2005,8 +2181,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="64">
+  <borders count="62">
     <border>
       <left/>
       <right/>
@@ -2776,47 +2958,21 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
+      <top style="medium">
         <color indexed="64"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
+      <left/>
       <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -2824,7 +2980,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="372">
+  <cellXfs count="373">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -3484,9 +3640,6 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3503,104 +3656,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="23" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="23" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="22" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="22" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3615,22 +3682,10 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3645,136 +3700,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="23" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3808,9 +3737,6 @@
     <xf numFmtId="0" fontId="25" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3834,6 +3760,166 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3843,38 +3929,125 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="23" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="23" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="23" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="30" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -4203,24 +4376,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DF4C3B2-726E-4F79-82C8-5BF433C2D7AC}">
-  <dimension ref="A1:Z314"/>
+  <dimension ref="A1:Z311"/>
   <sheetViews>
-    <sheetView topLeftCell="A41" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="D75" sqref="D75"/>
+    <sheetView topLeftCell="A57" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="E79" sqref="E79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17"/>
   <cols>
     <col min="1" max="1" width="8.54296875" style="22" customWidth="1"/>
-    <col min="2" max="2" width="45.36328125" style="20" customWidth="1"/>
-    <col min="3" max="3" width="24.6328125" style="20" customWidth="1"/>
+    <col min="2" max="2" width="82.36328125" style="20" customWidth="1"/>
+    <col min="3" max="3" width="27.1796875" style="20" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="26.7265625" style="20" customWidth="1"/>
     <col min="5" max="5" width="43.7265625" style="20" customWidth="1"/>
     <col min="6" max="6" width="33.08984375" style="20" customWidth="1"/>
     <col min="7" max="7" width="22.6328125" style="20" customWidth="1"/>
     <col min="8" max="8" width="19.90625" style="20" customWidth="1"/>
-    <col min="9" max="9" width="106" style="20" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="99" style="20" customWidth="1"/>
+    <col min="9" max="9" width="106" style="20" customWidth="1"/>
+    <col min="10" max="10" width="88.1796875" style="20" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="90.36328125" style="20" customWidth="1"/>
     <col min="12" max="12" width="77.36328125" style="20" customWidth="1"/>
     <col min="13" max="13" width="22.1796875" style="20" customWidth="1"/>
@@ -6022,154 +6195,154 @@
       <c r="A44" s="106">
         <v>42</v>
       </c>
-      <c r="B44" s="292" t="s">
-        <v>526</v>
-      </c>
-      <c r="C44" s="293"/>
-      <c r="D44" s="293"/>
-      <c r="E44" s="294"/>
+      <c r="B44" s="284" t="s">
+        <v>506</v>
+      </c>
+      <c r="C44" s="285"/>
+      <c r="D44" s="285"/>
+      <c r="E44" s="286"/>
     </row>
     <row r="45" spans="1:21" ht="17.5" thickBot="1">
       <c r="A45" s="106">
         <v>43</v>
       </c>
-      <c r="B45" s="295"/>
-      <c r="C45" s="296"/>
-      <c r="D45" s="296"/>
-      <c r="E45" s="297"/>
-      <c r="G45" s="292" t="s">
-        <v>415</v>
-      </c>
-      <c r="H45" s="293"/>
-      <c r="I45" s="294"/>
+      <c r="B45" s="287"/>
+      <c r="C45" s="288"/>
+      <c r="D45" s="288"/>
+      <c r="E45" s="289"/>
+      <c r="G45" s="284" t="s">
+        <v>395</v>
+      </c>
+      <c r="H45" s="285"/>
+      <c r="I45" s="286"/>
     </row>
     <row r="46" spans="1:21" ht="17.5" thickBot="1">
       <c r="A46" s="106">
         <v>44</v>
       </c>
-      <c r="B46" s="298"/>
-      <c r="C46" s="299"/>
-      <c r="D46" s="299"/>
-      <c r="E46" s="299"/>
-      <c r="F46" s="301" t="s">
-        <v>416</v>
-      </c>
-      <c r="G46" s="298"/>
-      <c r="H46" s="299"/>
-      <c r="I46" s="300"/>
+      <c r="B46" s="290"/>
+      <c r="C46" s="291"/>
+      <c r="D46" s="291"/>
+      <c r="E46" s="291"/>
+      <c r="F46" s="293" t="s">
+        <v>396</v>
+      </c>
+      <c r="G46" s="290"/>
+      <c r="H46" s="291"/>
+      <c r="I46" s="292"/>
     </row>
     <row r="47" spans="1:21" ht="17.5" thickBot="1">
       <c r="A47" s="106">
         <v>46</v>
       </c>
       <c r="B47" s="27" t="s">
-        <v>393</v>
-      </c>
-      <c r="C47" s="277" t="s">
-        <v>388</v>
-      </c>
-      <c r="D47" s="277" t="s">
-        <v>392</v>
+        <v>373</v>
+      </c>
+      <c r="C47" s="240" t="s">
+        <v>368</v>
+      </c>
+      <c r="D47" s="240" t="s">
+        <v>372</v>
       </c>
       <c r="E47" s="72" t="s">
-        <v>406</v>
-      </c>
-      <c r="F47" s="302"/>
+        <v>386</v>
+      </c>
+      <c r="F47" s="294"/>
       <c r="G47" s="28" t="s">
-        <v>407</v>
+        <v>387</v>
       </c>
       <c r="H47" s="28" t="s">
         <v>49</v>
       </c>
       <c r="I47" s="28" t="s">
-        <v>455</v>
+        <v>435</v>
       </c>
     </row>
     <row r="48" spans="1:21" ht="17.5" thickBot="1">
       <c r="A48" s="106">
         <v>47</v>
       </c>
-      <c r="B48" s="278" t="s">
-        <v>397</v>
-      </c>
-      <c r="C48" s="278" t="s">
-        <v>389</v>
-      </c>
-      <c r="D48" s="278" t="s">
+      <c r="B48" s="241" t="s">
+        <v>377</v>
+      </c>
+      <c r="C48" s="241" t="s">
+        <v>369</v>
+      </c>
+      <c r="D48" s="241" t="s">
+        <v>374</v>
+      </c>
+      <c r="E48" s="241" t="s">
+        <v>383</v>
+      </c>
+      <c r="F48" s="242" t="s">
+        <v>380</v>
+      </c>
+      <c r="G48" s="242" t="s">
+        <v>388</v>
+      </c>
+      <c r="H48" s="242" t="s">
+        <v>391</v>
+      </c>
+      <c r="I48" s="242" t="s">
         <v>394</v>
-      </c>
-      <c r="E48" s="278" t="s">
-        <v>403</v>
-      </c>
-      <c r="F48" s="279" t="s">
-        <v>400</v>
-      </c>
-      <c r="G48" s="279" t="s">
-        <v>408</v>
-      </c>
-      <c r="H48" s="279" t="s">
-        <v>411</v>
-      </c>
-      <c r="I48" s="279" t="s">
-        <v>414</v>
       </c>
     </row>
     <row r="49" spans="1:25" ht="17.5" thickBot="1">
       <c r="A49" s="106">
         <v>48</v>
       </c>
-      <c r="B49" s="278" t="s">
-        <v>398</v>
-      </c>
-      <c r="C49" s="278" t="s">
-        <v>391</v>
-      </c>
-      <c r="D49" s="278" t="s">
-        <v>395</v>
-      </c>
-      <c r="E49" s="278" t="s">
-        <v>404</v>
-      </c>
-      <c r="F49" s="279" t="s">
-        <v>401</v>
-      </c>
-      <c r="G49" s="279" t="s">
-        <v>409</v>
-      </c>
-      <c r="H49" s="279" t="s">
-        <v>412</v>
-      </c>
-      <c r="I49" s="279" t="s">
-        <v>414</v>
+      <c r="B49" s="241" t="s">
+        <v>378</v>
+      </c>
+      <c r="C49" s="241" t="s">
+        <v>371</v>
+      </c>
+      <c r="D49" s="241" t="s">
+        <v>375</v>
+      </c>
+      <c r="E49" s="241" t="s">
+        <v>384</v>
+      </c>
+      <c r="F49" s="242" t="s">
+        <v>381</v>
+      </c>
+      <c r="G49" s="242" t="s">
+        <v>389</v>
+      </c>
+      <c r="H49" s="242" t="s">
+        <v>392</v>
+      </c>
+      <c r="I49" s="242" t="s">
+        <v>394</v>
       </c>
     </row>
     <row r="50" spans="1:25" ht="17.5" thickBot="1">
       <c r="A50" s="106">
         <v>49</v>
       </c>
-      <c r="B50" s="280" t="s">
-        <v>399</v>
-      </c>
-      <c r="C50" s="280" t="s">
+      <c r="B50" s="243" t="s">
+        <v>379</v>
+      </c>
+      <c r="C50" s="243" t="s">
+        <v>370</v>
+      </c>
+      <c r="D50" s="243" t="s">
+        <v>376</v>
+      </c>
+      <c r="E50" s="243" t="s">
+        <v>385</v>
+      </c>
+      <c r="F50" s="244" t="s">
+        <v>382</v>
+      </c>
+      <c r="G50" s="244" t="s">
         <v>390</v>
       </c>
-      <c r="D50" s="280" t="s">
-        <v>396</v>
-      </c>
-      <c r="E50" s="280" t="s">
-        <v>405</v>
-      </c>
-      <c r="F50" s="281" t="s">
-        <v>402</v>
-      </c>
-      <c r="G50" s="281" t="s">
-        <v>410</v>
-      </c>
-      <c r="H50" s="281" t="s">
-        <v>413</v>
-      </c>
-      <c r="I50" s="281" t="s">
-        <v>414</v>
+      <c r="H50" s="244" t="s">
+        <v>393</v>
+      </c>
+      <c r="I50" s="244" t="s">
+        <v>394</v>
       </c>
     </row>
     <row r="51" spans="1:25" ht="17.5" thickBot="1">
@@ -6185,13 +6358,13 @@
         <v>212</v>
       </c>
       <c r="C52" s="202" t="s">
-        <v>433</v>
+        <v>413</v>
       </c>
       <c r="D52" s="203" t="s">
         <v>219</v>
       </c>
       <c r="E52" s="135" t="s">
-        <v>434</v>
+        <v>414</v>
       </c>
     </row>
     <row r="53" spans="1:25" ht="17.5" thickBot="1">
@@ -6257,55 +6430,55 @@
       <c r="A54" s="106">
         <v>53</v>
       </c>
-      <c r="B54" s="290" t="s">
-        <v>417</v>
-      </c>
-      <c r="C54" s="290" t="s">
-        <v>431</v>
-      </c>
-      <c r="D54" s="288" t="s">
-        <v>432</v>
-      </c>
-      <c r="E54" s="288">
+      <c r="B54" s="249" t="s">
+        <v>397</v>
+      </c>
+      <c r="C54" s="249" t="s">
+        <v>411</v>
+      </c>
+      <c r="D54" s="247" t="s">
+        <v>412</v>
+      </c>
+      <c r="E54" s="247">
         <v>4</v>
       </c>
-      <c r="F54" s="288">
+      <c r="F54" s="247">
         <v>32</v>
       </c>
-      <c r="G54" s="288">
+      <c r="G54" s="247">
         <v>284</v>
       </c>
-      <c r="H54" s="288" t="s">
-        <v>418</v>
-      </c>
-      <c r="I54" s="288" t="s">
-        <v>419</v>
-      </c>
-      <c r="J54" s="288" t="s">
-        <v>435</v>
-      </c>
-      <c r="K54" s="289" t="s">
-        <v>420</v>
-      </c>
-      <c r="L54" s="289" t="s">
-        <v>421</v>
-      </c>
-      <c r="M54" s="288">
+      <c r="H54" s="247" t="s">
+        <v>398</v>
+      </c>
+      <c r="I54" s="247" t="s">
+        <v>399</v>
+      </c>
+      <c r="J54" s="247" t="s">
+        <v>415</v>
+      </c>
+      <c r="K54" s="248" t="s">
+        <v>400</v>
+      </c>
+      <c r="L54" s="248" t="s">
+        <v>401</v>
+      </c>
+      <c r="M54" s="247">
         <v>120</v>
       </c>
-      <c r="N54" s="288">
+      <c r="N54" s="247">
         <v>100</v>
       </c>
-      <c r="O54" s="288">
+      <c r="O54" s="247">
         <v>64</v>
       </c>
-      <c r="P54" s="288" t="s">
-        <v>422</v>
-      </c>
-      <c r="Q54" s="288" t="s">
+      <c r="P54" s="247" t="s">
+        <v>402</v>
+      </c>
+      <c r="Q54" s="247" t="s">
         <v>22</v>
       </c>
-      <c r="R54" s="289" t="s">
+      <c r="R54" s="248" t="s">
         <v>196</v>
       </c>
       <c r="S54" s="17" t="s">
@@ -6316,55 +6489,55 @@
       <c r="A55" s="107">
         <v>54</v>
       </c>
-      <c r="B55" s="290" t="s">
-        <v>417</v>
-      </c>
-      <c r="C55" s="290" t="s">
-        <v>431</v>
-      </c>
-      <c r="D55" s="288" t="s">
-        <v>432</v>
-      </c>
-      <c r="E55" s="288">
+      <c r="B55" s="249" t="s">
+        <v>397</v>
+      </c>
+      <c r="C55" s="249" t="s">
+        <v>411</v>
+      </c>
+      <c r="D55" s="247" t="s">
+        <v>412</v>
+      </c>
+      <c r="E55" s="247">
         <v>4</v>
       </c>
-      <c r="F55" s="288">
+      <c r="F55" s="247">
         <v>32</v>
       </c>
-      <c r="G55" s="288">
+      <c r="G55" s="247">
         <v>284</v>
       </c>
-      <c r="H55" s="288" t="s">
-        <v>418</v>
-      </c>
-      <c r="I55" s="288" t="s">
-        <v>423</v>
-      </c>
-      <c r="J55" s="288" t="s">
-        <v>436</v>
-      </c>
-      <c r="K55" s="289" t="s">
-        <v>424</v>
-      </c>
-      <c r="L55" s="289" t="s">
-        <v>425</v>
-      </c>
-      <c r="M55" s="288">
+      <c r="H55" s="247" t="s">
+        <v>398</v>
+      </c>
+      <c r="I55" s="247" t="s">
+        <v>403</v>
+      </c>
+      <c r="J55" s="247" t="s">
+        <v>416</v>
+      </c>
+      <c r="K55" s="248" t="s">
+        <v>404</v>
+      </c>
+      <c r="L55" s="248" t="s">
+        <v>405</v>
+      </c>
+      <c r="M55" s="247">
         <v>120</v>
       </c>
-      <c r="N55" s="288">
+      <c r="N55" s="247">
         <v>100</v>
       </c>
-      <c r="O55" s="288">
+      <c r="O55" s="247">
         <v>64</v>
       </c>
-      <c r="P55" s="288" t="s">
-        <v>426</v>
-      </c>
-      <c r="Q55" s="288" t="s">
+      <c r="P55" s="247" t="s">
+        <v>406</v>
+      </c>
+      <c r="Q55" s="247" t="s">
         <v>22</v>
       </c>
-      <c r="R55" s="289" t="s">
+      <c r="R55" s="248" t="s">
         <v>196</v>
       </c>
       <c r="S55" s="17" t="s">
@@ -6375,55 +6548,55 @@
       <c r="A56" s="106">
         <v>55</v>
       </c>
-      <c r="B56" s="290" t="s">
+      <c r="B56" s="249" t="s">
+        <v>397</v>
+      </c>
+      <c r="C56" s="249" t="s">
+        <v>411</v>
+      </c>
+      <c r="D56" s="247" t="s">
+        <v>412</v>
+      </c>
+      <c r="E56" s="247">
+        <v>4</v>
+      </c>
+      <c r="F56" s="247">
+        <v>32</v>
+      </c>
+      <c r="G56" s="247">
+        <v>284</v>
+      </c>
+      <c r="H56" s="247" t="s">
+        <v>398</v>
+      </c>
+      <c r="I56" s="247" t="s">
+        <v>407</v>
+      </c>
+      <c r="J56" s="247" t="s">
         <v>417</v>
       </c>
-      <c r="C56" s="290" t="s">
-        <v>431</v>
-      </c>
-      <c r="D56" s="288" t="s">
-        <v>432</v>
-      </c>
-      <c r="E56" s="288">
-        <v>4</v>
-      </c>
-      <c r="F56" s="288">
-        <v>32</v>
-      </c>
-      <c r="G56" s="288">
-        <v>284</v>
-      </c>
-      <c r="H56" s="288" t="s">
-        <v>418</v>
-      </c>
-      <c r="I56" s="288" t="s">
-        <v>427</v>
-      </c>
-      <c r="J56" s="288" t="s">
-        <v>437</v>
-      </c>
-      <c r="K56" s="289" t="s">
-        <v>428</v>
-      </c>
-      <c r="L56" s="289" t="s">
-        <v>429</v>
-      </c>
-      <c r="M56" s="288">
+      <c r="K56" s="248" t="s">
+        <v>408</v>
+      </c>
+      <c r="L56" s="248" t="s">
+        <v>409</v>
+      </c>
+      <c r="M56" s="247">
         <v>120</v>
       </c>
-      <c r="N56" s="288">
+      <c r="N56" s="247">
         <v>100</v>
       </c>
-      <c r="O56" s="288">
+      <c r="O56" s="247">
         <v>64</v>
       </c>
-      <c r="P56" s="288" t="s">
-        <v>430</v>
-      </c>
-      <c r="Q56" s="288" t="s">
+      <c r="P56" s="247" t="s">
+        <v>410</v>
+      </c>
+      <c r="Q56" s="247" t="s">
         <v>22</v>
       </c>
-      <c r="R56" s="289" t="s">
+      <c r="R56" s="248" t="s">
         <v>196</v>
       </c>
       <c r="S56" s="17" t="s">
@@ -6440,16 +6613,16 @@
         <v>57</v>
       </c>
       <c r="B58" s="134" t="s">
-        <v>449</v>
+        <v>429</v>
       </c>
       <c r="C58" s="202" t="s">
-        <v>450</v>
+        <v>430</v>
       </c>
       <c r="D58" s="203" t="s">
         <v>219</v>
       </c>
       <c r="E58" s="135" t="s">
-        <v>454</v>
+        <v>434</v>
       </c>
     </row>
     <row r="59" spans="1:25" ht="17.5" thickBot="1">
@@ -6496,13 +6669,13 @@
         <v>99</v>
       </c>
       <c r="O59" s="126" t="s">
-        <v>451</v>
+        <v>431</v>
       </c>
       <c r="P59" s="126" t="s">
-        <v>451</v>
+        <v>431</v>
       </c>
       <c r="Q59" s="126" t="s">
-        <v>451</v>
+        <v>431</v>
       </c>
       <c r="R59" s="55" t="s">
         <v>38</v>
@@ -6524,64 +6697,64 @@
       <c r="A60" s="107">
         <v>59</v>
       </c>
-      <c r="B60" s="290" t="s">
+      <c r="B60" s="249" t="s">
         <v>17</v>
       </c>
-      <c r="C60" s="288" t="s">
-        <v>448</v>
-      </c>
-      <c r="D60" s="288" t="s">
-        <v>447</v>
-      </c>
-      <c r="E60" s="288">
+      <c r="C60" s="247" t="s">
+        <v>428</v>
+      </c>
+      <c r="D60" s="247" t="s">
+        <v>427</v>
+      </c>
+      <c r="E60" s="247">
         <v>4</v>
       </c>
-      <c r="F60" s="288">
+      <c r="F60" s="247">
         <v>16</v>
       </c>
-      <c r="G60" s="288">
+      <c r="G60" s="247">
         <v>252</v>
       </c>
-      <c r="H60" s="288" t="s">
-        <v>438</v>
-      </c>
-      <c r="I60" s="288" t="s">
-        <v>439</v>
-      </c>
-      <c r="J60" s="288" t="s">
-        <v>452</v>
-      </c>
-      <c r="K60" s="288" t="s">
-        <v>440</v>
-      </c>
-      <c r="L60" s="289" t="s">
-        <v>441</v>
-      </c>
-      <c r="M60" s="288">
+      <c r="H60" s="247" t="s">
+        <v>418</v>
+      </c>
+      <c r="I60" s="247" t="s">
+        <v>419</v>
+      </c>
+      <c r="J60" s="247" t="s">
+        <v>432</v>
+      </c>
+      <c r="K60" s="247" t="s">
+        <v>420</v>
+      </c>
+      <c r="L60" s="248" t="s">
+        <v>421</v>
+      </c>
+      <c r="M60" s="247">
         <v>120</v>
       </c>
-      <c r="N60" s="288">
+      <c r="N60" s="247">
         <v>100</v>
       </c>
-      <c r="O60" s="288">
+      <c r="O60" s="247">
         <v>0</v>
       </c>
-      <c r="P60" s="288">
+      <c r="P60" s="247">
         <v>0</v>
       </c>
-      <c r="Q60" s="288">
+      <c r="Q60" s="247">
         <v>0</v>
       </c>
-      <c r="R60" s="288">
+      <c r="R60" s="247">
         <v>32</v>
       </c>
-      <c r="S60" s="288" t="s">
-        <v>442</v>
-      </c>
-      <c r="T60" s="288" t="s">
+      <c r="S60" s="247" t="s">
+        <v>422</v>
+      </c>
+      <c r="T60" s="247" t="s">
         <v>355</v>
       </c>
-      <c r="U60" s="291" t="s">
+      <c r="U60" s="250" t="s">
         <v>196</v>
       </c>
       <c r="V60" s="148" t="s">
@@ -6592,64 +6765,64 @@
       <c r="A61" s="106">
         <v>60</v>
       </c>
-      <c r="B61" s="290" t="s">
+      <c r="B61" s="249" t="s">
         <v>17</v>
       </c>
-      <c r="C61" s="288" t="s">
-        <v>448</v>
-      </c>
-      <c r="D61" s="288" t="s">
-        <v>447</v>
-      </c>
-      <c r="E61" s="288">
+      <c r="C61" s="247" t="s">
+        <v>428</v>
+      </c>
+      <c r="D61" s="247" t="s">
+        <v>427</v>
+      </c>
+      <c r="E61" s="247">
         <v>4</v>
       </c>
-      <c r="F61" s="288">
+      <c r="F61" s="247">
         <v>16</v>
       </c>
-      <c r="G61" s="288">
+      <c r="G61" s="247">
         <v>252</v>
       </c>
-      <c r="H61" s="288" t="s">
-        <v>438</v>
-      </c>
-      <c r="I61" s="288" t="s">
-        <v>443</v>
-      </c>
-      <c r="J61" s="288" t="s">
-        <v>453</v>
-      </c>
-      <c r="K61" s="288" t="s">
-        <v>444</v>
-      </c>
-      <c r="L61" s="289" t="s">
-        <v>445</v>
-      </c>
-      <c r="M61" s="288">
+      <c r="H61" s="247" t="s">
+        <v>418</v>
+      </c>
+      <c r="I61" s="247" t="s">
+        <v>423</v>
+      </c>
+      <c r="J61" s="247" t="s">
+        <v>433</v>
+      </c>
+      <c r="K61" s="247" t="s">
+        <v>424</v>
+      </c>
+      <c r="L61" s="248" t="s">
+        <v>425</v>
+      </c>
+      <c r="M61" s="247">
         <v>120</v>
       </c>
-      <c r="N61" s="288">
+      <c r="N61" s="247">
         <v>100</v>
       </c>
-      <c r="O61" s="288">
+      <c r="O61" s="247">
         <v>0</v>
       </c>
-      <c r="P61" s="288">
+      <c r="P61" s="247">
         <v>0</v>
       </c>
-      <c r="Q61" s="288">
+      <c r="Q61" s="247">
         <v>0</v>
       </c>
-      <c r="R61" s="288">
+      <c r="R61" s="247">
         <v>32</v>
       </c>
-      <c r="S61" s="288" t="s">
-        <v>446</v>
-      </c>
-      <c r="T61" s="288" t="s">
+      <c r="S61" s="247" t="s">
+        <v>426</v>
+      </c>
+      <c r="T61" s="247" t="s">
         <v>355</v>
       </c>
-      <c r="U61" s="291" t="s">
+      <c r="U61" s="250" t="s">
         <v>196</v>
       </c>
       <c r="V61" s="151" t="s">
@@ -6666,16 +6839,16 @@
         <v>62</v>
       </c>
       <c r="B63" s="134" t="s">
-        <v>449</v>
+        <v>429</v>
       </c>
       <c r="C63" s="202" t="s">
-        <v>456</v>
+        <v>436</v>
       </c>
       <c r="D63" s="203" t="s">
-        <v>457</v>
+        <v>437</v>
       </c>
       <c r="E63" s="135" t="s">
-        <v>458</v>
+        <v>438</v>
       </c>
     </row>
     <row r="64" spans="1:25" ht="17.5" thickBot="1">
@@ -6725,16 +6898,16 @@
         <v>99</v>
       </c>
       <c r="P64" s="126" t="s">
-        <v>451</v>
+        <v>431</v>
       </c>
       <c r="Q64" s="126" t="s">
-        <v>451</v>
+        <v>431</v>
       </c>
       <c r="R64" s="126" t="s">
-        <v>451</v>
+        <v>431</v>
       </c>
       <c r="S64" s="55" t="s">
-        <v>451</v>
+        <v>431</v>
       </c>
       <c r="T64" s="50" t="s">
         <v>38</v>
@@ -6752,226 +6925,226 @@
         <v>47</v>
       </c>
       <c r="Y64" s="78" t="s">
-        <v>477</v>
+        <v>457</v>
       </c>
     </row>
     <row r="65" spans="1:25" ht="17.5" thickBot="1">
       <c r="A65" s="106">
         <v>64</v>
       </c>
-      <c r="B65" s="337" t="s">
-        <v>459</v>
-      </c>
-      <c r="C65" s="337" t="s">
-        <v>476</v>
-      </c>
-      <c r="D65" s="337" t="s">
+      <c r="B65" s="254" t="s">
+        <v>439</v>
+      </c>
+      <c r="C65" s="254" t="s">
+        <v>456</v>
+      </c>
+      <c r="D65" s="254" t="s">
         <v>359</v>
       </c>
-      <c r="E65" s="337">
+      <c r="E65" s="254">
         <v>8</v>
       </c>
-      <c r="F65" s="337">
+      <c r="F65" s="254">
         <v>32</v>
       </c>
-      <c r="G65" s="337">
+      <c r="G65" s="254">
         <v>544</v>
       </c>
-      <c r="H65" s="337" t="s">
-        <v>460</v>
-      </c>
-      <c r="I65" s="337" t="s">
-        <v>461</v>
-      </c>
-      <c r="J65" s="337" t="s">
-        <v>521</v>
-      </c>
-      <c r="K65" s="337" t="s">
-        <v>527</v>
-      </c>
-      <c r="L65" s="337" t="s">
-        <v>462</v>
-      </c>
-      <c r="M65" s="337" t="s">
-        <v>463</v>
-      </c>
-      <c r="N65" s="337">
+      <c r="H65" s="254" t="s">
+        <v>440</v>
+      </c>
+      <c r="I65" s="254" t="s">
+        <v>441</v>
+      </c>
+      <c r="J65" s="254" t="s">
+        <v>501</v>
+      </c>
+      <c r="K65" s="254" t="s">
+        <v>507</v>
+      </c>
+      <c r="L65" s="254" t="s">
+        <v>442</v>
+      </c>
+      <c r="M65" s="254" t="s">
+        <v>443</v>
+      </c>
+      <c r="N65" s="254">
         <v>120</v>
       </c>
-      <c r="O65" s="337">
+      <c r="O65" s="254">
         <v>120</v>
       </c>
-      <c r="P65" s="337">
+      <c r="P65" s="254">
         <v>120</v>
       </c>
-      <c r="Q65" s="337"/>
-      <c r="R65" s="337">
+      <c r="Q65" s="254"/>
+      <c r="R65" s="254">
         <v>120</v>
       </c>
-      <c r="S65" s="337">
+      <c r="S65" s="254">
         <v>0</v>
       </c>
-      <c r="T65" s="337">
+      <c r="T65" s="254">
         <v>64</v>
       </c>
-      <c r="U65" s="337" t="s">
-        <v>464</v>
-      </c>
-      <c r="V65" s="337" t="s">
+      <c r="U65" s="254" t="s">
+        <v>444</v>
+      </c>
+      <c r="V65" s="254" t="s">
         <v>355</v>
       </c>
-      <c r="W65" s="337" t="s">
+      <c r="W65" s="254" t="s">
         <v>196</v>
       </c>
-      <c r="X65" s="337" t="s">
+      <c r="X65" s="254" t="s">
         <v>148</v>
       </c>
-      <c r="Y65" s="337" t="s">
-        <v>465</v>
+      <c r="Y65" s="254" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="66" spans="1:25" ht="17.5" thickBot="1">
       <c r="A66" s="107">
         <v>65</v>
       </c>
-      <c r="B66" s="337" t="s">
-        <v>459</v>
-      </c>
-      <c r="C66" s="337" t="s">
-        <v>476</v>
-      </c>
-      <c r="D66" s="337" t="s">
+      <c r="B66" s="254" t="s">
+        <v>439</v>
+      </c>
+      <c r="C66" s="254" t="s">
+        <v>456</v>
+      </c>
+      <c r="D66" s="254" t="s">
         <v>359</v>
       </c>
-      <c r="E66" s="337">
+      <c r="E66" s="254">
         <v>8</v>
       </c>
-      <c r="F66" s="337">
+      <c r="F66" s="254">
         <v>32</v>
       </c>
-      <c r="G66" s="337">
+      <c r="G66" s="254">
         <v>684</v>
       </c>
-      <c r="H66" s="337" t="s">
-        <v>460</v>
-      </c>
-      <c r="I66" s="337" t="s">
-        <v>466</v>
-      </c>
-      <c r="J66" s="337" t="s">
-        <v>522</v>
-      </c>
-      <c r="K66" s="337" t="s">
-        <v>527</v>
-      </c>
-      <c r="L66" s="337" t="s">
-        <v>467</v>
-      </c>
-      <c r="M66" s="337" t="s">
-        <v>468</v>
-      </c>
-      <c r="N66" s="337">
+      <c r="H66" s="254" t="s">
+        <v>440</v>
+      </c>
+      <c r="I66" s="254" t="s">
+        <v>446</v>
+      </c>
+      <c r="J66" s="254" t="s">
+        <v>502</v>
+      </c>
+      <c r="K66" s="254" t="s">
+        <v>507</v>
+      </c>
+      <c r="L66" s="254" t="s">
+        <v>447</v>
+      </c>
+      <c r="M66" s="254" t="s">
+        <v>448</v>
+      </c>
+      <c r="N66" s="254">
         <v>120</v>
       </c>
-      <c r="O66" s="337">
+      <c r="O66" s="254">
         <v>250</v>
       </c>
-      <c r="P66" s="337">
+      <c r="P66" s="254">
         <v>250</v>
       </c>
-      <c r="Q66" s="337"/>
-      <c r="R66" s="337"/>
-      <c r="S66" s="337">
+      <c r="Q66" s="254"/>
+      <c r="R66" s="254"/>
+      <c r="S66" s="254">
         <v>0</v>
       </c>
-      <c r="T66" s="337">
+      <c r="T66" s="254">
         <v>64</v>
       </c>
-      <c r="U66" s="337" t="s">
-        <v>469</v>
-      </c>
-      <c r="V66" s="337" t="s">
+      <c r="U66" s="254" t="s">
+        <v>449</v>
+      </c>
+      <c r="V66" s="254" t="s">
         <v>355</v>
       </c>
-      <c r="W66" s="337" t="s">
+      <c r="W66" s="254" t="s">
         <v>196</v>
       </c>
-      <c r="X66" s="337" t="s">
+      <c r="X66" s="254" t="s">
         <v>148</v>
       </c>
-      <c r="Y66" s="337" t="s">
-        <v>470</v>
+      <c r="Y66" s="254" t="s">
+        <v>450</v>
       </c>
     </row>
     <row r="67" spans="1:25" ht="17.5" thickBot="1">
       <c r="A67" s="106">
         <v>66</v>
       </c>
-      <c r="B67" s="337" t="s">
-        <v>459</v>
-      </c>
-      <c r="C67" s="337" t="s">
-        <v>476</v>
-      </c>
-      <c r="D67" s="337" t="s">
+      <c r="B67" s="254" t="s">
+        <v>439</v>
+      </c>
+      <c r="C67" s="254" t="s">
+        <v>456</v>
+      </c>
+      <c r="D67" s="254" t="s">
         <v>359</v>
       </c>
-      <c r="E67" s="337">
+      <c r="E67" s="254">
         <v>8</v>
       </c>
-      <c r="F67" s="337">
+      <c r="F67" s="254">
         <v>32</v>
       </c>
-      <c r="G67" s="337">
+      <c r="G67" s="254">
         <v>1404</v>
       </c>
-      <c r="H67" s="337" t="s">
-        <v>460</v>
-      </c>
-      <c r="I67" s="337" t="s">
-        <v>471</v>
-      </c>
-      <c r="J67" s="337" t="s">
-        <v>523</v>
-      </c>
-      <c r="K67" s="337" t="s">
-        <v>527</v>
-      </c>
-      <c r="L67" s="337" t="s">
-        <v>472</v>
-      </c>
-      <c r="M67" s="337" t="s">
-        <v>473</v>
-      </c>
-      <c r="N67" s="337">
+      <c r="H67" s="254" t="s">
+        <v>440</v>
+      </c>
+      <c r="I67" s="254" t="s">
+        <v>451</v>
+      </c>
+      <c r="J67" s="254" t="s">
+        <v>503</v>
+      </c>
+      <c r="K67" s="254" t="s">
+        <v>507</v>
+      </c>
+      <c r="L67" s="254" t="s">
+        <v>452</v>
+      </c>
+      <c r="M67" s="254" t="s">
+        <v>453</v>
+      </c>
+      <c r="N67" s="254">
         <v>120</v>
       </c>
-      <c r="O67" s="337">
+      <c r="O67" s="254">
         <v>120</v>
       </c>
-      <c r="P67" s="337"/>
-      <c r="Q67" s="337"/>
-      <c r="R67" s="337"/>
-      <c r="S67" s="337">
+      <c r="P67" s="254"/>
+      <c r="Q67" s="254"/>
+      <c r="R67" s="254"/>
+      <c r="S67" s="254">
         <v>1100</v>
       </c>
-      <c r="T67" s="337">
+      <c r="T67" s="254">
         <v>64</v>
       </c>
-      <c r="U67" s="337" t="s">
-        <v>474</v>
-      </c>
-      <c r="V67" s="337" t="s">
+      <c r="U67" s="254" t="s">
+        <v>454</v>
+      </c>
+      <c r="V67" s="254" t="s">
         <v>355</v>
       </c>
-      <c r="W67" s="337" t="s">
+      <c r="W67" s="254" t="s">
         <v>196</v>
       </c>
-      <c r="X67" s="337" t="s">
+      <c r="X67" s="254" t="s">
         <v>148</v>
       </c>
-      <c r="Y67" s="337" t="s">
-        <v>475</v>
+      <c r="Y67" s="254" t="s">
+        <v>455</v>
       </c>
     </row>
     <row r="68" spans="1:25" ht="17.5" thickBot="1">
@@ -6979,7 +7152,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="69" spans="1:25" ht="34.5" thickBot="1">
+    <row r="69" spans="1:25" ht="17.5" thickBot="1">
       <c r="A69" s="107">
         <v>69</v>
       </c>
@@ -6987,20 +7160,20 @@
         <v>212</v>
       </c>
       <c r="C69" s="202" t="s">
-        <v>536</v>
+        <v>516</v>
       </c>
       <c r="D69" s="203" t="s">
-        <v>457</v>
+        <v>437</v>
       </c>
       <c r="E69" s="135" t="s">
-        <v>537</v>
+        <v>517</v>
       </c>
     </row>
     <row r="70" spans="1:25" ht="17.5" thickBot="1">
       <c r="A70" s="106">
         <v>70</v>
       </c>
-      <c r="B70" s="345" t="s">
+      <c r="B70" s="262" t="s">
         <v>29</v>
       </c>
       <c r="C70" s="62" t="s">
@@ -7009,10 +7182,10 @@
       <c r="D70" s="62" t="s">
         <v>168</v>
       </c>
-      <c r="E70" s="346" t="s">
+      <c r="E70" s="263" t="s">
         <v>30</v>
       </c>
-      <c r="F70" s="346" t="s">
+      <c r="F70" s="263" t="s">
         <v>31</v>
       </c>
       <c r="G70" s="55" t="s">
@@ -7027,28 +7200,28 @@
       <c r="J70" s="62" t="s">
         <v>93</v>
       </c>
-      <c r="K70" s="346" t="s">
+      <c r="K70" s="263" t="s">
         <v>33</v>
       </c>
-      <c r="L70" s="346" t="s">
+      <c r="L70" s="263" t="s">
         <v>34</v>
       </c>
-      <c r="M70" s="346" t="s">
+      <c r="M70" s="263" t="s">
         <v>35</v>
       </c>
-      <c r="N70" s="347" t="s">
+      <c r="N70" s="263" t="s">
         <v>98</v>
       </c>
-      <c r="O70" s="347" t="s">
+      <c r="O70" s="263" t="s">
         <v>99</v>
       </c>
-      <c r="P70" s="346" t="s">
+      <c r="P70" s="263" t="s">
         <v>38</v>
       </c>
-      <c r="Q70" s="346" t="s">
+      <c r="Q70" s="263" t="s">
         <v>8</v>
       </c>
-      <c r="R70" s="346" t="s">
+      <c r="R70" s="263" t="s">
         <v>39</v>
       </c>
       <c r="S70" s="62" t="s">
@@ -7062,61 +7235,61 @@
       <c r="A71" s="106">
         <v>71</v>
       </c>
-      <c r="B71" s="348" t="s">
+      <c r="B71" s="264" t="s">
         <v>350</v>
       </c>
-      <c r="C71" s="349" t="s">
+      <c r="C71" s="265" t="s">
         <v>358</v>
       </c>
-      <c r="D71" s="349" t="s">
-        <v>534</v>
-      </c>
-      <c r="E71" s="349">
+      <c r="D71" s="265" t="s">
+        <v>514</v>
+      </c>
+      <c r="E71" s="265">
         <v>4</v>
       </c>
-      <c r="F71" s="349">
+      <c r="F71" s="265">
         <v>16</v>
       </c>
-      <c r="G71" s="349">
+      <c r="G71" s="265">
         <v>302</v>
       </c>
-      <c r="H71" s="349" t="s">
-        <v>529</v>
-      </c>
-      <c r="I71" s="349" t="s">
-        <v>535</v>
-      </c>
-      <c r="J71" s="349" t="s">
-        <v>538</v>
-      </c>
-      <c r="K71" s="349" t="s">
-        <v>530</v>
-      </c>
-      <c r="L71" s="349" t="s">
-        <v>531</v>
-      </c>
-      <c r="M71" s="349" t="s">
-        <v>532</v>
-      </c>
-      <c r="N71" s="349">
+      <c r="H71" s="265" t="s">
+        <v>509</v>
+      </c>
+      <c r="I71" s="265" t="s">
+        <v>515</v>
+      </c>
+      <c r="J71" s="265" t="s">
+        <v>518</v>
+      </c>
+      <c r="K71" s="265" t="s">
+        <v>510</v>
+      </c>
+      <c r="L71" s="265" t="s">
+        <v>511</v>
+      </c>
+      <c r="M71" s="265" t="s">
+        <v>512</v>
+      </c>
+      <c r="N71" s="265">
         <v>120</v>
       </c>
-      <c r="O71" s="349">
+      <c r="O71" s="265">
         <v>150</v>
       </c>
-      <c r="P71" s="349">
+      <c r="P71" s="265">
         <v>32</v>
       </c>
-      <c r="Q71" s="349" t="s">
-        <v>533</v>
-      </c>
-      <c r="R71" s="349" t="s">
+      <c r="Q71" s="265" t="s">
+        <v>513</v>
+      </c>
+      <c r="R71" s="265" t="s">
         <v>22</v>
       </c>
-      <c r="S71" s="349" t="s">
+      <c r="S71" s="265" t="s">
         <v>196</v>
       </c>
-      <c r="T71" s="350" t="s">
+      <c r="T71" s="266" t="s">
         <v>148</v>
       </c>
     </row>
@@ -7125,1213 +7298,1231 @@
         <v>72</v>
       </c>
     </row>
-    <row r="73" spans="1:25">
+    <row r="73" spans="1:25" ht="17.5" thickBot="1">
       <c r="A73" s="30">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="74" spans="1:25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="74" spans="1:25" ht="17.5" thickBot="1">
       <c r="A74" s="30">
-        <v>74</v>
+        <v>77</v>
+      </c>
+      <c r="B74" s="58" t="s">
+        <v>552</v>
+      </c>
+      <c r="C74" s="58" t="s">
+        <v>553</v>
       </c>
     </row>
     <row r="75" spans="1:25">
       <c r="A75" s="30">
-        <v>75</v>
+        <v>78</v>
+      </c>
+      <c r="B75" s="166" t="s">
+        <v>35</v>
+      </c>
+      <c r="C75" s="337" t="s">
+        <v>121</v>
+      </c>
+      <c r="D75" s="337" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="76" spans="1:25">
-      <c r="A76" s="30">
-        <v>76</v>
+      <c r="A76" s="19">
+        <v>79</v>
+      </c>
+      <c r="B76" s="251" t="s">
+        <v>546</v>
+      </c>
+      <c r="C76" s="251" t="s">
+        <v>547</v>
       </c>
     </row>
     <row r="77" spans="1:25">
-      <c r="A77" s="19">
-        <v>77</v>
+      <c r="A77" s="30">
+        <v>80</v>
+      </c>
+      <c r="B77" s="251" t="s">
+        <v>548</v>
+      </c>
+      <c r="C77" s="251" t="s">
+        <v>549</v>
       </c>
     </row>
     <row r="78" spans="1:25">
-      <c r="A78" s="30">
-        <v>78</v>
+      <c r="A78" s="19">
+        <v>81</v>
+      </c>
+      <c r="B78" s="251" t="s">
+        <v>550</v>
+      </c>
+      <c r="C78" s="251" t="s">
+        <v>551</v>
       </c>
     </row>
     <row r="79" spans="1:25">
-      <c r="A79" s="19">
-        <v>79</v>
+      <c r="A79" s="30">
+        <v>82</v>
       </c>
     </row>
     <row r="80" spans="1:25">
       <c r="A80" s="30">
-        <v>80</v>
+        <v>83</v>
       </c>
     </row>
     <row r="81" spans="1:1">
-      <c r="A81" s="19">
-        <v>81</v>
+      <c r="A81" s="30">
+        <v>84</v>
       </c>
     </row>
     <row r="82" spans="1:1">
       <c r="A82" s="30">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="83" spans="1:1">
-      <c r="A83" s="19">
-        <v>83</v>
+      <c r="A83" s="30">
+        <v>86</v>
       </c>
     </row>
     <row r="84" spans="1:1">
       <c r="A84" s="30">
-        <v>84</v>
+        <v>87</v>
       </c>
     </row>
     <row r="85" spans="1:1">
-      <c r="A85" s="19">
-        <v>85</v>
+      <c r="A85" s="30">
+        <v>88</v>
       </c>
     </row>
     <row r="86" spans="1:1">
-      <c r="A86" s="30">
-        <v>86</v>
+      <c r="A86" s="19">
+        <v>89</v>
       </c>
     </row>
     <row r="87" spans="1:1">
-      <c r="A87" s="19">
-        <v>87</v>
+      <c r="A87" s="30">
+        <v>90</v>
       </c>
     </row>
     <row r="88" spans="1:1">
       <c r="A88" s="30">
-        <v>88</v>
+        <v>91</v>
       </c>
     </row>
     <row r="89" spans="1:1">
-      <c r="A89" s="19">
-        <v>89</v>
+      <c r="A89" s="30">
+        <v>92</v>
       </c>
     </row>
     <row r="90" spans="1:1">
       <c r="A90" s="30">
-        <v>90</v>
+        <v>93</v>
       </c>
     </row>
     <row r="91" spans="1:1">
-      <c r="A91" s="19">
-        <v>91</v>
+      <c r="A91" s="30">
+        <v>94</v>
       </c>
     </row>
     <row r="92" spans="1:1">
       <c r="A92" s="30">
-        <v>92</v>
+        <v>95</v>
       </c>
     </row>
     <row r="93" spans="1:1">
-      <c r="A93" s="19">
-        <v>93</v>
+      <c r="A93" s="30">
+        <v>96</v>
       </c>
     </row>
     <row r="94" spans="1:1">
-      <c r="A94" s="30">
-        <v>94</v>
+      <c r="A94" s="19">
+        <v>97</v>
       </c>
     </row>
     <row r="95" spans="1:1">
-      <c r="A95" s="19">
-        <v>95</v>
+      <c r="A95" s="30">
+        <v>98</v>
       </c>
     </row>
     <row r="96" spans="1:1">
-      <c r="A96" s="30">
-        <v>96</v>
+      <c r="A96" s="19">
+        <v>99</v>
       </c>
     </row>
     <row r="97" spans="1:1">
-      <c r="A97" s="19">
-        <v>97</v>
+      <c r="A97" s="30">
+        <v>100</v>
       </c>
     </row>
     <row r="98" spans="1:1">
-      <c r="A98" s="30">
-        <v>98</v>
+      <c r="A98" s="19">
+        <v>101</v>
       </c>
     </row>
     <row r="99" spans="1:1">
-      <c r="A99" s="19">
-        <v>99</v>
+      <c r="A99" s="30">
+        <v>102</v>
       </c>
     </row>
     <row r="100" spans="1:1">
-      <c r="A100" s="30">
-        <v>100</v>
+      <c r="A100" s="19">
+        <v>103</v>
       </c>
     </row>
     <row r="101" spans="1:1">
-      <c r="A101" s="19">
-        <v>101</v>
+      <c r="A101" s="30">
+        <v>104</v>
       </c>
     </row>
     <row r="102" spans="1:1">
-      <c r="A102" s="30">
-        <v>102</v>
+      <c r="A102" s="19">
+        <v>105</v>
       </c>
     </row>
     <row r="103" spans="1:1">
-      <c r="A103" s="19">
-        <v>103</v>
+      <c r="A103" s="30">
+        <v>106</v>
       </c>
     </row>
     <row r="104" spans="1:1">
-      <c r="A104" s="30">
-        <v>104</v>
+      <c r="A104" s="19">
+        <v>107</v>
       </c>
     </row>
     <row r="105" spans="1:1">
-      <c r="A105" s="19">
-        <v>105</v>
+      <c r="A105" s="30">
+        <v>108</v>
       </c>
     </row>
     <row r="106" spans="1:1">
-      <c r="A106" s="30">
-        <v>106</v>
+      <c r="A106" s="19">
+        <v>109</v>
       </c>
     </row>
     <row r="107" spans="1:1">
-      <c r="A107" s="19">
-        <v>107</v>
+      <c r="A107" s="30">
+        <v>110</v>
       </c>
     </row>
     <row r="108" spans="1:1">
-      <c r="A108" s="30">
-        <v>108</v>
+      <c r="A108" s="19">
+        <v>111</v>
       </c>
     </row>
     <row r="109" spans="1:1">
-      <c r="A109" s="19">
-        <v>109</v>
+      <c r="A109" s="30">
+        <v>112</v>
       </c>
     </row>
     <row r="110" spans="1:1">
-      <c r="A110" s="30">
-        <v>110</v>
+      <c r="A110" s="19">
+        <v>113</v>
       </c>
     </row>
     <row r="111" spans="1:1">
-      <c r="A111" s="19">
-        <v>111</v>
+      <c r="A111" s="30">
+        <v>114</v>
       </c>
     </row>
     <row r="112" spans="1:1">
-      <c r="A112" s="30">
-        <v>112</v>
+      <c r="A112" s="19">
+        <v>115</v>
       </c>
     </row>
     <row r="113" spans="1:1">
-      <c r="A113" s="19">
-        <v>113</v>
+      <c r="A113" s="30">
+        <v>116</v>
       </c>
     </row>
     <row r="114" spans="1:1">
-      <c r="A114" s="30">
-        <v>114</v>
+      <c r="A114" s="19">
+        <v>117</v>
       </c>
     </row>
     <row r="115" spans="1:1">
-      <c r="A115" s="19">
-        <v>115</v>
+      <c r="A115" s="30">
+        <v>118</v>
       </c>
     </row>
     <row r="116" spans="1:1">
-      <c r="A116" s="30">
-        <v>116</v>
+      <c r="A116" s="19">
+        <v>119</v>
       </c>
     </row>
     <row r="117" spans="1:1">
-      <c r="A117" s="19">
-        <v>117</v>
+      <c r="A117" s="30">
+        <v>120</v>
       </c>
     </row>
     <row r="118" spans="1:1">
-      <c r="A118" s="30">
-        <v>118</v>
+      <c r="A118" s="19">
+        <v>121</v>
       </c>
     </row>
     <row r="119" spans="1:1">
-      <c r="A119" s="19">
-        <v>119</v>
+      <c r="A119" s="30">
+        <v>122</v>
       </c>
     </row>
     <row r="120" spans="1:1">
-      <c r="A120" s="30">
-        <v>120</v>
+      <c r="A120" s="19">
+        <v>123</v>
       </c>
     </row>
     <row r="121" spans="1:1">
-      <c r="A121" s="19">
-        <v>121</v>
+      <c r="A121" s="30">
+        <v>124</v>
       </c>
     </row>
     <row r="122" spans="1:1">
-      <c r="A122" s="30">
-        <v>122</v>
+      <c r="A122" s="19">
+        <v>125</v>
       </c>
     </row>
     <row r="123" spans="1:1">
-      <c r="A123" s="19">
-        <v>123</v>
+      <c r="A123" s="30">
+        <v>126</v>
       </c>
     </row>
     <row r="124" spans="1:1">
-      <c r="A124" s="30">
-        <v>124</v>
+      <c r="A124" s="19">
+        <v>127</v>
       </c>
     </row>
     <row r="125" spans="1:1">
-      <c r="A125" s="19">
-        <v>125</v>
+      <c r="A125" s="30">
+        <v>128</v>
       </c>
     </row>
     <row r="126" spans="1:1">
-      <c r="A126" s="30">
-        <v>126</v>
+      <c r="A126" s="19">
+        <v>129</v>
       </c>
     </row>
     <row r="127" spans="1:1">
-      <c r="A127" s="19">
-        <v>127</v>
+      <c r="A127" s="30">
+        <v>130</v>
       </c>
     </row>
     <row r="128" spans="1:1">
-      <c r="A128" s="30">
-        <v>128</v>
+      <c r="A128" s="19">
+        <v>131</v>
       </c>
     </row>
     <row r="129" spans="1:1">
-      <c r="A129" s="19">
-        <v>129</v>
+      <c r="A129" s="30">
+        <v>132</v>
       </c>
     </row>
     <row r="130" spans="1:1">
-      <c r="A130" s="30">
-        <v>130</v>
+      <c r="A130" s="19">
+        <v>133</v>
       </c>
     </row>
     <row r="131" spans="1:1">
-      <c r="A131" s="19">
-        <v>131</v>
+      <c r="A131" s="30">
+        <v>134</v>
       </c>
     </row>
     <row r="132" spans="1:1">
-      <c r="A132" s="30">
-        <v>132</v>
+      <c r="A132" s="19">
+        <v>135</v>
       </c>
     </row>
     <row r="133" spans="1:1">
-      <c r="A133" s="19">
-        <v>133</v>
+      <c r="A133" s="30">
+        <v>136</v>
       </c>
     </row>
     <row r="134" spans="1:1">
-      <c r="A134" s="30">
-        <v>134</v>
+      <c r="A134" s="19">
+        <v>137</v>
       </c>
     </row>
     <row r="135" spans="1:1">
-      <c r="A135" s="19">
-        <v>135</v>
+      <c r="A135" s="30">
+        <v>138</v>
       </c>
     </row>
     <row r="136" spans="1:1">
-      <c r="A136" s="30">
-        <v>136</v>
+      <c r="A136" s="19">
+        <v>139</v>
       </c>
     </row>
     <row r="137" spans="1:1">
-      <c r="A137" s="19">
-        <v>137</v>
+      <c r="A137" s="30">
+        <v>140</v>
       </c>
     </row>
     <row r="138" spans="1:1">
-      <c r="A138" s="30">
-        <v>138</v>
+      <c r="A138" s="19">
+        <v>141</v>
       </c>
     </row>
     <row r="139" spans="1:1">
-      <c r="A139" s="19">
-        <v>139</v>
+      <c r="A139" s="30">
+        <v>142</v>
       </c>
     </row>
     <row r="140" spans="1:1">
-      <c r="A140" s="30">
-        <v>140</v>
+      <c r="A140" s="19">
+        <v>143</v>
       </c>
     </row>
     <row r="141" spans="1:1">
-      <c r="A141" s="19">
-        <v>141</v>
+      <c r="A141" s="30">
+        <v>144</v>
       </c>
     </row>
     <row r="142" spans="1:1">
-      <c r="A142" s="30">
-        <v>142</v>
+      <c r="A142" s="19">
+        <v>145</v>
       </c>
     </row>
     <row r="143" spans="1:1">
-      <c r="A143" s="19">
-        <v>143</v>
+      <c r="A143" s="30">
+        <v>146</v>
       </c>
     </row>
     <row r="144" spans="1:1">
-      <c r="A144" s="30">
-        <v>144</v>
+      <c r="A144" s="19">
+        <v>147</v>
       </c>
     </row>
     <row r="145" spans="1:1">
-      <c r="A145" s="19">
-        <v>145</v>
+      <c r="A145" s="30">
+        <v>148</v>
       </c>
     </row>
     <row r="146" spans="1:1">
-      <c r="A146" s="30">
-        <v>146</v>
+      <c r="A146" s="19">
+        <v>149</v>
       </c>
     </row>
     <row r="147" spans="1:1">
-      <c r="A147" s="19">
-        <v>147</v>
+      <c r="A147" s="30">
+        <v>150</v>
       </c>
     </row>
     <row r="148" spans="1:1">
-      <c r="A148" s="30">
-        <v>148</v>
+      <c r="A148" s="19">
+        <v>151</v>
       </c>
     </row>
     <row r="149" spans="1:1">
-      <c r="A149" s="19">
-        <v>149</v>
+      <c r="A149" s="30">
+        <v>152</v>
       </c>
     </row>
     <row r="150" spans="1:1">
-      <c r="A150" s="30">
-        <v>150</v>
+      <c r="A150" s="19">
+        <v>153</v>
       </c>
     </row>
     <row r="151" spans="1:1">
-      <c r="A151" s="19">
-        <v>151</v>
+      <c r="A151" s="30">
+        <v>154</v>
       </c>
     </row>
     <row r="152" spans="1:1">
-      <c r="A152" s="30">
-        <v>152</v>
+      <c r="A152" s="19">
+        <v>155</v>
       </c>
     </row>
     <row r="153" spans="1:1">
-      <c r="A153" s="19">
-        <v>153</v>
+      <c r="A153" s="30">
+        <v>156</v>
       </c>
     </row>
     <row r="154" spans="1:1">
-      <c r="A154" s="30">
-        <v>154</v>
+      <c r="A154" s="19">
+        <v>157</v>
       </c>
     </row>
     <row r="155" spans="1:1">
-      <c r="A155" s="19">
-        <v>155</v>
+      <c r="A155" s="30">
+        <v>158</v>
       </c>
     </row>
     <row r="156" spans="1:1">
-      <c r="A156" s="30">
-        <v>156</v>
+      <c r="A156" s="19">
+        <v>159</v>
       </c>
     </row>
     <row r="157" spans="1:1">
-      <c r="A157" s="19">
-        <v>157</v>
+      <c r="A157" s="30">
+        <v>160</v>
       </c>
     </row>
     <row r="158" spans="1:1">
-      <c r="A158" s="30">
-        <v>158</v>
+      <c r="A158" s="19">
+        <v>161</v>
       </c>
     </row>
     <row r="159" spans="1:1">
-      <c r="A159" s="19">
-        <v>159</v>
+      <c r="A159" s="30">
+        <v>162</v>
       </c>
     </row>
     <row r="160" spans="1:1">
-      <c r="A160" s="30">
-        <v>160</v>
+      <c r="A160" s="19">
+        <v>163</v>
       </c>
     </row>
     <row r="161" spans="1:1">
-      <c r="A161" s="19">
-        <v>161</v>
+      <c r="A161" s="30">
+        <v>164</v>
       </c>
     </row>
     <row r="162" spans="1:1">
-      <c r="A162" s="30">
-        <v>162</v>
+      <c r="A162" s="19">
+        <v>165</v>
       </c>
     </row>
     <row r="163" spans="1:1">
-      <c r="A163" s="19">
-        <v>163</v>
+      <c r="A163" s="30">
+        <v>166</v>
       </c>
     </row>
     <row r="164" spans="1:1">
-      <c r="A164" s="30">
-        <v>164</v>
+      <c r="A164" s="19">
+        <v>167</v>
       </c>
     </row>
     <row r="165" spans="1:1">
-      <c r="A165" s="19">
-        <v>165</v>
+      <c r="A165" s="30">
+        <v>168</v>
       </c>
     </row>
     <row r="166" spans="1:1">
-      <c r="A166" s="30">
-        <v>166</v>
+      <c r="A166" s="19">
+        <v>169</v>
       </c>
     </row>
     <row r="167" spans="1:1">
-      <c r="A167" s="19">
-        <v>167</v>
+      <c r="A167" s="30">
+        <v>170</v>
       </c>
     </row>
     <row r="168" spans="1:1">
-      <c r="A168" s="30">
-        <v>168</v>
+      <c r="A168" s="19">
+        <v>171</v>
       </c>
     </row>
     <row r="169" spans="1:1">
-      <c r="A169" s="19">
-        <v>169</v>
+      <c r="A169" s="30">
+        <v>172</v>
       </c>
     </row>
     <row r="170" spans="1:1">
-      <c r="A170" s="30">
-        <v>170</v>
+      <c r="A170" s="19">
+        <v>173</v>
       </c>
     </row>
     <row r="171" spans="1:1">
-      <c r="A171" s="19">
-        <v>171</v>
+      <c r="A171" s="30">
+        <v>174</v>
       </c>
     </row>
     <row r="172" spans="1:1">
-      <c r="A172" s="30">
-        <v>172</v>
+      <c r="A172" s="19">
+        <v>175</v>
       </c>
     </row>
     <row r="173" spans="1:1">
-      <c r="A173" s="19">
-        <v>173</v>
+      <c r="A173" s="30">
+        <v>176</v>
       </c>
     </row>
     <row r="174" spans="1:1">
-      <c r="A174" s="30">
-        <v>174</v>
+      <c r="A174" s="19">
+        <v>177</v>
       </c>
     </row>
     <row r="175" spans="1:1">
-      <c r="A175" s="19">
-        <v>175</v>
+      <c r="A175" s="30">
+        <v>178</v>
       </c>
     </row>
     <row r="176" spans="1:1">
-      <c r="A176" s="30">
-        <v>176</v>
+      <c r="A176" s="19">
+        <v>179</v>
       </c>
     </row>
     <row r="177" spans="1:1">
-      <c r="A177" s="19">
-        <v>177</v>
+      <c r="A177" s="30">
+        <v>180</v>
       </c>
     </row>
     <row r="178" spans="1:1">
-      <c r="A178" s="30">
-        <v>178</v>
+      <c r="A178" s="19">
+        <v>181</v>
       </c>
     </row>
     <row r="179" spans="1:1">
-      <c r="A179" s="19">
-        <v>179</v>
+      <c r="A179" s="30">
+        <v>182</v>
       </c>
     </row>
     <row r="180" spans="1:1">
-      <c r="A180" s="30">
-        <v>180</v>
+      <c r="A180" s="19">
+        <v>183</v>
       </c>
     </row>
     <row r="181" spans="1:1">
-      <c r="A181" s="19">
-        <v>181</v>
+      <c r="A181" s="30">
+        <v>184</v>
       </c>
     </row>
     <row r="182" spans="1:1">
-      <c r="A182" s="30">
-        <v>182</v>
+      <c r="A182" s="19">
+        <v>185</v>
       </c>
     </row>
     <row r="183" spans="1:1">
-      <c r="A183" s="19">
-        <v>183</v>
+      <c r="A183" s="30">
+        <v>186</v>
       </c>
     </row>
     <row r="184" spans="1:1">
-      <c r="A184" s="30">
-        <v>184</v>
+      <c r="A184" s="19">
+        <v>187</v>
       </c>
     </row>
     <row r="185" spans="1:1">
-      <c r="A185" s="19">
-        <v>185</v>
+      <c r="A185" s="30">
+        <v>188</v>
       </c>
     </row>
     <row r="186" spans="1:1">
-      <c r="A186" s="30">
-        <v>186</v>
+      <c r="A186" s="19">
+        <v>189</v>
       </c>
     </row>
     <row r="187" spans="1:1">
-      <c r="A187" s="19">
-        <v>187</v>
+      <c r="A187" s="30">
+        <v>190</v>
       </c>
     </row>
     <row r="188" spans="1:1">
-      <c r="A188" s="30">
-        <v>188</v>
+      <c r="A188" s="19">
+        <v>191</v>
       </c>
     </row>
     <row r="189" spans="1:1">
-      <c r="A189" s="19">
-        <v>189</v>
+      <c r="A189" s="30">
+        <v>192</v>
       </c>
     </row>
     <row r="190" spans="1:1">
-      <c r="A190" s="30">
-        <v>190</v>
+      <c r="A190" s="19">
+        <v>193</v>
       </c>
     </row>
     <row r="191" spans="1:1">
-      <c r="A191" s="19">
-        <v>191</v>
+      <c r="A191" s="30">
+        <v>194</v>
       </c>
     </row>
     <row r="192" spans="1:1">
-      <c r="A192" s="30">
-        <v>192</v>
+      <c r="A192" s="19">
+        <v>195</v>
       </c>
     </row>
     <row r="193" spans="1:1">
-      <c r="A193" s="19">
-        <v>193</v>
+      <c r="A193" s="30">
+        <v>196</v>
       </c>
     </row>
     <row r="194" spans="1:1">
-      <c r="A194" s="30">
-        <v>194</v>
+      <c r="A194" s="19">
+        <v>197</v>
       </c>
     </row>
     <row r="195" spans="1:1">
-      <c r="A195" s="19">
-        <v>195</v>
+      <c r="A195" s="30">
+        <v>198</v>
       </c>
     </row>
     <row r="196" spans="1:1">
-      <c r="A196" s="30">
-        <v>196</v>
+      <c r="A196" s="19">
+        <v>199</v>
       </c>
     </row>
     <row r="197" spans="1:1">
-      <c r="A197" s="19">
-        <v>197</v>
+      <c r="A197" s="30">
+        <v>200</v>
       </c>
     </row>
     <row r="198" spans="1:1">
-      <c r="A198" s="30">
-        <v>198</v>
+      <c r="A198" s="19">
+        <v>201</v>
       </c>
     </row>
     <row r="199" spans="1:1">
-      <c r="A199" s="19">
-        <v>199</v>
+      <c r="A199" s="30">
+        <v>202</v>
       </c>
     </row>
     <row r="200" spans="1:1">
-      <c r="A200" s="30">
-        <v>200</v>
+      <c r="A200" s="19">
+        <v>203</v>
       </c>
     </row>
     <row r="201" spans="1:1">
-      <c r="A201" s="19">
-        <v>201</v>
+      <c r="A201" s="30">
+        <v>204</v>
       </c>
     </row>
     <row r="202" spans="1:1">
-      <c r="A202" s="30">
-        <v>202</v>
+      <c r="A202" s="19">
+        <v>205</v>
       </c>
     </row>
     <row r="203" spans="1:1">
-      <c r="A203" s="19">
-        <v>203</v>
+      <c r="A203" s="30">
+        <v>206</v>
       </c>
     </row>
     <row r="204" spans="1:1">
-      <c r="A204" s="30">
-        <v>204</v>
+      <c r="A204" s="19">
+        <v>207</v>
       </c>
     </row>
     <row r="205" spans="1:1">
-      <c r="A205" s="19">
-        <v>205</v>
+      <c r="A205" s="30">
+        <v>208</v>
       </c>
     </row>
     <row r="206" spans="1:1">
-      <c r="A206" s="30">
-        <v>206</v>
+      <c r="A206" s="19">
+        <v>209</v>
       </c>
     </row>
     <row r="207" spans="1:1">
-      <c r="A207" s="19">
-        <v>207</v>
+      <c r="A207" s="30">
+        <v>210</v>
       </c>
     </row>
     <row r="208" spans="1:1">
-      <c r="A208" s="30">
-        <v>208</v>
+      <c r="A208" s="19">
+        <v>211</v>
       </c>
     </row>
     <row r="209" spans="1:1">
-      <c r="A209" s="19">
-        <v>209</v>
+      <c r="A209" s="30">
+        <v>212</v>
       </c>
     </row>
     <row r="210" spans="1:1">
-      <c r="A210" s="30">
-        <v>210</v>
+      <c r="A210" s="19">
+        <v>213</v>
       </c>
     </row>
     <row r="211" spans="1:1">
-      <c r="A211" s="19">
-        <v>211</v>
+      <c r="A211" s="30">
+        <v>214</v>
       </c>
     </row>
     <row r="212" spans="1:1">
-      <c r="A212" s="30">
-        <v>212</v>
+      <c r="A212" s="19">
+        <v>215</v>
       </c>
     </row>
     <row r="213" spans="1:1">
-      <c r="A213" s="19">
-        <v>213</v>
+      <c r="A213" s="30">
+        <v>216</v>
       </c>
     </row>
     <row r="214" spans="1:1">
-      <c r="A214" s="30">
-        <v>214</v>
+      <c r="A214" s="19">
+        <v>217</v>
       </c>
     </row>
     <row r="215" spans="1:1">
-      <c r="A215" s="19">
-        <v>215</v>
+      <c r="A215" s="30">
+        <v>218</v>
       </c>
     </row>
     <row r="216" spans="1:1">
-      <c r="A216" s="30">
-        <v>216</v>
+      <c r="A216" s="19">
+        <v>219</v>
       </c>
     </row>
     <row r="217" spans="1:1">
-      <c r="A217" s="19">
-        <v>217</v>
+      <c r="A217" s="30">
+        <v>220</v>
       </c>
     </row>
     <row r="218" spans="1:1">
-      <c r="A218" s="30">
-        <v>218</v>
+      <c r="A218" s="19">
+        <v>221</v>
       </c>
     </row>
     <row r="219" spans="1:1">
-      <c r="A219" s="19">
-        <v>219</v>
+      <c r="A219" s="30">
+        <v>222</v>
       </c>
     </row>
     <row r="220" spans="1:1">
-      <c r="A220" s="30">
-        <v>220</v>
+      <c r="A220" s="19">
+        <v>223</v>
       </c>
     </row>
     <row r="221" spans="1:1">
-      <c r="A221" s="19">
-        <v>221</v>
+      <c r="A221" s="30">
+        <v>224</v>
       </c>
     </row>
     <row r="222" spans="1:1">
-      <c r="A222" s="30">
-        <v>222</v>
+      <c r="A222" s="19">
+        <v>225</v>
       </c>
     </row>
     <row r="223" spans="1:1">
-      <c r="A223" s="19">
-        <v>223</v>
+      <c r="A223" s="30">
+        <v>226</v>
       </c>
     </row>
     <row r="224" spans="1:1">
-      <c r="A224" s="30">
-        <v>224</v>
+      <c r="A224" s="19">
+        <v>227</v>
       </c>
     </row>
     <row r="225" spans="1:1">
-      <c r="A225" s="19">
-        <v>225</v>
+      <c r="A225" s="30">
+        <v>228</v>
       </c>
     </row>
     <row r="226" spans="1:1">
-      <c r="A226" s="30">
-        <v>226</v>
+      <c r="A226" s="19">
+        <v>229</v>
       </c>
     </row>
     <row r="227" spans="1:1">
-      <c r="A227" s="19">
-        <v>227</v>
+      <c r="A227" s="30">
+        <v>230</v>
       </c>
     </row>
     <row r="228" spans="1:1">
-      <c r="A228" s="30">
-        <v>228</v>
+      <c r="A228" s="19">
+        <v>231</v>
       </c>
     </row>
     <row r="229" spans="1:1">
-      <c r="A229" s="19">
-        <v>229</v>
+      <c r="A229" s="30">
+        <v>232</v>
       </c>
     </row>
     <row r="230" spans="1:1">
-      <c r="A230" s="30">
-        <v>230</v>
+      <c r="A230" s="19">
+        <v>233</v>
       </c>
     </row>
     <row r="231" spans="1:1">
-      <c r="A231" s="19">
-        <v>231</v>
+      <c r="A231" s="30">
+        <v>234</v>
       </c>
     </row>
     <row r="232" spans="1:1">
-      <c r="A232" s="30">
-        <v>232</v>
+      <c r="A232" s="19">
+        <v>235</v>
       </c>
     </row>
     <row r="233" spans="1:1">
-      <c r="A233" s="19">
-        <v>233</v>
+      <c r="A233" s="30">
+        <v>236</v>
       </c>
     </row>
     <row r="234" spans="1:1">
-      <c r="A234" s="30">
-        <v>234</v>
+      <c r="A234" s="19">
+        <v>237</v>
       </c>
     </row>
     <row r="235" spans="1:1">
-      <c r="A235" s="19">
-        <v>235</v>
+      <c r="A235" s="30">
+        <v>238</v>
       </c>
     </row>
     <row r="236" spans="1:1">
-      <c r="A236" s="30">
-        <v>236</v>
+      <c r="A236" s="19">
+        <v>239</v>
       </c>
     </row>
     <row r="237" spans="1:1">
-      <c r="A237" s="19">
-        <v>237</v>
+      <c r="A237" s="30">
+        <v>240</v>
       </c>
     </row>
     <row r="238" spans="1:1">
-      <c r="A238" s="30">
-        <v>238</v>
+      <c r="A238" s="19">
+        <v>241</v>
       </c>
     </row>
     <row r="239" spans="1:1">
-      <c r="A239" s="19">
-        <v>239</v>
+      <c r="A239" s="30">
+        <v>242</v>
       </c>
     </row>
     <row r="240" spans="1:1">
-      <c r="A240" s="30">
-        <v>240</v>
+      <c r="A240" s="19">
+        <v>243</v>
       </c>
     </row>
     <row r="241" spans="1:1">
-      <c r="A241" s="19">
-        <v>241</v>
+      <c r="A241" s="30">
+        <v>244</v>
       </c>
     </row>
     <row r="242" spans="1:1">
-      <c r="A242" s="30">
-        <v>242</v>
+      <c r="A242" s="19">
+        <v>245</v>
       </c>
     </row>
     <row r="243" spans="1:1">
-      <c r="A243" s="19">
-        <v>243</v>
+      <c r="A243" s="30">
+        <v>246</v>
       </c>
     </row>
     <row r="244" spans="1:1">
-      <c r="A244" s="30">
-        <v>244</v>
+      <c r="A244" s="19">
+        <v>247</v>
       </c>
     </row>
     <row r="245" spans="1:1">
-      <c r="A245" s="19">
-        <v>245</v>
+      <c r="A245" s="30">
+        <v>248</v>
       </c>
     </row>
     <row r="246" spans="1:1">
-      <c r="A246" s="30">
-        <v>246</v>
+      <c r="A246" s="19">
+        <v>249</v>
       </c>
     </row>
     <row r="247" spans="1:1">
-      <c r="A247" s="19">
-        <v>247</v>
+      <c r="A247" s="30">
+        <v>250</v>
       </c>
     </row>
     <row r="248" spans="1:1">
-      <c r="A248" s="30">
-        <v>248</v>
+      <c r="A248" s="19">
+        <v>251</v>
       </c>
     </row>
     <row r="249" spans="1:1">
-      <c r="A249" s="19">
-        <v>249</v>
+      <c r="A249" s="30">
+        <v>252</v>
       </c>
     </row>
     <row r="250" spans="1:1">
-      <c r="A250" s="30">
-        <v>250</v>
+      <c r="A250" s="19">
+        <v>253</v>
       </c>
     </row>
     <row r="251" spans="1:1">
-      <c r="A251" s="19">
-        <v>251</v>
+      <c r="A251" s="30">
+        <v>254</v>
       </c>
     </row>
     <row r="252" spans="1:1">
-      <c r="A252" s="30">
-        <v>252</v>
+      <c r="A252" s="19">
+        <v>255</v>
       </c>
     </row>
     <row r="253" spans="1:1">
-      <c r="A253" s="19">
-        <v>253</v>
+      <c r="A253" s="30">
+        <v>256</v>
       </c>
     </row>
     <row r="254" spans="1:1">
-      <c r="A254" s="30">
-        <v>254</v>
+      <c r="A254" s="19">
+        <v>257</v>
       </c>
     </row>
     <row r="255" spans="1:1">
-      <c r="A255" s="19">
-        <v>255</v>
+      <c r="A255" s="30">
+        <v>258</v>
       </c>
     </row>
     <row r="256" spans="1:1">
-      <c r="A256" s="30">
-        <v>256</v>
+      <c r="A256" s="19">
+        <v>259</v>
       </c>
     </row>
     <row r="257" spans="1:1">
-      <c r="A257" s="19">
-        <v>257</v>
+      <c r="A257" s="30">
+        <v>260</v>
       </c>
     </row>
     <row r="258" spans="1:1">
-      <c r="A258" s="30">
-        <v>258</v>
+      <c r="A258" s="19">
+        <v>261</v>
       </c>
     </row>
     <row r="259" spans="1:1">
-      <c r="A259" s="19">
-        <v>259</v>
+      <c r="A259" s="30">
+        <v>262</v>
       </c>
     </row>
     <row r="260" spans="1:1">
-      <c r="A260" s="30">
-        <v>260</v>
+      <c r="A260" s="19">
+        <v>263</v>
       </c>
     </row>
     <row r="261" spans="1:1">
-      <c r="A261" s="19">
-        <v>261</v>
+      <c r="A261" s="30">
+        <v>264</v>
       </c>
     </row>
     <row r="262" spans="1:1">
-      <c r="A262" s="30">
-        <v>262</v>
+      <c r="A262" s="19">
+        <v>265</v>
       </c>
     </row>
     <row r="263" spans="1:1">
-      <c r="A263" s="19">
-        <v>263</v>
+      <c r="A263" s="30">
+        <v>266</v>
       </c>
     </row>
     <row r="264" spans="1:1">
-      <c r="A264" s="30">
-        <v>264</v>
+      <c r="A264" s="19">
+        <v>267</v>
       </c>
     </row>
     <row r="265" spans="1:1">
-      <c r="A265" s="19">
-        <v>265</v>
+      <c r="A265" s="30">
+        <v>268</v>
       </c>
     </row>
     <row r="266" spans="1:1">
-      <c r="A266" s="30">
-        <v>266</v>
+      <c r="A266" s="19">
+        <v>269</v>
       </c>
     </row>
     <row r="267" spans="1:1">
-      <c r="A267" s="19">
-        <v>267</v>
+      <c r="A267" s="30">
+        <v>270</v>
       </c>
     </row>
     <row r="268" spans="1:1">
-      <c r="A268" s="30">
-        <v>268</v>
+      <c r="A268" s="19">
+        <v>271</v>
       </c>
     </row>
     <row r="269" spans="1:1">
-      <c r="A269" s="19">
-        <v>269</v>
+      <c r="A269" s="30">
+        <v>272</v>
       </c>
     </row>
     <row r="270" spans="1:1">
-      <c r="A270" s="30">
-        <v>270</v>
+      <c r="A270" s="19">
+        <v>273</v>
       </c>
     </row>
     <row r="271" spans="1:1">
-      <c r="A271" s="19">
-        <v>271</v>
+      <c r="A271" s="30">
+        <v>274</v>
       </c>
     </row>
     <row r="272" spans="1:1">
-      <c r="A272" s="30">
-        <v>272</v>
+      <c r="A272" s="19">
+        <v>275</v>
       </c>
     </row>
     <row r="273" spans="1:1">
-      <c r="A273" s="19">
-        <v>273</v>
+      <c r="A273" s="30">
+        <v>276</v>
       </c>
     </row>
     <row r="274" spans="1:1">
-      <c r="A274" s="30">
-        <v>274</v>
+      <c r="A274" s="19">
+        <v>277</v>
       </c>
     </row>
     <row r="275" spans="1:1">
-      <c r="A275" s="19">
-        <v>275</v>
+      <c r="A275" s="30">
+        <v>278</v>
       </c>
     </row>
     <row r="276" spans="1:1">
-      <c r="A276" s="30">
-        <v>276</v>
+      <c r="A276" s="19">
+        <v>279</v>
       </c>
     </row>
     <row r="277" spans="1:1">
-      <c r="A277" s="19">
-        <v>277</v>
+      <c r="A277" s="30">
+        <v>280</v>
       </c>
     </row>
     <row r="278" spans="1:1">
-      <c r="A278" s="30">
-        <v>278</v>
+      <c r="A278" s="19">
+        <v>281</v>
       </c>
     </row>
     <row r="279" spans="1:1">
-      <c r="A279" s="19">
-        <v>279</v>
+      <c r="A279" s="30">
+        <v>282</v>
       </c>
     </row>
     <row r="280" spans="1:1">
-      <c r="A280" s="30">
-        <v>280</v>
+      <c r="A280" s="19">
+        <v>283</v>
       </c>
     </row>
     <row r="281" spans="1:1">
-      <c r="A281" s="19">
-        <v>281</v>
+      <c r="A281" s="30">
+        <v>284</v>
       </c>
     </row>
     <row r="282" spans="1:1">
-      <c r="A282" s="30">
-        <v>282</v>
+      <c r="A282" s="19">
+        <v>285</v>
       </c>
     </row>
     <row r="283" spans="1:1">
-      <c r="A283" s="19">
-        <v>283</v>
+      <c r="A283" s="30">
+        <v>286</v>
       </c>
     </row>
     <row r="284" spans="1:1">
-      <c r="A284" s="30">
-        <v>284</v>
+      <c r="A284" s="19">
+        <v>287</v>
       </c>
     </row>
     <row r="285" spans="1:1">
-      <c r="A285" s="19">
-        <v>285</v>
+      <c r="A285" s="30">
+        <v>288</v>
       </c>
     </row>
     <row r="286" spans="1:1">
-      <c r="A286" s="30">
-        <v>286</v>
+      <c r="A286" s="19">
+        <v>289</v>
       </c>
     </row>
     <row r="287" spans="1:1">
-      <c r="A287" s="19">
-        <v>287</v>
+      <c r="A287" s="30">
+        <v>290</v>
       </c>
     </row>
     <row r="288" spans="1:1">
-      <c r="A288" s="30">
-        <v>288</v>
+      <c r="A288" s="19">
+        <v>291</v>
       </c>
     </row>
     <row r="289" spans="1:1">
-      <c r="A289" s="19">
-        <v>289</v>
+      <c r="A289" s="30">
+        <v>292</v>
       </c>
     </row>
     <row r="290" spans="1:1">
-      <c r="A290" s="30">
-        <v>290</v>
+      <c r="A290" s="19">
+        <v>293</v>
       </c>
     </row>
     <row r="291" spans="1:1">
-      <c r="A291" s="19">
-        <v>291</v>
+      <c r="A291" s="30">
+        <v>294</v>
       </c>
     </row>
     <row r="292" spans="1:1">
-      <c r="A292" s="30">
-        <v>292</v>
+      <c r="A292" s="19">
+        <v>295</v>
       </c>
     </row>
     <row r="293" spans="1:1">
-      <c r="A293" s="19">
-        <v>293</v>
+      <c r="A293" s="30">
+        <v>296</v>
       </c>
     </row>
     <row r="294" spans="1:1">
-      <c r="A294" s="30">
-        <v>294</v>
+      <c r="A294" s="19">
+        <v>297</v>
       </c>
     </row>
     <row r="295" spans="1:1">
-      <c r="A295" s="19">
-        <v>295</v>
+      <c r="A295" s="30">
+        <v>298</v>
       </c>
     </row>
     <row r="296" spans="1:1">
-      <c r="A296" s="30">
-        <v>296</v>
+      <c r="A296" s="19">
+        <v>299</v>
       </c>
     </row>
     <row r="297" spans="1:1">
-      <c r="A297" s="19">
-        <v>297</v>
+      <c r="A297" s="30">
+        <v>300</v>
       </c>
     </row>
     <row r="298" spans="1:1">
-      <c r="A298" s="30">
-        <v>298</v>
+      <c r="A298" s="19">
+        <v>301</v>
       </c>
     </row>
     <row r="299" spans="1:1">
-      <c r="A299" s="19">
-        <v>299</v>
+      <c r="A299" s="30">
+        <v>302</v>
       </c>
     </row>
     <row r="300" spans="1:1">
-      <c r="A300" s="30">
-        <v>300</v>
+      <c r="A300" s="19">
+        <v>303</v>
       </c>
     </row>
     <row r="301" spans="1:1">
-      <c r="A301" s="19">
-        <v>301</v>
+      <c r="A301" s="30">
+        <v>304</v>
       </c>
     </row>
     <row r="302" spans="1:1">
-      <c r="A302" s="30">
-        <v>302</v>
+      <c r="A302" s="19">
+        <v>305</v>
       </c>
     </row>
     <row r="303" spans="1:1">
-      <c r="A303" s="19">
-        <v>303</v>
+      <c r="A303" s="30">
+        <v>306</v>
       </c>
     </row>
     <row r="304" spans="1:1">
-      <c r="A304" s="30">
-        <v>304</v>
+      <c r="A304" s="19">
+        <v>307</v>
       </c>
     </row>
     <row r="305" spans="1:1">
-      <c r="A305" s="19">
-        <v>305</v>
+      <c r="A305" s="30">
+        <v>308</v>
       </c>
     </row>
     <row r="306" spans="1:1">
-      <c r="A306" s="30">
-        <v>306</v>
+      <c r="A306" s="19">
+        <v>309</v>
       </c>
     </row>
     <row r="307" spans="1:1">
-      <c r="A307" s="19">
-        <v>307</v>
+      <c r="A307" s="30">
+        <v>310</v>
       </c>
     </row>
     <row r="308" spans="1:1">
-      <c r="A308" s="30">
-        <v>308</v>
+      <c r="A308" s="19">
+        <v>311</v>
       </c>
     </row>
     <row r="309" spans="1:1">
-      <c r="A309" s="19">
-        <v>309</v>
+      <c r="A309" s="30">
+        <v>312</v>
       </c>
     </row>
     <row r="310" spans="1:1">
-      <c r="A310" s="30">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="311" spans="1:1">
-      <c r="A311" s="19">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="312" spans="1:1">
-      <c r="A312" s="30">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="313" spans="1:1">
-      <c r="A313" s="19">
+      <c r="A310" s="19">
         <v>313</v>
       </c>
     </row>
-    <row r="314" spans="1:1" s="25" customFormat="1" ht="17.5" thickBot="1">
-      <c r="A314" s="30">
+    <row r="311" spans="1:1" s="25" customFormat="1" ht="17.5" thickBot="1">
+      <c r="A311" s="30">
         <v>314</v>
       </c>
     </row>
@@ -8364,18 +8555,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C39EE772-119D-447F-B67C-406657C44E42}">
   <dimension ref="A1:S367"/>
   <sheetViews>
-    <sheetView topLeftCell="A35" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="B72" sqref="B72"/>
+    <sheetView topLeftCell="A23" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="F53" sqref="F53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="8.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="46.26953125" customWidth="1"/>
-    <col min="3" max="3" width="22.1796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="41.08984375" customWidth="1"/>
-    <col min="5" max="5" width="46.54296875" customWidth="1"/>
-    <col min="6" max="6" width="97.08984375" customWidth="1"/>
+    <col min="2" max="2" width="44.08984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33.453125" customWidth="1"/>
+    <col min="4" max="4" width="40.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29.36328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="106.1796875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="26.7265625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="43.7265625" customWidth="1"/>
     <col min="9" max="9" width="105.7265625" bestFit="1" customWidth="1"/>
@@ -8399,7 +8590,7 @@
       <c r="G1" s="89"/>
     </row>
     <row r="2" spans="1:19" ht="15.5">
-      <c r="A2" s="276">
+      <c r="A2" s="239">
         <v>1</v>
       </c>
       <c r="B2" s="165" t="s">
@@ -8422,7 +8613,7 @@
       </c>
     </row>
     <row r="3" spans="1:19" ht="15.5">
-      <c r="A3" s="276">
+      <c r="A3" s="239">
         <v>2</v>
       </c>
       <c r="B3" s="116" t="s">
@@ -8446,7 +8637,7 @@
       <c r="H3" s="2"/>
     </row>
     <row r="4" spans="1:19" ht="15.5">
-      <c r="A4" s="276">
+      <c r="A4" s="239">
         <v>3</v>
       </c>
       <c r="B4" s="116" t="s">
@@ -8470,7 +8661,7 @@
       <c r="H4" s="2"/>
     </row>
     <row r="5" spans="1:19" ht="16" thickBot="1">
-      <c r="A5" s="276">
+      <c r="A5" s="239">
         <v>4</v>
       </c>
       <c r="B5" s="116" t="s">
@@ -8493,7 +8684,7 @@
       </c>
     </row>
     <row r="6" spans="1:19" ht="15.5">
-      <c r="A6" s="276">
+      <c r="A6" s="239">
         <v>5</v>
       </c>
       <c r="B6" s="117" t="s">
@@ -8511,7 +8702,7 @@
       <c r="F6" s="91">
         <v>2022</v>
       </c>
-      <c r="G6" s="306" t="s">
+      <c r="G6" s="315" t="s">
         <v>191</v>
       </c>
     </row>
@@ -8519,13 +8710,13 @@
       <c r="A7" s="94">
         <v>6</v>
       </c>
-      <c r="G7" s="302"/>
+      <c r="G7" s="294"/>
       <c r="I7" s="168"/>
       <c r="J7" s="82"/>
       <c r="K7" s="99"/>
     </row>
     <row r="8" spans="1:19" ht="17">
-      <c r="A8" s="276">
+      <c r="A8" s="239">
         <v>7</v>
       </c>
       <c r="B8" s="118" t="s">
@@ -8534,10 +8725,10 @@
       <c r="C8" s="113" t="s">
         <v>158</v>
       </c>
-      <c r="D8" s="323" t="s">
+      <c r="D8" s="301" t="s">
         <v>167</v>
       </c>
-      <c r="E8" s="307" t="s">
+      <c r="E8" s="304" t="s">
         <v>95</v>
       </c>
       <c r="F8" s="1"/>
@@ -8553,7 +8744,7 @@
       <c r="S8" s="1"/>
     </row>
     <row r="9" spans="1:19" ht="15.5">
-      <c r="A9" s="276">
+      <c r="A9" s="239">
         <v>8</v>
       </c>
       <c r="B9" s="119" t="s">
@@ -8562,8 +8753,8 @@
       <c r="C9" s="114" t="s">
         <v>159</v>
       </c>
-      <c r="D9" s="324"/>
-      <c r="E9" s="308"/>
+      <c r="D9" s="302"/>
+      <c r="E9" s="305"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
@@ -8575,7 +8766,7 @@
       <c r="S9" s="1"/>
     </row>
     <row r="10" spans="1:19" ht="16" thickBot="1">
-      <c r="A10" s="276">
+      <c r="A10" s="239">
         <v>9</v>
       </c>
       <c r="B10" s="119" t="s">
@@ -8584,8 +8775,8 @@
       <c r="C10" s="114" t="s">
         <v>160</v>
       </c>
-      <c r="D10" s="325"/>
-      <c r="E10" s="309"/>
+      <c r="D10" s="303"/>
+      <c r="E10" s="316"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
@@ -8597,10 +8788,10 @@
       <c r="S10" s="1"/>
     </row>
     <row r="11" spans="1:19" ht="16" customHeight="1" thickBot="1">
-      <c r="A11" s="276">
+      <c r="A11" s="239">
         <v>10</v>
       </c>
-      <c r="B11" s="321" t="s">
+      <c r="B11" s="299" t="s">
         <v>238</v>
       </c>
       <c r="C11" s="96" t="s">
@@ -8609,13 +8800,13 @@
       <c r="D11" s="97" t="s">
         <v>165</v>
       </c>
-      <c r="E11" s="307" t="s">
+      <c r="E11" s="304" t="s">
         <v>95</v>
       </c>
-      <c r="F11" s="310" t="s">
+      <c r="F11" s="317" t="s">
         <v>264</v>
       </c>
-      <c r="G11" s="318" t="s">
+      <c r="G11" s="325" t="s">
         <v>276</v>
       </c>
       <c r="H11" s="1"/>
@@ -8627,22 +8818,20 @@
       <c r="S11" s="1"/>
     </row>
     <row r="12" spans="1:19" ht="16" customHeight="1" thickBot="1">
-      <c r="A12" s="276">
+      <c r="A12" s="239">
         <v>11</v>
       </c>
-      <c r="B12" s="322"/>
+      <c r="B12" s="300"/>
       <c r="C12" s="154" t="s">
         <v>164</v>
       </c>
       <c r="D12" s="155" t="s">
         <v>166</v>
       </c>
-      <c r="E12" s="308"/>
-      <c r="F12" s="311"/>
-      <c r="G12" s="319"/>
-      <c r="H12" s="175" t="s">
-        <v>288</v>
-      </c>
+      <c r="E12" s="305"/>
+      <c r="F12" s="318"/>
+      <c r="G12" s="326"/>
+      <c r="H12" s="175"/>
     </row>
     <row r="13" spans="1:19" ht="16" thickBot="1">
       <c r="A13" s="94">
@@ -8651,7 +8840,7 @@
       <c r="F13" s="99"/>
     </row>
     <row r="14" spans="1:19" ht="16" thickBot="1">
-      <c r="A14" s="276">
+      <c r="A14" s="239">
         <v>13</v>
       </c>
       <c r="B14" s="152" t="s">
@@ -8660,7 +8849,7 @@
       <c r="C14" s="93"/>
     </row>
     <row r="15" spans="1:19" ht="44" thickBot="1">
-      <c r="A15" s="276">
+      <c r="A15" s="239">
         <v>14</v>
       </c>
       <c r="B15" s="146" t="s">
@@ -8686,7 +8875,7 @@
       </c>
     </row>
     <row r="16" spans="1:19" ht="15.5">
-      <c r="A16" s="276">
+      <c r="A16" s="239">
         <v>15</v>
       </c>
       <c r="B16" s="149" t="s">
@@ -8701,19 +8890,19 @@
       <c r="E16" s="169" t="s">
         <v>290</v>
       </c>
-      <c r="F16" s="326" t="s">
+      <c r="F16" s="306" t="s">
         <v>294</v>
       </c>
       <c r="G16" s="143" t="s">
         <v>166</v>
       </c>
-      <c r="H16" s="329" t="s">
+      <c r="H16" s="309" t="s">
         <v>247</v>
       </c>
-      <c r="I16" s="320"/>
+      <c r="I16" s="298"/>
     </row>
     <row r="17" spans="1:13" ht="15.5">
-      <c r="A17" s="276">
+      <c r="A17" s="239">
         <v>16</v>
       </c>
       <c r="B17" s="148" t="s">
@@ -8728,15 +8917,15 @@
       <c r="E17" s="170" t="s">
         <v>292</v>
       </c>
-      <c r="F17" s="327"/>
+      <c r="F17" s="307"/>
       <c r="G17" s="144" t="s">
         <v>166</v>
       </c>
-      <c r="H17" s="330"/>
-      <c r="I17" s="320"/>
+      <c r="H17" s="310"/>
+      <c r="I17" s="298"/>
     </row>
     <row r="18" spans="1:13" ht="15.5">
-      <c r="A18" s="276">
+      <c r="A18" s="239">
         <v>17</v>
       </c>
       <c r="B18" s="148" t="s">
@@ -8751,15 +8940,15 @@
       <c r="E18" s="170" t="s">
         <v>289</v>
       </c>
-      <c r="F18" s="327"/>
+      <c r="F18" s="307"/>
       <c r="G18" s="144" t="s">
         <v>245</v>
       </c>
-      <c r="H18" s="330"/>
-      <c r="I18" s="320"/>
+      <c r="H18" s="310"/>
+      <c r="I18" s="298"/>
     </row>
     <row r="19" spans="1:13" ht="16" thickBot="1">
-      <c r="A19" s="276">
+      <c r="A19" s="239">
         <v>18</v>
       </c>
       <c r="B19" s="148" t="s">
@@ -8774,15 +8963,15 @@
       <c r="E19" s="170" t="s">
         <v>291</v>
       </c>
-      <c r="F19" s="328"/>
+      <c r="F19" s="308"/>
       <c r="G19" s="144" t="s">
         <v>245</v>
       </c>
-      <c r="H19" s="331"/>
-      <c r="I19" s="320"/>
+      <c r="H19" s="311"/>
+      <c r="I19" s="298"/>
     </row>
     <row r="20" spans="1:13" ht="16" thickBot="1">
-      <c r="A20" s="276">
+      <c r="A20" s="239">
         <v>19</v>
       </c>
       <c r="B20" s="151" t="s">
@@ -8797,7 +8986,7 @@
       <c r="E20" s="171" t="s">
         <v>293</v>
       </c>
-      <c r="F20" s="307" t="s">
+      <c r="F20" s="304" t="s">
         <v>95</v>
       </c>
       <c r="G20" s="161" t="s">
@@ -8814,11 +9003,11 @@
       </c>
       <c r="D21" s="121"/>
       <c r="E21" s="121"/>
-      <c r="F21" s="308"/>
+      <c r="F21" s="305"/>
       <c r="I21" s="177"/>
     </row>
     <row r="22" spans="1:13" ht="16" thickBot="1">
-      <c r="A22" s="276">
+      <c r="A22" s="239">
         <v>21</v>
       </c>
       <c r="B22" s="152" t="s">
@@ -8826,11 +9015,11 @@
       </c>
       <c r="D22" s="122"/>
       <c r="E22" s="123"/>
-      <c r="F22" s="309"/>
+      <c r="F22" s="316"/>
       <c r="I22" s="177"/>
     </row>
     <row r="23" spans="1:13" ht="16" thickBot="1">
-      <c r="A23" s="276">
+      <c r="A23" s="239">
         <v>22</v>
       </c>
       <c r="B23" s="146" t="s">
@@ -8857,7 +9046,7 @@
       <c r="I23" s="177"/>
     </row>
     <row r="24" spans="1:13" ht="15.5">
-      <c r="A24" s="276">
+      <c r="A24" s="239">
         <v>23</v>
       </c>
       <c r="B24" s="159" t="s">
@@ -8872,19 +9061,19 @@
       <c r="E24" s="172" t="s">
         <v>265</v>
       </c>
-      <c r="F24" s="326" t="s">
+      <c r="F24" s="306" t="s">
         <v>295</v>
       </c>
       <c r="G24" s="189" t="s">
         <v>245</v>
       </c>
-      <c r="H24" s="334" t="s">
+      <c r="H24" s="314" t="s">
         <v>247</v>
       </c>
-      <c r="I24" s="320"/>
+      <c r="I24" s="298"/>
     </row>
     <row r="25" spans="1:13" ht="15.5">
-      <c r="A25" s="276">
+      <c r="A25" s="239">
         <v>24</v>
       </c>
       <c r="B25" s="156" t="s">
@@ -8899,15 +9088,15 @@
       <c r="E25" s="173" t="s">
         <v>266</v>
       </c>
-      <c r="F25" s="332"/>
+      <c r="F25" s="312"/>
       <c r="G25" s="190" t="s">
         <v>245</v>
       </c>
-      <c r="H25" s="330"/>
-      <c r="I25" s="320"/>
+      <c r="H25" s="310"/>
+      <c r="I25" s="298"/>
     </row>
     <row r="26" spans="1:13" ht="15.5">
-      <c r="A26" s="276">
+      <c r="A26" s="239">
         <v>25</v>
       </c>
       <c r="B26" s="156" t="s">
@@ -8922,15 +9111,15 @@
       <c r="E26" s="173" t="s">
         <v>267</v>
       </c>
-      <c r="F26" s="332"/>
+      <c r="F26" s="312"/>
       <c r="G26" s="190" t="s">
         <v>245</v>
       </c>
-      <c r="H26" s="330"/>
-      <c r="I26" s="320"/>
+      <c r="H26" s="310"/>
+      <c r="I26" s="298"/>
     </row>
     <row r="27" spans="1:13" ht="16" thickBot="1">
-      <c r="A27" s="276">
+      <c r="A27" s="239">
         <v>26</v>
       </c>
       <c r="B27" s="157" t="s">
@@ -8945,12 +9134,12 @@
       <c r="E27" s="174" t="s">
         <v>268</v>
       </c>
-      <c r="F27" s="333"/>
+      <c r="F27" s="313"/>
       <c r="G27" s="191" t="s">
         <v>245</v>
       </c>
-      <c r="H27" s="331"/>
-      <c r="I27" s="320"/>
+      <c r="H27" s="311"/>
+      <c r="I27" s="298"/>
     </row>
     <row r="28" spans="1:13" ht="16" thickBot="1">
       <c r="A28" s="94">
@@ -8958,7 +9147,7 @@
       </c>
     </row>
     <row r="29" spans="1:13" ht="17.5" thickBot="1">
-      <c r="A29" s="276">
+      <c r="A29" s="239">
         <v>32</v>
       </c>
       <c r="B29" s="209" t="s">
@@ -8967,17 +9156,17 @@
       <c r="C29" s="211" t="s">
         <v>327</v>
       </c>
-      <c r="D29" s="312" t="s">
+      <c r="D29" s="319" t="s">
         <v>311</v>
       </c>
-      <c r="E29" s="313"/>
-      <c r="F29" s="314"/>
+      <c r="E29" s="320"/>
+      <c r="F29" s="321"/>
       <c r="G29" s="193" t="s">
         <v>328</v>
       </c>
     </row>
     <row r="30" spans="1:13" ht="17.5" thickBot="1">
-      <c r="A30" s="276">
+      <c r="A30" s="239">
         <v>33</v>
       </c>
       <c r="B30" s="213" t="s">
@@ -8995,12 +9184,12 @@
       <c r="F30" s="199" t="s">
         <v>309</v>
       </c>
-      <c r="G30" s="315" t="s">
+      <c r="G30" s="322" t="s">
         <v>329</v>
       </c>
     </row>
     <row r="31" spans="1:13" ht="18" thickBot="1">
-      <c r="A31" s="276">
+      <c r="A31" s="239">
         <v>34</v>
       </c>
       <c r="B31" s="214" t="s">
@@ -9018,13 +9207,13 @@
       <c r="F31" s="182" t="s">
         <v>310</v>
       </c>
-      <c r="G31" s="316"/>
+      <c r="G31" s="323"/>
       <c r="I31" s="109" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="32" spans="1:13" ht="16" thickBot="1">
-      <c r="A32" s="276">
+      <c r="A32" s="239">
         <v>35</v>
       </c>
       <c r="B32" s="214" t="s">
@@ -9042,7 +9231,7 @@
       <c r="F32" s="182" t="s">
         <v>310</v>
       </c>
-      <c r="G32" s="316"/>
+      <c r="G32" s="323"/>
       <c r="I32" s="102" t="s">
         <v>179</v>
       </c>
@@ -9051,7 +9240,7 @@
       <c r="M32" s="2"/>
     </row>
     <row r="33" spans="1:13" ht="15.5">
-      <c r="A33" s="276">
+      <c r="A33" s="239">
         <v>36</v>
       </c>
       <c r="B33" s="214" t="s">
@@ -9069,7 +9258,7 @@
       <c r="F33" s="182" t="s">
         <v>310</v>
       </c>
-      <c r="G33" s="316"/>
+      <c r="G33" s="323"/>
       <c r="I33" s="103" t="s">
         <v>171</v>
       </c>
@@ -9078,7 +9267,7 @@
       <c r="M33" s="2"/>
     </row>
     <row r="34" spans="1:13" ht="15.5">
-      <c r="A34" s="276">
+      <c r="A34" s="239">
         <v>37</v>
       </c>
       <c r="B34" s="214" t="s">
@@ -9096,13 +9285,13 @@
       <c r="F34" s="182" t="s">
         <v>310</v>
       </c>
-      <c r="G34" s="316"/>
+      <c r="G34" s="323"/>
       <c r="I34" s="103" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="35" spans="1:13" ht="15.5">
-      <c r="A35" s="276">
+      <c r="A35" s="239">
         <v>38</v>
       </c>
       <c r="B35" s="214" t="s">
@@ -9120,13 +9309,13 @@
       <c r="F35" s="182" t="s">
         <v>310</v>
       </c>
-      <c r="G35" s="316"/>
+      <c r="G35" s="323"/>
       <c r="I35" s="103" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="36" spans="1:13" ht="16" thickBot="1">
-      <c r="A36" s="276">
+      <c r="A36" s="239">
         <v>39</v>
       </c>
       <c r="B36" s="215" t="s">
@@ -9144,7 +9333,7 @@
       <c r="F36" s="186" t="s">
         <v>310</v>
       </c>
-      <c r="G36" s="317"/>
+      <c r="G36" s="324"/>
       <c r="I36" s="103" t="s">
         <v>174</v>
       </c>
@@ -9162,7 +9351,7 @@
       <c r="M37" s="1"/>
     </row>
     <row r="38" spans="1:13" ht="17.5" thickBot="1">
-      <c r="A38" s="276">
+      <c r="A38" s="239">
         <v>41</v>
       </c>
       <c r="B38" s="209" t="s">
@@ -9171,11 +9360,11 @@
       <c r="C38" s="205" t="s">
         <v>327</v>
       </c>
-      <c r="D38" s="303" t="s">
+      <c r="D38" s="295" t="s">
         <v>342</v>
       </c>
-      <c r="E38" s="304"/>
-      <c r="F38" s="305"/>
+      <c r="E38" s="296"/>
+      <c r="F38" s="297"/>
       <c r="G38" s="196" t="s">
         <v>328</v>
       </c>
@@ -9187,7 +9376,7 @@
       <c r="M38" s="1"/>
     </row>
     <row r="39" spans="1:13" ht="17">
-      <c r="A39" s="276">
+      <c r="A39" s="239">
         <v>42</v>
       </c>
       <c r="B39" s="210" t="s">
@@ -9213,7 +9402,7 @@
       <c r="L39" s="1"/>
     </row>
     <row r="40" spans="1:13" ht="15.5">
-      <c r="A40" s="276">
+      <c r="A40" s="239">
         <v>43</v>
       </c>
       <c r="B40" s="188" t="s">
@@ -9241,7 +9430,7 @@
       <c r="L40" s="1"/>
     </row>
     <row r="41" spans="1:13" ht="15.5">
-      <c r="A41" s="276">
+      <c r="A41" s="239">
         <v>44</v>
       </c>
       <c r="B41" s="188" t="s">
@@ -9267,7 +9456,7 @@
       </c>
     </row>
     <row r="42" spans="1:13" ht="15.5">
-      <c r="A42" s="276">
+      <c r="A42" s="239">
         <v>45</v>
       </c>
       <c r="B42" s="188" t="s">
@@ -9293,7 +9482,7 @@
       </c>
     </row>
     <row r="43" spans="1:13" ht="15.5">
-      <c r="A43" s="276">
+      <c r="A43" s="239">
         <v>46</v>
       </c>
       <c r="B43" s="188" t="s">
@@ -9319,7 +9508,7 @@
       </c>
     </row>
     <row r="44" spans="1:13" ht="16" thickBot="1">
-      <c r="A44" s="276">
+      <c r="A44" s="239">
         <v>47</v>
       </c>
       <c r="B44" s="178" t="s">
@@ -9354,39 +9543,39 @@
       </c>
     </row>
     <row r="46" spans="1:13" ht="17.5" thickBot="1">
-      <c r="A46" s="140">
+      <c r="A46" s="371">
         <v>49</v>
       </c>
       <c r="B46" s="209" t="s">
-        <v>557</v>
-      </c>
-      <c r="C46" s="371" t="s">
-        <v>558</v>
-      </c>
-      <c r="D46" s="303" t="s">
-        <v>559</v>
-      </c>
-      <c r="E46" s="304"/>
-      <c r="F46" s="305"/>
+        <v>537</v>
+      </c>
+      <c r="C46" s="283" t="s">
+        <v>538</v>
+      </c>
+      <c r="D46" s="295" t="s">
+        <v>596</v>
+      </c>
+      <c r="E46" s="296"/>
+      <c r="F46" s="297"/>
       <c r="I46" s="100"/>
     </row>
     <row r="47" spans="1:13" ht="17">
-      <c r="A47" s="94">
+      <c r="A47" s="239">
         <v>50</v>
       </c>
-      <c r="B47" s="367" t="s">
+      <c r="B47" s="279" t="s">
         <v>4</v>
       </c>
-      <c r="C47" s="368" t="s">
+      <c r="C47" s="280" t="s">
         <v>0</v>
       </c>
-      <c r="D47" s="369" t="s">
+      <c r="D47" s="281" t="s">
         <v>35</v>
       </c>
-      <c r="E47" s="369" t="s">
+      <c r="E47" s="281" t="s">
         <v>308</v>
       </c>
-      <c r="F47" s="369" t="s">
+      <c r="F47" s="281" t="s">
         <v>309</v>
       </c>
       <c r="G47" s="196" t="s">
@@ -9397,24 +9586,29 @@
       </c>
     </row>
     <row r="48" spans="1:13" ht="16" thickBot="1">
-      <c r="A48" s="140">
+      <c r="A48" s="371">
         <v>51</v>
       </c>
       <c r="B48" s="178" t="s">
-        <v>555</v>
+        <v>535</v>
       </c>
       <c r="C48" s="185" t="s">
-        <v>552</v>
-      </c>
-      <c r="D48" s="286" t="s">
-        <v>553</v>
-      </c>
-      <c r="E48" s="185"/>
+        <v>532</v>
+      </c>
+      <c r="D48" s="246" t="s">
+        <v>533</v>
+      </c>
+      <c r="E48" s="252" t="s">
+        <v>595</v>
+      </c>
       <c r="F48" s="178" t="s">
-        <v>556</v>
-      </c>
-      <c r="G48" s="370" t="s">
-        <v>554</v>
+        <v>536</v>
+      </c>
+      <c r="G48" s="282" t="s">
+        <v>534</v>
+      </c>
+      <c r="H48" s="357" t="s">
+        <v>288</v>
       </c>
       <c r="I48" s="101" t="s">
         <v>186</v>
@@ -9470,7 +9664,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="54" spans="1:9" ht="15.5">
+    <row r="54" spans="1:9" ht="16" thickBot="1">
       <c r="A54" s="140">
         <v>57</v>
       </c>
@@ -9478,19 +9672,35 @@
       <c r="E54" s="194"/>
       <c r="F54" s="194"/>
     </row>
-    <row r="55" spans="1:9" ht="15.5">
+    <row r="55" spans="1:9" ht="17">
       <c r="A55" s="94">
         <v>58</v>
       </c>
-      <c r="D55" s="194"/>
+      <c r="B55" s="281" t="s">
+        <v>35</v>
+      </c>
+      <c r="C55" s="281" t="s">
+        <v>39</v>
+      </c>
+      <c r="D55" s="281" t="s">
+        <v>33</v>
+      </c>
       <c r="E55" s="194"/>
       <c r="F55" s="194"/>
     </row>
-    <row r="56" spans="1:9" ht="15.5">
+    <row r="56" spans="1:9" ht="16" thickBot="1">
       <c r="A56" s="140">
         <v>59</v>
       </c>
-      <c r="D56" s="194"/>
+      <c r="B56" s="252" t="s">
+        <v>533</v>
+      </c>
+      <c r="C56" s="252" t="s">
+        <v>602</v>
+      </c>
+      <c r="D56" s="252" t="s">
+        <v>603</v>
+      </c>
       <c r="E56" s="194"/>
       <c r="F56" s="194"/>
     </row>
@@ -11058,6 +11268,13 @@
   </sheetData>
   <autoFilter ref="A2:G367" xr:uid="{C39EE772-119D-447F-B67C-406657C44E42}"/>
   <mergeCells count="18">
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="E8:E10"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="G30:G36"/>
+    <mergeCell ref="F20:F22"/>
+    <mergeCell ref="G11:G12"/>
     <mergeCell ref="D46:F46"/>
     <mergeCell ref="I16:I19"/>
     <mergeCell ref="I24:I27"/>
@@ -11069,28 +11286,605 @@
     <mergeCell ref="F24:F27"/>
     <mergeCell ref="H24:H27"/>
     <mergeCell ref="D38:F38"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="E8:E10"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="G30:G36"/>
-    <mergeCell ref="F20:F22"/>
-    <mergeCell ref="G11:G12"/>
   </mergeCells>
   <conditionalFormatting sqref="B24:B27">
     <cfRule type="uniqueValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="C48" r:id="rId1" display="https://mylan.service-now.com/sc_req_item.do?sys_id=da60d7988712dad046c1eb5f8bbb356a&amp;sysparm_record_target=sc_req_item&amp;sysparm_record_row=1&amp;sysparm_record_rows=1&amp;sysparm_record_list=parent%3Dc3f03af81b0e12d02a8d87f2604bcbe7%5Eassignment_group.sys_idIN2dd153e30f810b003861f18ce1050e7c%2Cf9aacc8e37490200d657d5a643990e37%2Cccd4f77a4fe671001e76c4501310c766%2Ca7aa74230f2f32403861f18ce1050e1b%2C2ac7c8771bfc61d087ec0ed5604bcb94%2C89ecc0ce37490200d657d5a643990edd%2C30f04d471b8dec90a35c3197cc4bcb07%2C%5EORassignment_group.parentISEMPTY%5EORassignment_groupISEMPTY%5EORassignment_group.parent.sys_idINccd4f77a4fe671001e76c4501310c766%5EORcaller_id%3D3a099cc21b1db410792699be034bcbf7%5EORwatch_listCONTAINS3a099cc21b1db410792699be034bcbf7%5EORu_requested_for%3D3a099cc21b1db410792699be034bcbf7%5EORu_requested_by%3D3a099cc21b1db410792699be034bcbf7%5EORopened_by%3D3a099cc21b1db410792699be034bcbf7%5EORDERBYsys_created_on" xr:uid="{DACE9F40-B233-49D4-92D8-CFB5FDA76395}"/>
+    <hyperlink ref="D56" r:id="rId2" display="https://mylan.service-now.com/change_task.do?sys_id=3a8590191ba296502a8d87f2604bcbfd&amp;sysparm_record_target=change_task&amp;sysparm_record_row=4&amp;sysparm_record_rows=4&amp;sysparm_record_list=change_request%3D7081c40d1baa9e102a8d87f2604bcb0e%5EORDERBYnumber" xr:uid="{D9AF5B41-8F48-48B3-B121-13127ED94B15}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D808B9F-CAFF-482E-8485-74B088908DDD}">
+  <dimension ref="A1:L44"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="K34" sqref="K34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="44.36328125" customWidth="1"/>
+    <col min="3" max="3" width="26" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.36328125" customWidth="1"/>
+    <col min="5" max="5" width="49.08984375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22.26953125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.08984375" customWidth="1"/>
+    <col min="12" max="12" width="85.36328125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12">
+      <c r="A1" s="256" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="17">
+      <c r="A2" s="256">
+        <v>1</v>
+      </c>
+      <c r="B2" s="355" t="s">
+        <v>540</v>
+      </c>
+      <c r="C2" s="332" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="34">
+      <c r="A3" s="256">
+        <v>2</v>
+      </c>
+      <c r="B3" s="363" t="s">
+        <v>541</v>
+      </c>
+      <c r="C3" s="20"/>
+    </row>
+    <row r="4" spans="1:12" ht="34">
+      <c r="A4" s="256">
+        <v>3</v>
+      </c>
+      <c r="B4" s="363" t="s">
+        <v>542</v>
+      </c>
+      <c r="C4" s="20"/>
+    </row>
+    <row r="5" spans="1:12" ht="15" thickBot="1">
+      <c r="A5" s="256">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="15.5">
+      <c r="A6" s="256">
+        <v>5</v>
+      </c>
+      <c r="B6" s="356" t="s">
+        <v>570</v>
+      </c>
+      <c r="C6" s="356" t="s">
+        <v>575</v>
+      </c>
+      <c r="D6" s="356" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="17">
+      <c r="A7" s="256">
+        <v>6</v>
+      </c>
+      <c r="B7" s="366" t="s">
+        <v>563</v>
+      </c>
+      <c r="C7" s="366" t="s">
+        <v>582</v>
+      </c>
+      <c r="D7" s="366"/>
+    </row>
+    <row r="8" spans="1:12" ht="17">
+      <c r="A8" s="256">
+        <v>7</v>
+      </c>
+      <c r="B8" s="366" t="s">
+        <v>559</v>
+      </c>
+      <c r="C8" s="366" t="s">
+        <v>576</v>
+      </c>
+      <c r="D8" s="366"/>
+    </row>
+    <row r="9" spans="1:12" ht="17">
+      <c r="A9" s="256">
+        <v>8</v>
+      </c>
+      <c r="B9" s="366" t="s">
+        <v>560</v>
+      </c>
+      <c r="C9" s="366" t="s">
+        <v>576</v>
+      </c>
+      <c r="D9" s="366"/>
+    </row>
+    <row r="10" spans="1:12" ht="17.5" thickBot="1">
+      <c r="A10" s="256">
+        <v>9</v>
+      </c>
+      <c r="B10" s="366" t="s">
+        <v>561</v>
+      </c>
+      <c r="C10" s="366" t="s">
+        <v>577</v>
+      </c>
+      <c r="D10" s="366" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="18.5">
+      <c r="A11" s="256">
+        <v>10</v>
+      </c>
+      <c r="B11" s="366" t="s">
+        <v>562</v>
+      </c>
+      <c r="C11" s="366" t="s">
+        <v>576</v>
+      </c>
+      <c r="D11" s="366"/>
+      <c r="E11" s="367" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="17.5" thickBot="1">
+      <c r="A12" s="256">
+        <v>11</v>
+      </c>
+      <c r="B12" s="6"/>
+      <c r="E12" s="251" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="17">
+      <c r="A13" s="256">
+        <v>12</v>
+      </c>
+      <c r="B13" s="364" t="s">
+        <v>564</v>
+      </c>
+      <c r="C13" s="368" t="s">
+        <v>575</v>
+      </c>
+      <c r="D13" s="366" t="s">
+        <v>605</v>
+      </c>
+      <c r="E13" s="370" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="19.5" customHeight="1">
+      <c r="A14" s="251">
+        <v>13</v>
+      </c>
+      <c r="B14" s="366" t="s">
+        <v>565</v>
+      </c>
+      <c r="C14" s="369" t="s">
+        <v>578</v>
+      </c>
+      <c r="D14" s="366" t="s">
+        <v>597</v>
+      </c>
+      <c r="E14" s="370" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="16.5" customHeight="1">
+      <c r="A15" s="251">
+        <v>14</v>
+      </c>
+      <c r="B15" s="366" t="s">
+        <v>566</v>
+      </c>
+      <c r="C15" s="369" t="s">
+        <v>578</v>
+      </c>
+      <c r="D15" s="366" t="s">
+        <v>598</v>
+      </c>
+      <c r="E15" s="370" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="18" customHeight="1">
+      <c r="A16" s="251">
+        <v>15</v>
+      </c>
+      <c r="B16" s="366" t="s">
+        <v>567</v>
+      </c>
+      <c r="C16" s="369" t="s">
+        <v>578</v>
+      </c>
+      <c r="D16" s="366" t="s">
+        <v>599</v>
+      </c>
+      <c r="J16" s="372" t="s">
+        <v>35</v>
+      </c>
+      <c r="K16" s="372" t="s">
+        <v>8</v>
+      </c>
+      <c r="L16" s="372" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="19" customHeight="1">
+      <c r="A17" s="251">
+        <v>16</v>
+      </c>
+      <c r="B17" s="366" t="s">
+        <v>568</v>
+      </c>
+      <c r="C17" s="369" t="s">
+        <v>578</v>
+      </c>
+      <c r="D17" s="366" t="s">
+        <v>600</v>
+      </c>
+      <c r="J17" s="372" t="s">
+        <v>565</v>
+      </c>
+      <c r="K17" s="372" t="s">
+        <v>597</v>
+      </c>
+      <c r="L17" s="372" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="17">
+      <c r="A18" s="251">
+        <v>17</v>
+      </c>
+      <c r="B18" s="366" t="s">
+        <v>569</v>
+      </c>
+      <c r="C18" s="369" t="s">
+        <v>578</v>
+      </c>
+      <c r="D18" s="366" t="s">
+        <v>601</v>
+      </c>
+      <c r="J18" s="372" t="s">
+        <v>566</v>
+      </c>
+      <c r="K18" s="372" t="s">
+        <v>598</v>
+      </c>
+      <c r="L18" s="372" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="17.5" thickBot="1">
+      <c r="A19" s="256">
+        <v>18</v>
+      </c>
+      <c r="B19" s="237"/>
+      <c r="C19" s="237"/>
+      <c r="J19" s="372" t="s">
+        <v>567</v>
+      </c>
+      <c r="K19" s="372" t="s">
+        <v>599</v>
+      </c>
+      <c r="L19" s="372" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="17">
+      <c r="A20" s="256">
+        <v>19</v>
+      </c>
+      <c r="B20" s="364" t="s">
+        <v>571</v>
+      </c>
+      <c r="C20" s="365" t="s">
+        <v>575</v>
+      </c>
+      <c r="J20" s="372" t="s">
+        <v>568</v>
+      </c>
+      <c r="K20" s="372" t="s">
+        <v>600</v>
+      </c>
+      <c r="L20" s="372" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="17">
+      <c r="A21" s="256">
+        <v>20</v>
+      </c>
+      <c r="B21" s="366" t="s">
+        <v>572</v>
+      </c>
+      <c r="C21" s="366" t="s">
+        <v>578</v>
+      </c>
+      <c r="J21" s="372" t="s">
+        <v>569</v>
+      </c>
+      <c r="K21" s="372" t="s">
+        <v>601</v>
+      </c>
+      <c r="L21" s="372" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="17">
+      <c r="A22" s="256">
+        <v>21</v>
+      </c>
+      <c r="B22" s="366" t="s">
+        <v>573</v>
+      </c>
+      <c r="C22" s="366" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" ht="17">
+      <c r="A23" s="256">
+        <v>22</v>
+      </c>
+      <c r="B23" s="366" t="s">
+        <v>574</v>
+      </c>
+      <c r="C23" s="366" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
+      <c r="A24" s="256">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
+      <c r="A26" s="362" t="s">
+        <v>324</v>
+      </c>
+      <c r="B26" s="362" t="s">
+        <v>35</v>
+      </c>
+      <c r="C26" s="362" t="s">
+        <v>368</v>
+      </c>
+      <c r="D26" s="362" t="s">
+        <v>583</v>
+      </c>
+      <c r="E26" s="362" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
+      <c r="A27" s="359">
+        <v>1</v>
+      </c>
+      <c r="B27" s="360" t="s">
+        <v>559</v>
+      </c>
+      <c r="C27" s="360"/>
+      <c r="D27" s="360" t="s">
+        <v>576</v>
+      </c>
+      <c r="E27" s="358"/>
+    </row>
+    <row r="28" spans="1:12">
+      <c r="A28" s="359">
+        <v>2</v>
+      </c>
+      <c r="B28" s="360" t="s">
+        <v>560</v>
+      </c>
+      <c r="C28" s="360"/>
+      <c r="D28" s="360" t="s">
+        <v>576</v>
+      </c>
+      <c r="E28" s="358"/>
+    </row>
+    <row r="29" spans="1:12">
+      <c r="A29" s="359">
+        <v>3</v>
+      </c>
+      <c r="B29" s="360" t="s">
+        <v>561</v>
+      </c>
+      <c r="C29" s="360"/>
+      <c r="D29" s="360" t="s">
+        <v>577</v>
+      </c>
+      <c r="E29" s="358"/>
+    </row>
+    <row r="30" spans="1:12">
+      <c r="A30" s="359">
+        <v>4</v>
+      </c>
+      <c r="B30" s="360" t="s">
+        <v>562</v>
+      </c>
+      <c r="C30" s="360"/>
+      <c r="D30" s="360" t="s">
+        <v>576</v>
+      </c>
+      <c r="E30" s="358"/>
+    </row>
+    <row r="31" spans="1:12">
+      <c r="A31" s="359">
+        <v>5</v>
+      </c>
+      <c r="B31" s="360" t="s">
+        <v>565</v>
+      </c>
+      <c r="C31" s="360"/>
+      <c r="D31" s="361" t="s">
+        <v>585</v>
+      </c>
+      <c r="E31" s="361" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12">
+      <c r="A32" s="359">
+        <v>6</v>
+      </c>
+      <c r="B32" s="360" t="s">
+        <v>566</v>
+      </c>
+      <c r="C32" s="360"/>
+      <c r="D32" s="361" t="s">
+        <v>587</v>
+      </c>
+      <c r="E32" s="361" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="359">
+        <v>7</v>
+      </c>
+      <c r="B33" s="360" t="s">
+        <v>567</v>
+      </c>
+      <c r="C33" s="360"/>
+      <c r="D33" s="361" t="s">
+        <v>589</v>
+      </c>
+      <c r="E33" s="361" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="359">
+        <v>8</v>
+      </c>
+      <c r="B34" s="360" t="s">
+        <v>568</v>
+      </c>
+      <c r="C34" s="360"/>
+      <c r="D34" s="361" t="s">
+        <v>591</v>
+      </c>
+      <c r="E34" s="361" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="359">
+        <v>9</v>
+      </c>
+      <c r="B35" s="360" t="s">
+        <v>569</v>
+      </c>
+      <c r="C35" s="360"/>
+      <c r="D35" s="361" t="s">
+        <v>592</v>
+      </c>
+      <c r="E35" s="361" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="362" t="s">
+        <v>324</v>
+      </c>
+      <c r="B39" s="362" t="s">
+        <v>35</v>
+      </c>
+      <c r="C39" s="362" t="s">
+        <v>583</v>
+      </c>
+      <c r="D39" s="362" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="251">
+        <v>1</v>
+      </c>
+      <c r="B40" s="360" t="s">
+        <v>565</v>
+      </c>
+      <c r="C40" s="361" t="s">
+        <v>585</v>
+      </c>
+      <c r="D40" s="361" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" s="251">
+        <v>2</v>
+      </c>
+      <c r="B41" s="360" t="s">
+        <v>566</v>
+      </c>
+      <c r="C41" s="361" t="s">
+        <v>587</v>
+      </c>
+      <c r="D41" s="361" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" s="251">
+        <v>3</v>
+      </c>
+      <c r="B42" s="360" t="s">
+        <v>567</v>
+      </c>
+      <c r="C42" s="361" t="s">
+        <v>589</v>
+      </c>
+      <c r="D42" s="361" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" s="251">
+        <v>4</v>
+      </c>
+      <c r="B43" s="360" t="s">
+        <v>568</v>
+      </c>
+      <c r="C43" s="361" t="s">
+        <v>591</v>
+      </c>
+      <c r="D43" s="361" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" s="251">
+        <v>5</v>
+      </c>
+      <c r="B44" s="360" t="s">
+        <v>569</v>
+      </c>
+      <c r="C44" s="361" t="s">
+        <v>592</v>
+      </c>
+      <c r="D44" s="361" t="s">
+        <v>594</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCFBE71E-1222-4470-977A-1E87DCBCE488}">
-  <dimension ref="A1:P22"/>
+  <dimension ref="A1:O22"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B14" sqref="B14"/>
@@ -11098,465 +11892,453 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="4.90625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.08984375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.08984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="44.08984375" customWidth="1"/>
-    <col min="4" max="4" width="28.1796875" customWidth="1"/>
+    <col min="3" max="3" width="46.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.1796875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.7265625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="4.08984375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.1796875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.453125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.81640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="29.7265625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.81640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.54296875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="19.54296875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.26953125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.453125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.08984375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="29.7265625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.81640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.54296875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.54296875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.26953125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.453125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="29.5" thickBot="1">
-      <c r="A1" s="355" t="s">
+    <row r="1" spans="1:15" ht="15" thickBot="1">
+      <c r="A1" s="271" t="s">
+        <v>458</v>
+      </c>
+      <c r="B1" s="271" t="s">
+        <v>459</v>
+      </c>
+      <c r="C1" s="271" t="s">
+        <v>460</v>
+      </c>
+      <c r="D1" s="271" t="s">
+        <v>461</v>
+      </c>
+      <c r="E1" s="271" t="s">
+        <v>462</v>
+      </c>
+      <c r="F1" s="271" t="s">
+        <v>363</v>
+      </c>
+      <c r="G1" s="271" t="s">
+        <v>463</v>
+      </c>
+      <c r="H1" s="271" t="s">
+        <v>39</v>
+      </c>
+      <c r="I1" s="271" t="s">
+        <v>323</v>
+      </c>
+      <c r="J1" s="271" t="s">
+        <v>464</v>
+      </c>
+      <c r="K1" s="271" t="s">
+        <v>465</v>
+      </c>
+      <c r="L1" s="272"/>
+      <c r="M1" s="327" t="s">
+        <v>508</v>
+      </c>
+      <c r="N1" s="328"/>
+      <c r="O1" s="329"/>
+    </row>
+    <row r="2" spans="1:15">
+      <c r="A2" s="255">
+        <v>1</v>
+      </c>
+      <c r="B2" s="255" t="s">
+        <v>466</v>
+      </c>
+      <c r="C2" s="255" t="s">
+        <v>467</v>
+      </c>
+      <c r="D2" s="255" t="s">
+        <v>468</v>
+      </c>
+      <c r="E2" s="255" t="s">
+        <v>469</v>
+      </c>
+      <c r="F2" s="255">
+        <v>1</v>
+      </c>
+      <c r="G2" s="255" t="s">
+        <v>470</v>
+      </c>
+      <c r="H2" s="255" t="s">
+        <v>471</v>
+      </c>
+      <c r="I2" s="255" t="s">
+        <v>472</v>
+      </c>
+      <c r="J2" s="255">
+        <v>1</v>
+      </c>
+      <c r="K2" s="255" t="s">
+        <v>473</v>
+      </c>
+      <c r="L2" s="256" t="s">
+        <v>485</v>
+      </c>
+      <c r="M2" s="261" t="s">
+        <v>486</v>
+      </c>
+      <c r="N2" s="261" t="s">
+        <v>487</v>
+      </c>
+      <c r="O2" s="261" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="A3" s="255">
+        <v>2</v>
+      </c>
+      <c r="B3" s="255" t="s">
+        <v>466</v>
+      </c>
+      <c r="C3" s="255" t="s">
+        <v>467</v>
+      </c>
+      <c r="D3" s="255" t="s">
+        <v>468</v>
+      </c>
+      <c r="E3" s="255" t="s">
+        <v>469</v>
+      </c>
+      <c r="F3" s="255">
+        <v>1</v>
+      </c>
+      <c r="G3" s="255" t="s">
+        <v>470</v>
+      </c>
+      <c r="H3" s="255" t="s">
+        <v>471</v>
+      </c>
+      <c r="I3" s="255" t="s">
+        <v>472</v>
+      </c>
+      <c r="J3" s="255">
+        <v>2</v>
+      </c>
+      <c r="K3" s="255" t="s">
+        <v>475</v>
+      </c>
+      <c r="L3" s="256" t="s">
+        <v>489</v>
+      </c>
+      <c r="M3" s="260" t="s">
+        <v>490</v>
+      </c>
+      <c r="N3" s="260" t="s">
+        <v>487</v>
+      </c>
+      <c r="O3" s="260" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" s="278" customFormat="1">
+      <c r="A4" s="273"/>
+      <c r="B4" s="274" t="s">
+        <v>484</v>
+      </c>
+      <c r="C4" s="274" t="s">
+        <v>474</v>
+      </c>
+      <c r="D4" s="273" t="s">
+        <v>468</v>
+      </c>
+      <c r="E4" s="273" t="s">
+        <v>469</v>
+      </c>
+      <c r="F4" s="273">
+        <v>1</v>
+      </c>
+      <c r="G4" s="273" t="s">
+        <v>470</v>
+      </c>
+      <c r="H4" s="273" t="s">
+        <v>471</v>
+      </c>
+      <c r="I4" s="273" t="s">
+        <v>472</v>
+      </c>
+      <c r="J4" s="273">
+        <v>1</v>
+      </c>
+      <c r="K4" s="273"/>
+      <c r="L4" s="275"/>
+      <c r="M4" s="276" t="s">
+        <v>531</v>
+      </c>
+      <c r="N4" s="277"/>
+      <c r="O4" s="277"/>
+    </row>
+    <row r="5" spans="1:15">
+      <c r="A5" s="255">
+        <v>3</v>
+      </c>
+      <c r="B5" s="255" t="s">
+        <v>466</v>
+      </c>
+      <c r="C5" s="255" t="s">
+        <v>467</v>
+      </c>
+      <c r="D5" s="255" t="s">
+        <v>468</v>
+      </c>
+      <c r="E5" s="255" t="s">
+        <v>476</v>
+      </c>
+      <c r="F5" s="255">
+        <v>1</v>
+      </c>
+      <c r="G5" s="255" t="s">
+        <v>477</v>
+      </c>
+      <c r="H5" s="255" t="s">
         <v>478</v>
       </c>
-      <c r="B1" s="355" t="s">
+      <c r="I5" s="255" t="s">
         <v>479</v>
       </c>
-      <c r="C1" s="355" t="s">
+      <c r="J5" s="255">
+        <v>1</v>
+      </c>
+      <c r="K5" s="255" t="s">
+        <v>473</v>
+      </c>
+      <c r="L5" s="257" t="s">
+        <v>491</v>
+      </c>
+      <c r="M5" s="245" t="s">
+        <v>492</v>
+      </c>
+      <c r="N5" s="245" t="s">
+        <v>487</v>
+      </c>
+      <c r="O5" s="260" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="A6" s="255">
+        <v>4</v>
+      </c>
+      <c r="B6" s="255" t="s">
+        <v>466</v>
+      </c>
+      <c r="C6" s="255" t="s">
+        <v>467</v>
+      </c>
+      <c r="D6" s="255" t="s">
+        <v>468</v>
+      </c>
+      <c r="E6" s="255" t="s">
+        <v>476</v>
+      </c>
+      <c r="F6" s="255">
+        <v>1</v>
+      </c>
+      <c r="G6" s="255" t="s">
+        <v>477</v>
+      </c>
+      <c r="H6" s="255" t="s">
+        <v>478</v>
+      </c>
+      <c r="I6" s="255" t="s">
         <v>480</v>
       </c>
-      <c r="D1" s="355" t="s">
+      <c r="J6" s="255">
+        <v>3</v>
+      </c>
+      <c r="K6" s="255" t="s">
         <v>481</v>
       </c>
-      <c r="E1" s="355" t="s">
+      <c r="L6" s="257" t="s">
+        <v>493</v>
+      </c>
+      <c r="M6" s="245" t="s">
+        <v>494</v>
+      </c>
+      <c r="N6" s="245" t="s">
+        <v>487</v>
+      </c>
+      <c r="O6" s="260" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="A7" s="255">
+        <v>5</v>
+      </c>
+      <c r="B7" s="255" t="s">
+        <v>466</v>
+      </c>
+      <c r="C7" s="255" t="s">
+        <v>467</v>
+      </c>
+      <c r="D7" s="255" t="s">
+        <v>468</v>
+      </c>
+      <c r="E7" s="255" t="s">
+        <v>476</v>
+      </c>
+      <c r="F7" s="255">
+        <v>1</v>
+      </c>
+      <c r="G7" s="255" t="s">
+        <v>477</v>
+      </c>
+      <c r="H7" s="255" t="s">
+        <v>478</v>
+      </c>
+      <c r="I7" s="255" t="s">
         <v>482</v>
       </c>
-      <c r="F1" s="355" t="s">
-        <v>365</v>
-      </c>
-      <c r="G1" s="355" t="s">
+      <c r="J7" s="255">
+        <v>3</v>
+      </c>
+      <c r="K7" s="255" t="s">
+        <v>481</v>
+      </c>
+      <c r="L7" s="257" t="s">
+        <v>495</v>
+      </c>
+      <c r="M7" s="245" t="s">
+        <v>496</v>
+      </c>
+      <c r="N7" s="245" t="s">
+        <v>487</v>
+      </c>
+      <c r="O7" s="260" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" hidden="1">
+      <c r="A8" s="259">
+        <v>1</v>
+      </c>
+      <c r="B8" s="255" t="s">
+        <v>484</v>
+      </c>
+      <c r="C8" s="255" t="s">
+        <v>474</v>
+      </c>
+      <c r="D8" s="255" t="s">
+        <v>468</v>
+      </c>
+      <c r="E8" s="255" t="s">
+        <v>469</v>
+      </c>
+      <c r="F8" s="255">
+        <v>1</v>
+      </c>
+      <c r="G8" s="255" t="s">
+        <v>470</v>
+      </c>
+      <c r="H8" s="255" t="s">
+        <v>471</v>
+      </c>
+      <c r="I8" s="255" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" s="278" customFormat="1">
+      <c r="A9" s="274">
+        <v>2</v>
+      </c>
+      <c r="B9" s="274" t="s">
+        <v>484</v>
+      </c>
+      <c r="C9" s="274" t="s">
+        <v>474</v>
+      </c>
+      <c r="D9" s="274" t="s">
+        <v>468</v>
+      </c>
+      <c r="E9" s="274" t="s">
+        <v>476</v>
+      </c>
+      <c r="F9" s="274">
+        <v>1</v>
+      </c>
+      <c r="G9" s="274" t="s">
+        <v>477</v>
+      </c>
+      <c r="H9" s="274" t="s">
+        <v>478</v>
+      </c>
+      <c r="I9" s="274" t="s">
         <v>483</v>
       </c>
-      <c r="H1" s="355" t="s">
-        <v>39</v>
-      </c>
-      <c r="I1" s="355" t="s">
-        <v>388</v>
-      </c>
-      <c r="J1" s="355" t="s">
-        <v>323</v>
-      </c>
-      <c r="K1" s="355" t="s">
-        <v>484</v>
-      </c>
-      <c r="L1" s="355" t="s">
-        <v>485</v>
-      </c>
-      <c r="M1" s="356"/>
-      <c r="N1" s="357" t="s">
+      <c r="J9" s="275">
+        <v>2</v>
+      </c>
+      <c r="K9" s="273" t="s">
+        <v>475</v>
+      </c>
+      <c r="L9" s="275" t="s">
+        <v>530</v>
+      </c>
+      <c r="M9" s="273" t="s">
+        <v>497</v>
+      </c>
+      <c r="N9" s="273" t="s">
+        <v>498</v>
+      </c>
+      <c r="O9" s="273" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" ht="15" thickBot="1"/>
+    <row r="12" spans="1:15">
+      <c r="B12" s="270" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
+      <c r="B13" s="258" t="s">
+        <v>504</v>
+      </c>
+      <c r="D13" s="269" t="s">
         <v>528</v>
       </c>
-      <c r="O1" s="358"/>
-      <c r="P1" s="359"/>
-    </row>
-    <row r="2" spans="1:16">
-      <c r="A2" s="338">
-        <v>1</v>
-      </c>
-      <c r="B2" s="338" t="s">
-        <v>486</v>
-      </c>
-      <c r="C2" s="338" t="s">
-        <v>487</v>
-      </c>
-      <c r="D2" s="338" t="s">
-        <v>488</v>
-      </c>
-      <c r="E2" s="338" t="s">
-        <v>489</v>
-      </c>
-      <c r="F2" s="338">
-        <v>1</v>
-      </c>
-      <c r="G2" s="338" t="s">
-        <v>490</v>
-      </c>
-      <c r="H2" s="338" t="s">
-        <v>491</v>
-      </c>
-      <c r="I2" s="338"/>
-      <c r="J2" s="338" t="s">
-        <v>492</v>
-      </c>
-      <c r="K2" s="338">
-        <v>1</v>
-      </c>
-      <c r="L2" s="338" t="s">
-        <v>493</v>
-      </c>
-      <c r="M2" s="339" t="s">
+    </row>
+    <row r="14" spans="1:15">
+      <c r="B14" s="258" t="s">
         <v>505</v>
       </c>
-      <c r="N2" s="344" t="s">
-        <v>506</v>
-      </c>
-      <c r="O2" s="344" t="s">
-        <v>507</v>
-      </c>
-      <c r="P2" s="344" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16">
-      <c r="A3" s="338">
-        <v>2</v>
-      </c>
-      <c r="B3" s="338" t="s">
-        <v>486</v>
-      </c>
-      <c r="C3" s="338" t="s">
-        <v>487</v>
-      </c>
-      <c r="D3" s="338" t="s">
-        <v>488</v>
-      </c>
-      <c r="E3" s="338" t="s">
-        <v>489</v>
-      </c>
-      <c r="F3" s="338">
-        <v>1</v>
-      </c>
-      <c r="G3" s="338" t="s">
-        <v>490</v>
-      </c>
-      <c r="H3" s="338" t="s">
-        <v>491</v>
-      </c>
-      <c r="I3" s="338"/>
-      <c r="J3" s="338" t="s">
-        <v>492</v>
-      </c>
-      <c r="K3" s="338">
-        <v>2</v>
-      </c>
-      <c r="L3" s="338" t="s">
-        <v>495</v>
-      </c>
-      <c r="M3" s="339" t="s">
-        <v>509</v>
-      </c>
-      <c r="N3" s="343" t="s">
-        <v>510</v>
-      </c>
-      <c r="O3" s="343" t="s">
-        <v>507</v>
-      </c>
-      <c r="P3" s="343" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" s="365" customFormat="1">
-      <c r="A4" s="360"/>
-      <c r="B4" s="361" t="s">
-        <v>504</v>
-      </c>
-      <c r="C4" s="361" t="s">
-        <v>494</v>
-      </c>
-      <c r="D4" s="360" t="s">
-        <v>488</v>
-      </c>
-      <c r="E4" s="360" t="s">
-        <v>489</v>
-      </c>
-      <c r="F4" s="360">
-        <v>1</v>
-      </c>
-      <c r="G4" s="360" t="s">
-        <v>490</v>
-      </c>
-      <c r="H4" s="360" t="s">
-        <v>491</v>
-      </c>
-      <c r="I4" s="360"/>
-      <c r="J4" s="360" t="s">
-        <v>492</v>
-      </c>
-      <c r="K4" s="360">
-        <v>1</v>
-      </c>
-      <c r="L4" s="360"/>
-      <c r="M4" s="362"/>
-      <c r="N4" s="363" t="s">
-        <v>551</v>
-      </c>
-      <c r="O4" s="364"/>
-      <c r="P4" s="364"/>
-    </row>
-    <row r="5" spans="1:16">
-      <c r="A5" s="338">
-        <v>3</v>
-      </c>
-      <c r="B5" s="338" t="s">
-        <v>486</v>
-      </c>
-      <c r="C5" s="338" t="s">
-        <v>487</v>
-      </c>
-      <c r="D5" s="338" t="s">
-        <v>488</v>
-      </c>
-      <c r="E5" s="338" t="s">
-        <v>496</v>
-      </c>
-      <c r="F5" s="338">
-        <v>1</v>
-      </c>
-      <c r="G5" s="338" t="s">
-        <v>497</v>
-      </c>
-      <c r="H5" s="338" t="s">
-        <v>498</v>
-      </c>
-      <c r="I5" s="338"/>
-      <c r="J5" s="338" t="s">
-        <v>499</v>
-      </c>
-      <c r="K5" s="338">
-        <v>1</v>
-      </c>
-      <c r="L5" s="338" t="s">
-        <v>493</v>
-      </c>
-      <c r="M5" s="340" t="s">
-        <v>511</v>
-      </c>
-      <c r="N5" s="285" t="s">
-        <v>512</v>
-      </c>
-      <c r="O5" s="285" t="s">
-        <v>507</v>
-      </c>
-      <c r="P5" s="343" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16">
-      <c r="A6" s="338">
-        <v>4</v>
-      </c>
-      <c r="B6" s="338" t="s">
-        <v>486</v>
-      </c>
-      <c r="C6" s="338" t="s">
-        <v>487</v>
-      </c>
-      <c r="D6" s="338" t="s">
-        <v>488</v>
-      </c>
-      <c r="E6" s="338" t="s">
-        <v>496</v>
-      </c>
-      <c r="F6" s="338">
-        <v>1</v>
-      </c>
-      <c r="G6" s="338" t="s">
-        <v>497</v>
-      </c>
-      <c r="H6" s="338" t="s">
-        <v>498</v>
-      </c>
-      <c r="I6" s="338"/>
-      <c r="J6" s="338" t="s">
-        <v>500</v>
-      </c>
-      <c r="K6" s="338">
-        <v>3</v>
-      </c>
-      <c r="L6" s="338" t="s">
-        <v>501</v>
-      </c>
-      <c r="M6" s="340" t="s">
-        <v>513</v>
-      </c>
-      <c r="N6" s="285" t="s">
-        <v>514</v>
-      </c>
-      <c r="O6" s="285" t="s">
-        <v>507</v>
-      </c>
-      <c r="P6" s="343" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16">
-      <c r="A7" s="338">
-        <v>5</v>
-      </c>
-      <c r="B7" s="338" t="s">
-        <v>486</v>
-      </c>
-      <c r="C7" s="338" t="s">
-        <v>487</v>
-      </c>
-      <c r="D7" s="338" t="s">
-        <v>488</v>
-      </c>
-      <c r="E7" s="338" t="s">
-        <v>496</v>
-      </c>
-      <c r="F7" s="338">
-        <v>1</v>
-      </c>
-      <c r="G7" s="338" t="s">
-        <v>497</v>
-      </c>
-      <c r="H7" s="338" t="s">
-        <v>498</v>
-      </c>
-      <c r="I7" s="338"/>
-      <c r="J7" s="338" t="s">
-        <v>502</v>
-      </c>
-      <c r="K7" s="338">
-        <v>3</v>
-      </c>
-      <c r="L7" s="338" t="s">
-        <v>501</v>
-      </c>
-      <c r="M7" s="340" t="s">
-        <v>515</v>
-      </c>
-      <c r="N7" s="285" t="s">
-        <v>516</v>
-      </c>
-      <c r="O7" s="285" t="s">
-        <v>507</v>
-      </c>
-      <c r="P7" s="343" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" hidden="1">
-      <c r="A8" s="342">
-        <v>1</v>
-      </c>
-      <c r="B8" s="338" t="s">
-        <v>504</v>
-      </c>
-      <c r="C8" s="338" t="s">
-        <v>494</v>
-      </c>
-      <c r="D8" s="338" t="s">
-        <v>488</v>
-      </c>
-      <c r="E8" s="338" t="s">
-        <v>489</v>
-      </c>
-      <c r="F8" s="338">
-        <v>1</v>
-      </c>
-      <c r="G8" s="338" t="s">
-        <v>490</v>
-      </c>
-      <c r="H8" s="338" t="s">
-        <v>491</v>
-      </c>
-      <c r="I8" s="341"/>
-      <c r="J8" s="338" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" s="365" customFormat="1">
-      <c r="A9" s="361">
-        <v>2</v>
-      </c>
-      <c r="B9" s="361" t="s">
-        <v>504</v>
-      </c>
-      <c r="C9" s="361" t="s">
-        <v>494</v>
-      </c>
-      <c r="D9" s="361" t="s">
-        <v>488</v>
-      </c>
-      <c r="E9" s="361" t="s">
-        <v>496</v>
-      </c>
-      <c r="F9" s="361">
-        <v>1</v>
-      </c>
-      <c r="G9" s="361" t="s">
-        <v>497</v>
-      </c>
-      <c r="H9" s="361" t="s">
-        <v>498</v>
-      </c>
-      <c r="I9" s="366"/>
-      <c r="J9" s="361" t="s">
-        <v>503</v>
-      </c>
-      <c r="K9" s="362">
-        <v>2</v>
-      </c>
-      <c r="L9" s="360" t="s">
-        <v>495</v>
-      </c>
-      <c r="M9" s="362" t="s">
-        <v>550</v>
-      </c>
-      <c r="N9" s="360" t="s">
-        <v>517</v>
-      </c>
-      <c r="O9" s="360" t="s">
-        <v>518</v>
-      </c>
-      <c r="P9" s="360" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" ht="15" thickBot="1"/>
-    <row r="12" spans="1:16">
-      <c r="B12" s="354" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16">
-      <c r="B13" s="341" t="s">
-        <v>524</v>
-      </c>
-      <c r="D13" s="353" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16">
-      <c r="B14" s="341" t="s">
-        <v>525</v>
-      </c>
-      <c r="D14" s="339" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16">
-      <c r="D15" s="339" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16">
+      <c r="D14" s="256" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
+      <c r="D15" s="256" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16">
         <v>1</v>
       </c>
       <c r="B16" t="s">
-        <v>543</v>
-      </c>
-      <c r="C16" s="351" t="s">
-        <v>541</v>
+        <v>523</v>
+      </c>
+      <c r="C16" s="267" t="s">
+        <v>521</v>
       </c>
     </row>
     <row r="17" spans="1:3">
-      <c r="C17" s="351" t="s">
-        <v>542</v>
+      <c r="C17" s="267" t="s">
+        <v>522</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -11564,117 +12346,102 @@
         <v>2</v>
       </c>
       <c r="B18" t="s">
-        <v>544</v>
-      </c>
-      <c r="C18" s="352"/>
+        <v>524</v>
+      </c>
+      <c r="C18" s="268"/>
     </row>
     <row r="20" spans="1:3">
       <c r="A20">
         <v>3</v>
       </c>
       <c r="B20" t="s">
-        <v>545</v>
+        <v>525</v>
       </c>
     </row>
     <row r="21" spans="1:3">
-      <c r="C21" s="352"/>
+      <c r="C21" s="268"/>
     </row>
     <row r="22" spans="1:3">
       <c r="A22">
         <v>4</v>
       </c>
-      <c r="B22" s="339" t="s">
-        <v>520</v>
-      </c>
-      <c r="C22" s="352"/>
+      <c r="B22" s="256" t="s">
+        <v>500</v>
+      </c>
+      <c r="C22" s="268"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="N1:P1"/>
+    <mergeCell ref="M1:O1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CEB1766-D579-4465-A0AC-3CF7721CD677}">
-  <dimension ref="A1:Q51"/>
+  <dimension ref="A1:M48"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+    <sheetView tabSelected="1" zoomScale="59" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="9.54296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.7265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.1796875" customWidth="1"/>
-    <col min="4" max="4" width="20.36328125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.7265625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.453125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.08984375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.54296875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.1796875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="21.54296875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="19.54296875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.453125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="16.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.6328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.36328125" customWidth="1"/>
+    <col min="5" max="5" width="20.08984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.6328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.6328125" customWidth="1"/>
+    <col min="8" max="8" width="25.08984375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.54296875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.36328125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="22.26953125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="25.54296875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.453125" customWidth="1"/>
+    <col min="14" max="14" width="25.81640625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="19.08984375" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="4.81640625" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="15" thickBot="1"/>
-    <row r="2" spans="1:17">
-      <c r="A2" s="217" t="s">
+    <row r="1" spans="1:12" ht="15" thickBot="1"/>
+    <row r="2" spans="1:12">
+      <c r="A2" s="351" t="s">
         <v>324</v>
       </c>
-      <c r="B2" s="218" t="s">
+      <c r="B2" s="352" t="s">
         <v>321</v>
       </c>
-      <c r="C2" s="218" t="s">
+      <c r="C2" s="352" t="s">
         <v>322</v>
       </c>
-      <c r="D2" s="218" t="s">
+      <c r="D2" s="352" t="s">
         <v>47</v>
       </c>
-      <c r="E2" s="219" t="s">
+      <c r="E2" s="353" t="s">
         <v>323</v>
       </c>
       <c r="G2" s="217" t="s">
         <v>324</v>
       </c>
       <c r="H2" s="218" t="s">
-        <v>385</v>
-      </c>
-      <c r="I2" s="218" t="s">
+        <v>519</v>
+      </c>
+      <c r="I2" s="219" t="s">
         <v>322</v>
       </c>
-      <c r="J2" s="218" t="s">
+      <c r="J2" s="333" t="s">
         <v>47</v>
       </c>
       <c r="K2" s="219" t="s">
         <v>323</v>
       </c>
-      <c r="M2" s="217" t="s">
-        <v>324</v>
-      </c>
-      <c r="N2" s="218" t="s">
-        <v>539</v>
-      </c>
-      <c r="O2" s="218" t="s">
-        <v>322</v>
-      </c>
-      <c r="P2" s="218" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q2" s="219" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" s="220">
         <v>1</v>
       </c>
@@ -11694,28 +12461,15 @@
       <c r="H3" s="221" t="s">
         <v>279</v>
       </c>
-      <c r="I3" s="222">
-        <v>4500</v>
-      </c>
-      <c r="J3" s="223" t="s">
+      <c r="I3" s="335">
+        <v>3000</v>
+      </c>
+      <c r="J3" s="334" t="s">
         <v>287</v>
       </c>
       <c r="K3" s="224"/>
-      <c r="M3" s="220">
-        <v>1</v>
-      </c>
-      <c r="N3" s="221" t="s">
-        <v>279</v>
-      </c>
-      <c r="O3" s="222">
-        <v>3000</v>
-      </c>
-      <c r="P3" s="223" t="s">
-        <v>287</v>
-      </c>
-      <c r="Q3" s="224"/>
-    </row>
-    <row r="4" spans="1:17">
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" s="220">
         <v>2</v>
       </c>
@@ -11729,7 +12483,7 @@
         <v>287</v>
       </c>
       <c r="E4" s="224" t="s">
-        <v>380</v>
+        <v>364</v>
       </c>
       <c r="G4" s="220">
         <v>2</v>
@@ -11737,32 +12491,17 @@
       <c r="H4" s="221" t="s">
         <v>280</v>
       </c>
-      <c r="I4" s="221">
-        <v>13500</v>
-      </c>
-      <c r="J4" s="223" t="s">
+      <c r="I4" s="224">
+        <v>13384</v>
+      </c>
+      <c r="J4" s="334" t="s">
         <v>287</v>
       </c>
       <c r="K4" s="224" t="s">
-        <v>386</v>
-      </c>
-      <c r="M4" s="220">
-        <v>2</v>
-      </c>
-      <c r="N4" s="221" t="s">
-        <v>280</v>
-      </c>
-      <c r="O4" s="221">
-        <v>13384</v>
-      </c>
-      <c r="P4" s="223" t="s">
-        <v>287</v>
-      </c>
-      <c r="Q4" s="224" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5" s="220">
         <v>3</v>
       </c>
@@ -11782,26 +12521,15 @@
       <c r="H5" s="221" t="s">
         <v>281</v>
       </c>
-      <c r="I5" s="221">
+      <c r="I5" s="224">
         <v>17666</v>
       </c>
-      <c r="J5" s="223" t="s">
+      <c r="J5" s="334" t="s">
         <v>287</v>
       </c>
       <c r="K5" s="224"/>
-      <c r="M5" s="220">
-        <v>3</v>
-      </c>
-      <c r="N5" s="221" t="s">
-        <v>281</v>
-      </c>
-      <c r="O5" s="221">
-        <v>17666</v>
-      </c>
-      <c r="P5" s="223"/>
-      <c r="Q5" s="224"/>
-    </row>
-    <row r="6" spans="1:17">
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6" s="220">
         <v>4</v>
       </c>
@@ -11821,26 +12549,15 @@
       <c r="H6" s="221" t="s">
         <v>282</v>
       </c>
-      <c r="I6" s="221">
-        <v>14000</v>
-      </c>
-      <c r="J6" s="223" t="s">
+      <c r="I6" s="224" t="s">
+        <v>608</v>
+      </c>
+      <c r="J6" s="334" t="s">
         <v>287</v>
       </c>
       <c r="K6" s="224"/>
-      <c r="M6" s="220">
-        <v>4</v>
-      </c>
-      <c r="N6" s="221" t="s">
-        <v>282</v>
-      </c>
-      <c r="O6" s="221">
-        <v>14000</v>
-      </c>
-      <c r="P6" s="223"/>
-      <c r="Q6" s="224"/>
-    </row>
-    <row r="7" spans="1:17">
+    </row>
+    <row r="7" spans="1:12">
       <c r="A7" s="220">
         <v>5</v>
       </c>
@@ -11860,28 +12577,15 @@
       <c r="H7" s="221" t="s">
         <v>283</v>
       </c>
-      <c r="I7" s="221">
-        <v>1000</v>
-      </c>
-      <c r="J7" s="223" t="s">
+      <c r="I7" s="224">
+        <v>800</v>
+      </c>
+      <c r="J7" s="334" t="s">
         <v>287</v>
       </c>
-      <c r="K7" s="221"/>
-      <c r="M7" s="220">
-        <v>5</v>
-      </c>
-      <c r="N7" s="221" t="s">
-        <v>283</v>
-      </c>
-      <c r="O7" s="221">
-        <v>800</v>
-      </c>
-      <c r="P7" s="223" t="s">
-        <v>287</v>
-      </c>
-      <c r="Q7" s="224"/>
-    </row>
-    <row r="8" spans="1:17">
+      <c r="K7" s="224"/>
+    </row>
+    <row r="8" spans="1:12">
       <c r="A8" s="220">
         <v>6</v>
       </c>
@@ -11899,30 +12603,17 @@
         <v>6</v>
       </c>
       <c r="H8" s="221" t="s">
-        <v>387</v>
-      </c>
-      <c r="I8" s="221">
-        <v>3000</v>
-      </c>
-      <c r="J8" s="223" t="s">
+        <v>520</v>
+      </c>
+      <c r="I8" s="224">
+        <v>1500</v>
+      </c>
+      <c r="J8" s="334" t="s">
         <v>287</v>
       </c>
-      <c r="K8" s="221"/>
-      <c r="M8" s="220">
-        <v>6</v>
-      </c>
-      <c r="N8" s="221" t="s">
-        <v>540</v>
-      </c>
-      <c r="O8" s="221">
-        <v>1500</v>
-      </c>
-      <c r="P8" s="223" t="s">
-        <v>287</v>
-      </c>
-      <c r="Q8" s="224"/>
-    </row>
-    <row r="9" spans="1:17">
+      <c r="K8" s="224"/>
+    </row>
+    <row r="9" spans="1:12">
       <c r="A9" s="220">
         <v>7</v>
       </c>
@@ -11942,26 +12633,15 @@
       <c r="H9" s="228" t="s">
         <v>331</v>
       </c>
-      <c r="I9" s="228">
-        <v>30000</v>
-      </c>
-      <c r="J9" s="223" t="s">
+      <c r="I9" s="336">
+        <v>10000</v>
+      </c>
+      <c r="J9" s="334" t="s">
         <v>287</v>
       </c>
-      <c r="K9" s="221"/>
-      <c r="M9" s="220">
-        <v>7</v>
-      </c>
-      <c r="N9" s="228" t="s">
-        <v>331</v>
-      </c>
-      <c r="O9" s="228">
-        <v>15000</v>
-      </c>
-      <c r="P9" s="223"/>
-      <c r="Q9" s="224"/>
-    </row>
-    <row r="10" spans="1:17">
+      <c r="K9" s="224"/>
+    </row>
+    <row r="10" spans="1:12">
       <c r="A10" s="220">
         <v>8</v>
       </c>
@@ -11978,29 +12658,18 @@
       <c r="G10" s="220">
         <v>8</v>
       </c>
-      <c r="H10" s="221" t="s">
-        <v>284</v>
-      </c>
-      <c r="I10" s="221">
-        <v>1000</v>
-      </c>
-      <c r="J10" s="223" t="s">
+      <c r="H10" s="228" t="s">
+        <v>544</v>
+      </c>
+      <c r="I10" s="346">
+        <v>5500</v>
+      </c>
+      <c r="J10" s="334" t="s">
         <v>287</v>
       </c>
-      <c r="K10" s="221"/>
-      <c r="M10" s="220">
-        <v>8</v>
-      </c>
-      <c r="N10" s="221" t="s">
-        <v>560</v>
-      </c>
-      <c r="O10" s="221">
-        <v>3200</v>
-      </c>
-      <c r="P10" s="223"/>
-      <c r="Q10" s="224"/>
-    </row>
-    <row r="11" spans="1:17">
+      <c r="K10" s="224"/>
+    </row>
+    <row r="11" spans="1:12">
       <c r="A11" s="220">
         <v>9</v>
       </c>
@@ -12017,29 +12686,20 @@
       <c r="G11" s="220">
         <v>9</v>
       </c>
-      <c r="H11" s="221" t="s">
-        <v>285</v>
-      </c>
-      <c r="I11" s="221">
-        <f>SUM(I3:I10)</f>
-        <v>84666</v>
-      </c>
-      <c r="J11" s="229"/>
-      <c r="K11" s="227"/>
-      <c r="M11" s="220">
-        <v>9</v>
-      </c>
-      <c r="N11" s="221" t="s">
-        <v>285</v>
-      </c>
-      <c r="O11" s="221">
-        <f>SUM(O3:O10)</f>
-        <v>68550</v>
-      </c>
-      <c r="P11" s="287"/>
-      <c r="Q11" s="227"/>
-    </row>
-    <row r="12" spans="1:17">
+      <c r="H11" s="228" t="s">
+        <v>554</v>
+      </c>
+      <c r="I11" s="346">
+        <v>2000</v>
+      </c>
+      <c r="J11" s="334" t="s">
+        <v>287</v>
+      </c>
+      <c r="K11" s="347" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
       <c r="A12" s="220">
         <v>10</v>
       </c>
@@ -12055,26 +12715,18 @@
         <v>10</v>
       </c>
       <c r="H12" s="221" t="s">
-        <v>286</v>
-      </c>
-      <c r="I12" s="221">
-        <v>100301</v>
-      </c>
-      <c r="J12" s="335"/>
+        <v>539</v>
+      </c>
+      <c r="I12" s="224">
+        <v>4200</v>
+      </c>
+      <c r="J12" s="253"/>
       <c r="K12" s="227"/>
-      <c r="M12" s="220">
-        <v>10</v>
-      </c>
-      <c r="N12" s="221" t="s">
-        <v>326</v>
-      </c>
-      <c r="O12" s="221" t="s">
-        <v>562</v>
-      </c>
-      <c r="P12" s="335"/>
-      <c r="Q12" s="227"/>
-    </row>
-    <row r="13" spans="1:17">
+      <c r="L12" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
       <c r="A13" s="220">
         <v>11</v>
       </c>
@@ -12090,23 +12742,20 @@
       <c r="G13" s="220">
         <v>11</v>
       </c>
-      <c r="H13" s="225" t="s">
-        <v>325</v>
-      </c>
-      <c r="I13" s="228"/>
-      <c r="J13" s="336"/>
+      <c r="H13" s="221" t="s">
+        <v>285</v>
+      </c>
+      <c r="I13" s="224">
+        <f>SUM(I3:I12)</f>
+        <v>58050</v>
+      </c>
+      <c r="J13" s="330"/>
       <c r="K13" s="227"/>
-      <c r="M13" s="220">
-        <v>11</v>
-      </c>
-      <c r="N13" s="225" t="s">
-        <v>325</v>
-      </c>
-      <c r="O13" s="228"/>
-      <c r="P13" s="336"/>
-      <c r="Q13" s="227"/>
-    </row>
-    <row r="14" spans="1:17" ht="15" thickBot="1">
+      <c r="L13" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="15" thickBot="1">
       <c r="A14" s="220">
         <v>12</v>
       </c>
@@ -12116,28 +12765,21 @@
       <c r="C14" s="221">
         <v>100301</v>
       </c>
-      <c r="D14" s="335"/>
+      <c r="D14" s="330"/>
       <c r="E14" s="227"/>
-      <c r="G14" s="220">
+      <c r="G14" s="229">
         <v>12</v>
       </c>
-      <c r="H14" s="231" t="s">
+      <c r="H14" s="348" t="s">
         <v>326</v>
       </c>
-      <c r="I14" s="232"/>
-      <c r="J14" s="233"/>
-      <c r="K14" s="234"/>
-      <c r="M14" s="230">
-        <v>12</v>
-      </c>
-      <c r="N14" s="231" t="s">
-        <v>326</v>
-      </c>
-      <c r="O14" s="232"/>
-      <c r="P14" s="233"/>
-      <c r="Q14" s="234"/>
-    </row>
-    <row r="15" spans="1:17">
+      <c r="I14" s="349" t="s">
+        <v>556</v>
+      </c>
+      <c r="J14" s="350"/>
+      <c r="K14" s="233"/>
+    </row>
+    <row r="15" spans="1:12">
       <c r="A15" s="220">
         <v>13</v>
       </c>
@@ -12147,615 +12789,435 @@
       <c r="C15" s="228">
         <v>49766</v>
       </c>
-      <c r="D15" s="336"/>
+      <c r="D15" s="331"/>
       <c r="E15" s="227"/>
-    </row>
-    <row r="16" spans="1:17" ht="15" thickBot="1">
-      <c r="A16" s="230">
+      <c r="G15" s="234"/>
+      <c r="H15" s="238"/>
+      <c r="I15" s="238"/>
+      <c r="J15" s="236"/>
+      <c r="K15" s="234"/>
+    </row>
+    <row r="16" spans="1:12" ht="15" thickBot="1">
+      <c r="A16" s="229">
         <v>14</v>
       </c>
-      <c r="B16" s="231" t="s">
+      <c r="B16" s="230" t="s">
         <v>326</v>
       </c>
-      <c r="C16" s="232">
+      <c r="C16" s="231">
         <v>50635</v>
       </c>
-      <c r="D16" s="233"/>
-      <c r="E16" s="234"/>
-    </row>
-    <row r="18" spans="1:13" ht="15" thickBot="1"/>
-    <row r="19" spans="1:13" ht="42.5" thickBot="1">
-      <c r="A19" s="282" t="s">
-        <v>379</v>
-      </c>
-      <c r="B19" s="274"/>
-      <c r="C19" s="274"/>
-      <c r="D19" s="274"/>
-      <c r="E19" s="274"/>
-      <c r="F19" s="275"/>
-    </row>
-    <row r="20" spans="1:13" ht="15" thickBot="1">
-      <c r="A20" s="283" t="s">
-        <v>363</v>
-      </c>
-      <c r="B20" s="284" t="s">
-        <v>364</v>
-      </c>
-      <c r="C20" s="284" t="s">
+      <c r="D16" s="232"/>
+      <c r="E16" s="233"/>
+    </row>
+    <row r="17" spans="1:13" ht="15" thickBot="1"/>
+    <row r="18" spans="1:13">
+      <c r="A18" s="351" t="s">
+        <v>324</v>
+      </c>
+      <c r="B18" s="352" t="s">
         <v>365</v>
       </c>
-      <c r="D20" s="284" t="s">
+      <c r="C18" s="352" t="s">
+        <v>322</v>
+      </c>
+      <c r="D18" s="352" t="s">
+        <v>47</v>
+      </c>
+      <c r="E18" s="353" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19" s="220">
+        <v>1</v>
+      </c>
+      <c r="B19" s="221" t="s">
+        <v>279</v>
+      </c>
+      <c r="C19" s="222">
+        <v>4500</v>
+      </c>
+      <c r="D19" s="223" t="s">
+        <v>287</v>
+      </c>
+      <c r="E19" s="224"/>
+      <c r="F19" s="342"/>
+      <c r="G19" s="177"/>
+      <c r="H19" s="177"/>
+      <c r="I19" s="177"/>
+      <c r="J19" s="177"/>
+      <c r="K19" s="177"/>
+      <c r="L19" s="176"/>
+      <c r="M19" s="176"/>
+    </row>
+    <row r="20" spans="1:13">
+      <c r="A20" s="220">
+        <v>2</v>
+      </c>
+      <c r="B20" s="221" t="s">
+        <v>280</v>
+      </c>
+      <c r="C20" s="221">
+        <v>13500</v>
+      </c>
+      <c r="D20" s="223" t="s">
+        <v>287</v>
+      </c>
+      <c r="E20" s="224" t="s">
         <v>366</v>
       </c>
-      <c r="E20" s="284" t="s">
-        <v>378</v>
-      </c>
-      <c r="F20" s="284" t="s">
+      <c r="F20" s="343"/>
+      <c r="G20" s="342"/>
+      <c r="H20" s="344"/>
+      <c r="I20" s="177"/>
+      <c r="J20" s="177"/>
+      <c r="K20" s="177"/>
+      <c r="L20" s="122"/>
+      <c r="M20" s="176"/>
+    </row>
+    <row r="21" spans="1:13">
+      <c r="A21" s="220">
+        <v>3</v>
+      </c>
+      <c r="B21" s="221" t="s">
+        <v>281</v>
+      </c>
+      <c r="C21" s="221">
+        <v>17666</v>
+      </c>
+      <c r="D21" s="223" t="s">
+        <v>287</v>
+      </c>
+      <c r="E21" s="224"/>
+      <c r="F21" s="345"/>
+      <c r="G21" s="343"/>
+      <c r="H21" s="343"/>
+      <c r="I21" s="177"/>
+      <c r="J21" s="177"/>
+      <c r="K21" s="342"/>
+      <c r="L21" s="338"/>
+      <c r="M21" s="122"/>
+    </row>
+    <row r="22" spans="1:13">
+      <c r="A22" s="220">
+        <v>4</v>
+      </c>
+      <c r="B22" s="221" t="s">
+        <v>282</v>
+      </c>
+      <c r="C22" s="221">
+        <v>14000</v>
+      </c>
+      <c r="D22" s="223" t="s">
+        <v>287</v>
+      </c>
+      <c r="E22" s="224"/>
+      <c r="F22" s="238"/>
+      <c r="G22" s="236"/>
+      <c r="H22" s="236"/>
+      <c r="I22" s="176"/>
+      <c r="J22" s="176"/>
+      <c r="K22" s="338"/>
+      <c r="L22" s="339"/>
+      <c r="M22" s="338"/>
+    </row>
+    <row r="23" spans="1:13">
+      <c r="A23" s="220">
+        <v>5</v>
+      </c>
+      <c r="B23" s="221" t="s">
+        <v>283</v>
+      </c>
+      <c r="C23" s="221">
+        <v>1000</v>
+      </c>
+      <c r="D23" s="223" t="s">
+        <v>287</v>
+      </c>
+      <c r="E23" s="224"/>
+      <c r="F23" s="238"/>
+      <c r="G23" s="236"/>
+      <c r="H23" s="236"/>
+      <c r="I23" s="176"/>
+      <c r="J23" s="176"/>
+      <c r="K23" s="339"/>
+      <c r="L23" s="339"/>
+      <c r="M23" s="339"/>
+    </row>
+    <row r="24" spans="1:13">
+      <c r="A24" s="220">
+        <v>6</v>
+      </c>
+      <c r="B24" s="221" t="s">
         <v>367</v>
       </c>
-      <c r="G20" s="275"/>
-      <c r="H20" s="235"/>
-      <c r="L20" s="258"/>
-      <c r="M20" s="258"/>
-    </row>
-    <row r="21" spans="1:13" ht="15" thickBot="1">
-      <c r="A21" s="238">
-        <v>1</v>
-      </c>
-      <c r="B21" s="239" t="s">
-        <v>368</v>
-      </c>
-      <c r="C21" s="239" t="s">
-        <v>376</v>
-      </c>
-      <c r="D21" s="239">
-        <v>5050</v>
-      </c>
-      <c r="E21" s="239">
-        <v>5850</v>
-      </c>
-      <c r="F21" s="239">
-        <v>5150</v>
-      </c>
-      <c r="G21" s="236" t="s">
-        <v>378</v>
-      </c>
-      <c r="H21" s="237" t="s">
-        <v>381</v>
-      </c>
-      <c r="K21" s="257" t="s">
-        <v>383</v>
-      </c>
-      <c r="L21" s="260" t="s">
-        <v>365</v>
-      </c>
-      <c r="M21" s="261" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
-      <c r="A22" s="238">
-        <v>2</v>
-      </c>
-      <c r="B22" s="239" t="s">
-        <v>369</v>
-      </c>
-      <c r="C22" s="239" t="s">
-        <v>376</v>
-      </c>
-      <c r="D22" s="239">
-        <v>8500</v>
-      </c>
-      <c r="E22" s="239">
-        <v>9300</v>
-      </c>
-      <c r="F22" s="239">
-        <v>10800</v>
-      </c>
-      <c r="G22" s="240"/>
-      <c r="H22" s="241">
-        <v>5350</v>
-      </c>
-      <c r="K22" s="259" t="s">
-        <v>364</v>
-      </c>
-      <c r="L22" s="220" t="s">
-        <v>376</v>
-      </c>
-      <c r="M22" s="224">
-        <v>5850</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
-      <c r="A23" s="238">
-        <v>3</v>
-      </c>
-      <c r="B23" s="239" t="s">
-        <v>370</v>
-      </c>
-      <c r="C23" s="239" t="s">
-        <v>376</v>
-      </c>
-      <c r="D23" s="239">
-        <v>4000</v>
-      </c>
-      <c r="E23" s="239">
-        <v>4500</v>
-      </c>
-      <c r="F23" s="239"/>
-      <c r="G23" s="240"/>
-      <c r="H23" s="241">
-        <v>8900</v>
-      </c>
-      <c r="K23" s="262" t="s">
-        <v>368</v>
-      </c>
-      <c r="L23" s="220" t="s">
-        <v>376</v>
-      </c>
-      <c r="M23" s="224">
-        <v>9300</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
-      <c r="A24" s="238">
-        <v>4</v>
-      </c>
-      <c r="B24" s="239" t="s">
-        <v>371</v>
-      </c>
-      <c r="C24" s="239" t="s">
-        <v>376</v>
-      </c>
-      <c r="D24" s="239">
-        <v>3500</v>
-      </c>
-      <c r="E24" s="239">
-        <v>4100</v>
-      </c>
-      <c r="F24" s="239"/>
-      <c r="G24" s="240"/>
-      <c r="H24" s="241">
-        <v>5350</v>
-      </c>
-      <c r="K24" s="262" t="s">
-        <v>369</v>
-      </c>
-      <c r="L24" s="220" t="s">
-        <v>376</v>
-      </c>
-      <c r="M24" s="224">
-        <v>4700</v>
-      </c>
+      <c r="C24" s="221">
+        <v>3000</v>
+      </c>
+      <c r="D24" s="223" t="s">
+        <v>287</v>
+      </c>
+      <c r="E24" s="224"/>
+      <c r="F24" s="238"/>
+      <c r="G24" s="236"/>
+      <c r="H24" s="236"/>
+      <c r="I24" s="176"/>
+      <c r="J24" s="176"/>
+      <c r="K24" s="339"/>
+      <c r="L24" s="339"/>
+      <c r="M24" s="339"/>
     </row>
     <row r="25" spans="1:13">
-      <c r="A25" s="238">
-        <v>5</v>
-      </c>
-      <c r="B25" s="239" t="s">
-        <v>372</v>
-      </c>
-      <c r="C25" s="239" t="s">
-        <v>376</v>
-      </c>
-      <c r="D25" s="239">
-        <v>1350</v>
-      </c>
-      <c r="E25" s="239">
-        <v>2100</v>
-      </c>
-      <c r="F25" s="239"/>
-      <c r="G25" s="240"/>
-      <c r="H25" s="241">
-        <v>4400</v>
-      </c>
-      <c r="K25" s="262" t="s">
-        <v>370</v>
-      </c>
-      <c r="L25" s="220" t="s">
-        <v>376</v>
-      </c>
-      <c r="M25" s="224">
-        <v>4300</v>
-      </c>
+      <c r="A25" s="220">
+        <v>7</v>
+      </c>
+      <c r="B25" s="228" t="s">
+        <v>331</v>
+      </c>
+      <c r="C25" s="228">
+        <v>30000</v>
+      </c>
+      <c r="D25" s="223" t="s">
+        <v>287</v>
+      </c>
+      <c r="E25" s="224"/>
+      <c r="F25" s="238"/>
+      <c r="G25" s="236"/>
+      <c r="H25" s="236"/>
+      <c r="I25" s="176"/>
+      <c r="J25" s="176"/>
+      <c r="K25" s="339"/>
+      <c r="L25" s="339"/>
+      <c r="M25" s="339"/>
     </row>
     <row r="26" spans="1:13">
-      <c r="A26" s="238">
-        <v>6</v>
-      </c>
-      <c r="B26" s="239" t="s">
-        <v>373</v>
-      </c>
-      <c r="C26" s="239" t="s">
-        <v>376</v>
-      </c>
-      <c r="D26" s="239">
+      <c r="A26" s="220">
+        <v>8</v>
+      </c>
+      <c r="B26" s="221" t="s">
+        <v>284</v>
+      </c>
+      <c r="C26" s="221">
         <v>1000</v>
       </c>
-      <c r="E26" s="239">
-        <v>1350</v>
-      </c>
-      <c r="F26" s="239"/>
-      <c r="G26" s="240"/>
-      <c r="H26" s="241">
-        <v>1600</v>
-      </c>
-      <c r="K26" s="262" t="s">
-        <v>371</v>
-      </c>
-      <c r="L26" s="220" t="s">
-        <v>376</v>
-      </c>
-      <c r="M26" s="224">
-        <v>2100</v>
-      </c>
+      <c r="D26" s="223" t="s">
+        <v>287</v>
+      </c>
+      <c r="E26" s="224"/>
+      <c r="F26" s="238"/>
+      <c r="G26" s="236"/>
+      <c r="H26" s="236"/>
+      <c r="I26" s="176"/>
+      <c r="J26" s="176"/>
+      <c r="K26" s="339"/>
+      <c r="L26" s="339"/>
+      <c r="M26" s="339"/>
     </row>
     <row r="27" spans="1:13">
-      <c r="A27" s="238">
-        <v>7</v>
-      </c>
-      <c r="B27" s="239" t="s">
-        <v>374</v>
-      </c>
-      <c r="C27" s="239" t="s">
-        <v>376</v>
-      </c>
-      <c r="D27" s="239">
-        <v>450</v>
-      </c>
-      <c r="E27" s="239">
-        <v>650</v>
-      </c>
-      <c r="F27" s="239"/>
-      <c r="G27" s="240"/>
-      <c r="H27" s="241">
-        <v>1300</v>
-      </c>
-      <c r="K27" s="262" t="s">
-        <v>372</v>
-      </c>
-      <c r="L27" s="220" t="s">
-        <v>376</v>
-      </c>
-      <c r="M27" s="224">
-        <v>1350</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13">
-      <c r="A28" s="238">
-        <v>8</v>
-      </c>
-      <c r="B28" s="239" t="s">
-        <v>375</v>
-      </c>
-      <c r="C28" s="239" t="s">
-        <v>376</v>
-      </c>
-      <c r="D28" s="239">
-        <v>6800</v>
-      </c>
-      <c r="E28" s="239">
-        <v>8300</v>
-      </c>
-      <c r="F28" s="239"/>
-      <c r="G28" s="240"/>
-      <c r="H28" s="241">
-        <v>450</v>
-      </c>
-      <c r="K28" s="262" t="s">
-        <v>373</v>
-      </c>
-      <c r="L28" s="220" t="s">
-        <v>376</v>
-      </c>
-      <c r="M28" s="224">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" ht="15" thickBot="1">
-      <c r="A29" s="242">
+      <c r="A27" s="220">
         <v>9</v>
       </c>
-      <c r="B29" s="243" t="s">
-        <v>377</v>
-      </c>
-      <c r="C29" s="243" t="s">
-        <v>376</v>
-      </c>
-      <c r="D29" s="244">
-        <v>600</v>
-      </c>
-      <c r="E29" s="244">
-        <v>1100</v>
-      </c>
-      <c r="F29" s="244"/>
-      <c r="G29" s="240"/>
-      <c r="H29" s="241">
-        <v>8000</v>
-      </c>
-      <c r="K29" s="262" t="s">
-        <v>374</v>
-      </c>
-      <c r="L29" s="220" t="s">
-        <v>376</v>
-      </c>
-      <c r="M29" s="224">
-        <v>8300</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" ht="15" thickBot="1">
-      <c r="A30" s="235"/>
-      <c r="B30" s="235"/>
-      <c r="C30" s="235"/>
-      <c r="D30" s="247">
-        <f>SUM(D21:D29)</f>
-        <v>31250</v>
-      </c>
-      <c r="E30" s="248">
-        <f>SUM(E21:E29)</f>
-        <v>37250</v>
-      </c>
-      <c r="F30" s="248"/>
-      <c r="G30" s="245"/>
-      <c r="H30" s="246">
-        <v>800</v>
-      </c>
-      <c r="K30" s="262" t="s">
-        <v>375</v>
-      </c>
-      <c r="L30" s="264" t="s">
-        <v>376</v>
-      </c>
-      <c r="M30" s="265">
-        <v>1100</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" ht="15" thickBot="1">
-      <c r="A31" s="235"/>
-      <c r="B31" s="235"/>
-      <c r="C31" s="235"/>
-      <c r="D31" s="250">
-        <v>0.18</v>
-      </c>
-      <c r="E31" s="251">
-        <v>0.18</v>
-      </c>
-      <c r="F31" s="252"/>
-      <c r="G31" s="248"/>
-      <c r="H31" s="249">
-        <f>SUM(H22:H30)</f>
-        <v>36150</v>
-      </c>
-      <c r="K31" s="263" t="s">
-        <v>377</v>
-      </c>
-      <c r="L31" s="220"/>
-      <c r="M31" s="224">
-        <f>SUM(M22:M30)</f>
-        <v>37650</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" ht="15" thickBot="1">
-      <c r="A32" s="235"/>
-      <c r="B32" s="235"/>
-      <c r="C32" s="235"/>
-      <c r="D32" s="253"/>
-      <c r="E32" s="254"/>
-      <c r="F32" s="254"/>
-      <c r="G32" s="252"/>
-      <c r="H32" s="251">
-        <v>0.18</v>
-      </c>
-      <c r="K32" s="266"/>
-      <c r="L32" s="220" t="s">
-        <v>382</v>
-      </c>
-      <c r="M32" s="267">
-        <v>6777</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13" ht="15" thickBot="1">
-      <c r="A33" s="235"/>
-      <c r="B33" s="235"/>
-      <c r="C33" s="235"/>
-      <c r="D33" s="235"/>
-      <c r="E33" s="235"/>
-      <c r="F33" s="235"/>
-      <c r="G33" s="254"/>
-      <c r="H33" s="255"/>
-      <c r="K33" s="266"/>
-      <c r="L33" s="268" t="s">
+      <c r="B27" s="221" t="s">
         <v>285</v>
       </c>
-      <c r="M33" s="269">
-        <v>44427</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" ht="15" thickBot="1">
-      <c r="A34" s="235"/>
-      <c r="B34" s="235"/>
-      <c r="C34" s="235"/>
-      <c r="D34" s="235"/>
-      <c r="E34" s="235"/>
-      <c r="F34" s="235"/>
-      <c r="G34" s="235"/>
-      <c r="H34" s="235"/>
-      <c r="K34" s="258"/>
-      <c r="L34" s="270" t="s">
-        <v>384</v>
-      </c>
-      <c r="M34" s="271">
-        <v>2000</v>
-      </c>
+      <c r="C27" s="221">
+        <f>SUM(C19:C26)</f>
+        <v>84666</v>
+      </c>
+      <c r="D27" s="253"/>
+      <c r="E27" s="227"/>
+      <c r="F27" s="238"/>
+      <c r="G27" s="236"/>
+      <c r="H27" s="236"/>
+      <c r="I27" s="176"/>
+      <c r="J27" s="176"/>
+      <c r="K27" s="339"/>
+      <c r="L27" s="339"/>
+      <c r="M27" s="339"/>
+    </row>
+    <row r="28" spans="1:13" ht="15" thickBot="1">
+      <c r="A28" s="229">
+        <v>10</v>
+      </c>
+      <c r="B28" s="230" t="s">
+        <v>326</v>
+      </c>
+      <c r="C28" s="348">
+        <v>100301</v>
+      </c>
+      <c r="D28" s="354"/>
+      <c r="E28" s="233"/>
+      <c r="F28" s="238"/>
+      <c r="G28" s="236"/>
+      <c r="H28" s="236"/>
+      <c r="I28" s="176"/>
+      <c r="J28" s="176"/>
+      <c r="K28" s="339"/>
+      <c r="L28" s="339"/>
+      <c r="M28" s="339"/>
+    </row>
+    <row r="29" spans="1:13">
+      <c r="A29" s="234"/>
+      <c r="B29" s="236"/>
+      <c r="C29" s="236"/>
+      <c r="D29" s="235"/>
+      <c r="E29" s="235"/>
+      <c r="F29" s="236"/>
+      <c r="G29" s="236"/>
+      <c r="H29" s="236"/>
+      <c r="I29" s="176"/>
+      <c r="J29" s="176"/>
+      <c r="K29" s="339"/>
+      <c r="L29" s="339"/>
+      <c r="M29" s="339"/>
+    </row>
+    <row r="30" spans="1:13">
+      <c r="F30" s="236"/>
+      <c r="G30" s="236"/>
+      <c r="H30" s="235"/>
+      <c r="I30" s="176"/>
+      <c r="J30" s="176"/>
+      <c r="K30" s="339"/>
+      <c r="L30" s="339"/>
+      <c r="M30" s="339"/>
+    </row>
+    <row r="31" spans="1:13">
+      <c r="F31" s="236"/>
+      <c r="G31" s="236"/>
+      <c r="H31" s="236"/>
+      <c r="I31" s="176"/>
+      <c r="J31" s="176"/>
+      <c r="K31" s="339"/>
+      <c r="L31" s="338"/>
+      <c r="M31" s="340"/>
+    </row>
+    <row r="32" spans="1:13">
+      <c r="F32" s="236"/>
+      <c r="G32" s="236"/>
+      <c r="H32" s="236"/>
+      <c r="I32" s="176"/>
+      <c r="J32" s="176"/>
+      <c r="K32" s="122"/>
+      <c r="L32" s="338"/>
+      <c r="M32" s="341"/>
+    </row>
+    <row r="33" spans="1:13">
+      <c r="F33" s="236"/>
+      <c r="G33" s="236"/>
+      <c r="H33" s="236"/>
+      <c r="I33" s="176"/>
+      <c r="J33" s="176"/>
+      <c r="K33" s="122"/>
+      <c r="L33" s="176"/>
+      <c r="M33" s="341"/>
+    </row>
+    <row r="34" spans="1:13">
+      <c r="F34" s="236"/>
+      <c r="G34" s="236"/>
+      <c r="H34" s="236"/>
+      <c r="I34" s="176"/>
+      <c r="J34" s="176"/>
+      <c r="K34" s="176"/>
+      <c r="L34" s="176"/>
+      <c r="M34" s="176"/>
     </row>
     <row r="35" spans="1:13">
-      <c r="A35" s="235"/>
-      <c r="B35" s="235"/>
-      <c r="C35" s="235"/>
-      <c r="D35" s="235"/>
-      <c r="E35" s="235"/>
-      <c r="F35" s="235"/>
-      <c r="G35" s="235"/>
-      <c r="H35" s="235"/>
-      <c r="K35" s="258"/>
+      <c r="F35" s="236"/>
+      <c r="G35" s="236"/>
+      <c r="H35" s="236"/>
+      <c r="I35" s="176"/>
+      <c r="J35" s="176"/>
+      <c r="K35" s="176"/>
+      <c r="L35" s="176"/>
+      <c r="M35" s="176"/>
     </row>
     <row r="36" spans="1:13">
-      <c r="A36" s="235"/>
-      <c r="B36" s="256"/>
-      <c r="C36" s="252"/>
-      <c r="D36" s="252"/>
-      <c r="E36" s="235"/>
-      <c r="F36" s="235"/>
-      <c r="G36" s="235"/>
-      <c r="H36" s="235"/>
+      <c r="F36" s="234"/>
+      <c r="G36" s="234"/>
+      <c r="H36" s="234"/>
     </row>
     <row r="37" spans="1:13">
-      <c r="A37" s="235"/>
-      <c r="B37" s="272"/>
-      <c r="C37" s="272"/>
-      <c r="D37" s="256"/>
-      <c r="E37" s="235"/>
-      <c r="F37" s="235"/>
-      <c r="G37" s="235"/>
-      <c r="H37" s="235"/>
+      <c r="F37" s="234"/>
+      <c r="G37" s="234"/>
+      <c r="H37" s="234"/>
     </row>
     <row r="38" spans="1:13">
-      <c r="A38" s="235"/>
-      <c r="B38" s="273"/>
-      <c r="C38" s="273"/>
-      <c r="D38" s="252"/>
-      <c r="E38" s="235"/>
-      <c r="F38" s="235"/>
-      <c r="G38" s="235"/>
-      <c r="H38" s="235"/>
+      <c r="F38" s="234"/>
+      <c r="G38" s="234"/>
+      <c r="H38" s="234"/>
     </row>
     <row r="39" spans="1:13">
-      <c r="A39" s="235"/>
-      <c r="B39" s="273"/>
-      <c r="C39" s="273"/>
-      <c r="D39" s="252"/>
-      <c r="E39" s="235"/>
-      <c r="F39" s="235"/>
-      <c r="G39" s="235"/>
-      <c r="H39" s="235"/>
+      <c r="F39" s="234"/>
+      <c r="G39" s="234"/>
+      <c r="H39" s="234"/>
     </row>
     <row r="40" spans="1:13">
-      <c r="A40" s="235"/>
-      <c r="B40" s="273"/>
-      <c r="C40" s="273"/>
-      <c r="D40" s="252"/>
-      <c r="E40" s="235"/>
-      <c r="F40" s="235"/>
-      <c r="G40" s="235"/>
-      <c r="H40" s="235"/>
+      <c r="F40" s="234"/>
+      <c r="G40" s="234"/>
+      <c r="H40" s="234"/>
     </row>
     <row r="41" spans="1:13">
-      <c r="A41" s="235"/>
-      <c r="B41" s="273"/>
-      <c r="C41" s="273"/>
-      <c r="D41" s="252"/>
-      <c r="E41" s="235"/>
-      <c r="F41" s="235"/>
-      <c r="G41" s="235"/>
-      <c r="H41" s="235"/>
+      <c r="F41" s="234"/>
+      <c r="G41" s="234"/>
+      <c r="H41" s="234"/>
     </row>
     <row r="42" spans="1:13">
-      <c r="A42" s="235"/>
-      <c r="B42" s="273"/>
-      <c r="C42" s="273"/>
-      <c r="D42" s="252"/>
-      <c r="E42" s="235"/>
-      <c r="F42" s="235"/>
-      <c r="G42" s="235"/>
-      <c r="H42" s="235"/>
+      <c r="F42" s="234"/>
+      <c r="G42" s="234"/>
+      <c r="H42" s="234"/>
     </row>
     <row r="43" spans="1:13">
-      <c r="A43" s="235"/>
-      <c r="B43" s="273"/>
-      <c r="C43" s="273"/>
-      <c r="D43" s="252"/>
-      <c r="E43" s="235"/>
-      <c r="F43" s="235"/>
-      <c r="G43" s="235"/>
-      <c r="H43" s="235"/>
+      <c r="F43" s="234"/>
+      <c r="G43" s="234"/>
+      <c r="H43" s="234"/>
     </row>
     <row r="44" spans="1:13">
-      <c r="A44" s="235"/>
-      <c r="B44" s="273"/>
-      <c r="C44" s="273"/>
-      <c r="D44" s="252"/>
-      <c r="E44" s="235"/>
-      <c r="F44" s="235"/>
-      <c r="G44" s="235"/>
-      <c r="H44" s="235"/>
+      <c r="A44" s="234"/>
+      <c r="B44" s="176"/>
+      <c r="C44" s="176"/>
+      <c r="D44" s="236"/>
+      <c r="E44" s="234"/>
+      <c r="F44" s="234"/>
+      <c r="G44" s="234"/>
+      <c r="H44" s="234"/>
     </row>
     <row r="45" spans="1:13">
-      <c r="A45" s="235"/>
-      <c r="B45" s="273"/>
-      <c r="C45" s="273"/>
-      <c r="D45" s="252"/>
-      <c r="E45" s="235"/>
-      <c r="F45" s="235"/>
-      <c r="G45" s="235"/>
-      <c r="H45" s="235"/>
+      <c r="A45" s="234"/>
+      <c r="D45" s="235"/>
+      <c r="E45" s="234"/>
+      <c r="F45" s="234"/>
+      <c r="G45" s="234"/>
+      <c r="H45" s="234"/>
     </row>
     <row r="46" spans="1:13">
-      <c r="A46" s="235"/>
-      <c r="B46" s="273"/>
-      <c r="C46" s="273"/>
-      <c r="D46" s="252"/>
-      <c r="E46" s="235"/>
-      <c r="F46" s="235"/>
-      <c r="G46" s="235"/>
-      <c r="H46" s="235"/>
+      <c r="A46" s="234"/>
+      <c r="B46" s="234"/>
+      <c r="C46" s="234"/>
+      <c r="D46" s="234"/>
+      <c r="E46" s="234"/>
+      <c r="F46" s="234"/>
+      <c r="G46" s="234"/>
+      <c r="H46" s="234"/>
     </row>
     <row r="47" spans="1:13">
-      <c r="A47" s="235"/>
-      <c r="B47" s="176"/>
-      <c r="C47" s="176"/>
-      <c r="D47" s="252"/>
-      <c r="E47" s="235"/>
-      <c r="F47" s="235"/>
-      <c r="G47" s="235"/>
-      <c r="H47" s="235"/>
+      <c r="A47" s="234"/>
+      <c r="B47" s="234"/>
+      <c r="C47" s="234"/>
+      <c r="D47" s="234"/>
+      <c r="E47" s="234"/>
+      <c r="F47" s="234"/>
+      <c r="G47" s="234"/>
+      <c r="H47" s="234"/>
     </row>
     <row r="48" spans="1:13">
-      <c r="A48" s="235"/>
-      <c r="D48" s="251"/>
-      <c r="E48" s="235"/>
-      <c r="F48" s="235"/>
-      <c r="G48" s="235"/>
-      <c r="H48" s="235"/>
-    </row>
-    <row r="49" spans="1:8">
-      <c r="A49" s="235"/>
-      <c r="B49" s="235"/>
-      <c r="C49" s="235"/>
-      <c r="D49" s="235"/>
-      <c r="E49" s="235"/>
-      <c r="F49" s="235"/>
-      <c r="G49" s="235"/>
-      <c r="H49" s="235"/>
-    </row>
-    <row r="50" spans="1:8">
-      <c r="A50" s="235"/>
-      <c r="B50" s="235"/>
-      <c r="C50" s="235"/>
-      <c r="D50" s="235"/>
-      <c r="E50" s="235"/>
-      <c r="F50" s="235"/>
-      <c r="G50" s="235"/>
-      <c r="H50" s="235"/>
-    </row>
-    <row r="51" spans="1:8">
-      <c r="G51" s="235"/>
-      <c r="H51" s="235"/>
+      <c r="G48" s="234"/>
+      <c r="H48" s="234"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="2">
     <mergeCell ref="D14:D15"/>
-    <mergeCell ref="J12:J13"/>
-    <mergeCell ref="P12:P13"/>
+    <mergeCell ref="J13:J14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Build and upgrade-migration task by keshav.xlsx
+++ b/Build and upgrade-migration task by keshav.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://myl-my.sharepoint.com/personal/keshavamurti_vadavi_viatris_com/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3550" documentId="8_{16982375-DEFE-49B6-B461-43A11EE975A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C2644F5A-7AAF-4E5F-9E28-0212D8E80501}"/>
+  <xr:revisionPtr revIDLastSave="3643" documentId="8_{16982375-DEFE-49B6-B461-43A11EE975A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B459836F-AFE6-4173-9F25-8CEE71306768}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" firstSheet="1" activeTab="4" xr2:uid="{A009D6BA-BFEC-4EA5-B8F3-816AE9C658AD}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" activeTab="2" xr2:uid="{A009D6BA-BFEC-4EA5-B8F3-816AE9C658AD}"/>
   </bookViews>
   <sheets>
     <sheet name="Server Build Sheet" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1191" uniqueCount="610">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1216" uniqueCount="632">
   <si>
     <t>Child RITM</t>
   </si>
@@ -1897,14 +1897,80 @@
     <t>14000+7000(Kuvera App)</t>
   </si>
   <si>
-    <t>Server UP OS Installed, IP, Hostname configured, need to add to the cluster</t>
+    <t xml:space="preserve">Make &amp; Model </t>
+  </si>
+  <si>
+    <t>Serial Number</t>
+  </si>
+  <si>
+    <t>DELL PowerEdge R740</t>
+  </si>
+  <si>
+    <t>F31SYP3</t>
+  </si>
+  <si>
+    <t>G31SYP3</t>
+  </si>
+  <si>
+    <t>H31SYP3</t>
+  </si>
+  <si>
+    <t>J31SYP3</t>
+  </si>
+  <si>
+    <t>141SYP3</t>
+  </si>
+  <si>
+    <t>Server UP, Esxi 8.0.3 Installed, IP, Hostname configured, need to add to the cluster</t>
+  </si>
+  <si>
+    <t>C6-DUBLIN Location DELL Serevers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Remarks/Status </t>
+  </si>
+  <si>
+    <t>Server UP, Esxi 8.0.3 Installed, IP, Hostname configured, need to add to the cluster, DATA ports are showing Not Supported</t>
+  </si>
+  <si>
+    <t>Wayanad Trip Exp</t>
+  </si>
+  <si>
+    <t>Fast Tag</t>
+  </si>
+  <si>
+    <t>Waynad checkpost Lunch</t>
+  </si>
+  <si>
+    <t>Snacks</t>
+  </si>
+  <si>
+    <t>Ice Cream</t>
+  </si>
+  <si>
+    <t>Car Petrol</t>
+  </si>
+  <si>
+    <t>Car Mileage Details</t>
+  </si>
+  <si>
+    <t>total petrol</t>
+  </si>
+  <si>
+    <t>Km</t>
+  </si>
+  <si>
+    <t>170-pending</t>
+  </si>
+  <si>
+    <t>54ltr</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="34">
+  <fonts count="35">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2143,6 +2209,14 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -3791,150 +3865,6 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="23" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="22" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3985,9 +3915,6 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4047,7 +3974,154 @@
     <xf numFmtId="0" fontId="3" fillId="6" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="23" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -4378,8 +4452,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DF4C3B2-726E-4F79-82C8-5BF433C2D7AC}">
   <dimension ref="A1:Z311"/>
   <sheetViews>
-    <sheetView topLeftCell="A57" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="E79" sqref="E79"/>
+    <sheetView topLeftCell="A48" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="C78" sqref="C78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17"/>
@@ -6195,41 +6269,41 @@
       <c r="A44" s="106">
         <v>42</v>
       </c>
-      <c r="B44" s="284" t="s">
+      <c r="B44" s="323" t="s">
         <v>506</v>
       </c>
-      <c r="C44" s="285"/>
-      <c r="D44" s="285"/>
-      <c r="E44" s="286"/>
+      <c r="C44" s="324"/>
+      <c r="D44" s="324"/>
+      <c r="E44" s="325"/>
     </row>
     <row r="45" spans="1:21" ht="17.5" thickBot="1">
       <c r="A45" s="106">
         <v>43</v>
       </c>
-      <c r="B45" s="287"/>
-      <c r="C45" s="288"/>
-      <c r="D45" s="288"/>
-      <c r="E45" s="289"/>
-      <c r="G45" s="284" t="s">
+      <c r="B45" s="326"/>
+      <c r="C45" s="327"/>
+      <c r="D45" s="327"/>
+      <c r="E45" s="328"/>
+      <c r="G45" s="323" t="s">
         <v>395</v>
       </c>
-      <c r="H45" s="285"/>
-      <c r="I45" s="286"/>
+      <c r="H45" s="324"/>
+      <c r="I45" s="325"/>
     </row>
     <row r="46" spans="1:21" ht="17.5" thickBot="1">
       <c r="A46" s="106">
         <v>44</v>
       </c>
-      <c r="B46" s="290"/>
-      <c r="C46" s="291"/>
-      <c r="D46" s="291"/>
-      <c r="E46" s="291"/>
-      <c r="F46" s="293" t="s">
+      <c r="B46" s="329"/>
+      <c r="C46" s="330"/>
+      <c r="D46" s="330"/>
+      <c r="E46" s="330"/>
+      <c r="F46" s="332" t="s">
         <v>396</v>
       </c>
-      <c r="G46" s="290"/>
-      <c r="H46" s="291"/>
-      <c r="I46" s="292"/>
+      <c r="G46" s="329"/>
+      <c r="H46" s="330"/>
+      <c r="I46" s="331"/>
     </row>
     <row r="47" spans="1:21" ht="17.5" thickBot="1">
       <c r="A47" s="106">
@@ -6247,7 +6321,7 @@
       <c r="E47" s="72" t="s">
         <v>386</v>
       </c>
-      <c r="F47" s="294"/>
+      <c r="F47" s="333"/>
       <c r="G47" s="28" t="s">
         <v>387</v>
       </c>
@@ -6350,7 +6424,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="1:25" ht="34.5" thickBot="1">
+    <row r="52" spans="1:25" ht="17.5" thickBot="1">
       <c r="A52" s="106">
         <v>51</v>
       </c>
@@ -6834,7 +6908,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="63" spans="1:25" ht="34.5" thickBot="1">
+    <row r="63" spans="1:25" ht="17.5" thickBot="1">
       <c r="A63" s="106">
         <v>62</v>
       </c>
@@ -7321,10 +7395,10 @@
       <c r="B75" s="166" t="s">
         <v>35</v>
       </c>
-      <c r="C75" s="337" t="s">
+      <c r="C75" s="289" t="s">
         <v>121</v>
       </c>
-      <c r="D75" s="337" t="s">
+      <c r="D75" s="289" t="s">
         <v>93</v>
       </c>
     </row>
@@ -8555,8 +8629,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C39EE772-119D-447F-B67C-406657C44E42}">
   <dimension ref="A1:S367"/>
   <sheetViews>
-    <sheetView topLeftCell="A23" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="F53" sqref="F53"/>
+    <sheetView topLeftCell="A35" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="B51" sqref="B51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -8702,7 +8776,7 @@
       <c r="F6" s="91">
         <v>2022</v>
       </c>
-      <c r="G6" s="315" t="s">
+      <c r="G6" s="334" t="s">
         <v>191</v>
       </c>
     </row>
@@ -8710,7 +8784,7 @@
       <c r="A7" s="94">
         <v>6</v>
       </c>
-      <c r="G7" s="294"/>
+      <c r="G7" s="333"/>
       <c r="I7" s="168"/>
       <c r="J7" s="82"/>
       <c r="K7" s="99"/>
@@ -8725,10 +8799,10 @@
       <c r="C8" s="113" t="s">
         <v>158</v>
       </c>
-      <c r="D8" s="301" t="s">
+      <c r="D8" s="354" t="s">
         <v>167</v>
       </c>
-      <c r="E8" s="304" t="s">
+      <c r="E8" s="335" t="s">
         <v>95</v>
       </c>
       <c r="F8" s="1"/>
@@ -8753,8 +8827,8 @@
       <c r="C9" s="114" t="s">
         <v>159</v>
       </c>
-      <c r="D9" s="302"/>
-      <c r="E9" s="305"/>
+      <c r="D9" s="355"/>
+      <c r="E9" s="336"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
@@ -8775,8 +8849,8 @@
       <c r="C10" s="114" t="s">
         <v>160</v>
       </c>
-      <c r="D10" s="303"/>
-      <c r="E10" s="316"/>
+      <c r="D10" s="356"/>
+      <c r="E10" s="337"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
@@ -8791,7 +8865,7 @@
       <c r="A11" s="239">
         <v>10</v>
       </c>
-      <c r="B11" s="299" t="s">
+      <c r="B11" s="352" t="s">
         <v>238</v>
       </c>
       <c r="C11" s="96" t="s">
@@ -8800,13 +8874,13 @@
       <c r="D11" s="97" t="s">
         <v>165</v>
       </c>
-      <c r="E11" s="304" t="s">
+      <c r="E11" s="335" t="s">
         <v>95</v>
       </c>
-      <c r="F11" s="317" t="s">
+      <c r="F11" s="338" t="s">
         <v>264</v>
       </c>
-      <c r="G11" s="325" t="s">
+      <c r="G11" s="346" t="s">
         <v>276</v>
       </c>
       <c r="H11" s="1"/>
@@ -8821,16 +8895,16 @@
       <c r="A12" s="239">
         <v>11</v>
       </c>
-      <c r="B12" s="300"/>
+      <c r="B12" s="353"/>
       <c r="C12" s="154" t="s">
         <v>164</v>
       </c>
       <c r="D12" s="155" t="s">
         <v>166</v>
       </c>
-      <c r="E12" s="305"/>
-      <c r="F12" s="318"/>
-      <c r="G12" s="326"/>
+      <c r="E12" s="336"/>
+      <c r="F12" s="339"/>
+      <c r="G12" s="347"/>
       <c r="H12" s="175"/>
     </row>
     <row r="13" spans="1:19" ht="16" thickBot="1">
@@ -8890,16 +8964,16 @@
       <c r="E16" s="169" t="s">
         <v>290</v>
       </c>
-      <c r="F16" s="306" t="s">
+      <c r="F16" s="357" t="s">
         <v>294</v>
       </c>
       <c r="G16" s="143" t="s">
         <v>166</v>
       </c>
-      <c r="H16" s="309" t="s">
+      <c r="H16" s="360" t="s">
         <v>247</v>
       </c>
-      <c r="I16" s="298"/>
+      <c r="I16" s="351"/>
     </row>
     <row r="17" spans="1:13" ht="15.5">
       <c r="A17" s="239">
@@ -8917,12 +8991,12 @@
       <c r="E17" s="170" t="s">
         <v>292</v>
       </c>
-      <c r="F17" s="307"/>
+      <c r="F17" s="358"/>
       <c r="G17" s="144" t="s">
         <v>166</v>
       </c>
-      <c r="H17" s="310"/>
-      <c r="I17" s="298"/>
+      <c r="H17" s="361"/>
+      <c r="I17" s="351"/>
     </row>
     <row r="18" spans="1:13" ht="15.5">
       <c r="A18" s="239">
@@ -8940,12 +9014,12 @@
       <c r="E18" s="170" t="s">
         <v>289</v>
       </c>
-      <c r="F18" s="307"/>
+      <c r="F18" s="358"/>
       <c r="G18" s="144" t="s">
         <v>245</v>
       </c>
-      <c r="H18" s="310"/>
-      <c r="I18" s="298"/>
+      <c r="H18" s="361"/>
+      <c r="I18" s="351"/>
     </row>
     <row r="19" spans="1:13" ht="16" thickBot="1">
       <c r="A19" s="239">
@@ -8963,12 +9037,12 @@
       <c r="E19" s="170" t="s">
         <v>291</v>
       </c>
-      <c r="F19" s="308"/>
+      <c r="F19" s="359"/>
       <c r="G19" s="144" t="s">
         <v>245</v>
       </c>
-      <c r="H19" s="311"/>
-      <c r="I19" s="298"/>
+      <c r="H19" s="362"/>
+      <c r="I19" s="351"/>
     </row>
     <row r="20" spans="1:13" ht="16" thickBot="1">
       <c r="A20" s="239">
@@ -8986,7 +9060,7 @@
       <c r="E20" s="171" t="s">
         <v>293</v>
       </c>
-      <c r="F20" s="304" t="s">
+      <c r="F20" s="335" t="s">
         <v>95</v>
       </c>
       <c r="G20" s="161" t="s">
@@ -9003,7 +9077,7 @@
       </c>
       <c r="D21" s="121"/>
       <c r="E21" s="121"/>
-      <c r="F21" s="305"/>
+      <c r="F21" s="336"/>
       <c r="I21" s="177"/>
     </row>
     <row r="22" spans="1:13" ht="16" thickBot="1">
@@ -9015,7 +9089,7 @@
       </c>
       <c r="D22" s="122"/>
       <c r="E22" s="123"/>
-      <c r="F22" s="316"/>
+      <c r="F22" s="337"/>
       <c r="I22" s="177"/>
     </row>
     <row r="23" spans="1:13" ht="16" thickBot="1">
@@ -9061,16 +9135,16 @@
       <c r="E24" s="172" t="s">
         <v>265</v>
       </c>
-      <c r="F24" s="306" t="s">
+      <c r="F24" s="357" t="s">
         <v>295</v>
       </c>
       <c r="G24" s="189" t="s">
         <v>245</v>
       </c>
-      <c r="H24" s="314" t="s">
+      <c r="H24" s="365" t="s">
         <v>247</v>
       </c>
-      <c r="I24" s="298"/>
+      <c r="I24" s="351"/>
     </row>
     <row r="25" spans="1:13" ht="15.5">
       <c r="A25" s="239">
@@ -9088,12 +9162,12 @@
       <c r="E25" s="173" t="s">
         <v>266</v>
       </c>
-      <c r="F25" s="312"/>
+      <c r="F25" s="363"/>
       <c r="G25" s="190" t="s">
         <v>245</v>
       </c>
-      <c r="H25" s="310"/>
-      <c r="I25" s="298"/>
+      <c r="H25" s="361"/>
+      <c r="I25" s="351"/>
     </row>
     <row r="26" spans="1:13" ht="15.5">
       <c r="A26" s="239">
@@ -9111,12 +9185,12 @@
       <c r="E26" s="173" t="s">
         <v>267</v>
       </c>
-      <c r="F26" s="312"/>
+      <c r="F26" s="363"/>
       <c r="G26" s="190" t="s">
         <v>245</v>
       </c>
-      <c r="H26" s="310"/>
-      <c r="I26" s="298"/>
+      <c r="H26" s="361"/>
+      <c r="I26" s="351"/>
     </row>
     <row r="27" spans="1:13" ht="16" thickBot="1">
       <c r="A27" s="239">
@@ -9134,12 +9208,12 @@
       <c r="E27" s="174" t="s">
         <v>268</v>
       </c>
-      <c r="F27" s="313"/>
+      <c r="F27" s="364"/>
       <c r="G27" s="191" t="s">
         <v>245</v>
       </c>
-      <c r="H27" s="311"/>
-      <c r="I27" s="298"/>
+      <c r="H27" s="362"/>
+      <c r="I27" s="351"/>
     </row>
     <row r="28" spans="1:13" ht="16" thickBot="1">
       <c r="A28" s="94">
@@ -9156,11 +9230,11 @@
       <c r="C29" s="211" t="s">
         <v>327</v>
       </c>
-      <c r="D29" s="319" t="s">
+      <c r="D29" s="340" t="s">
         <v>311</v>
       </c>
-      <c r="E29" s="320"/>
-      <c r="F29" s="321"/>
+      <c r="E29" s="341"/>
+      <c r="F29" s="342"/>
       <c r="G29" s="193" t="s">
         <v>328</v>
       </c>
@@ -9184,7 +9258,7 @@
       <c r="F30" s="199" t="s">
         <v>309</v>
       </c>
-      <c r="G30" s="322" t="s">
+      <c r="G30" s="343" t="s">
         <v>329</v>
       </c>
     </row>
@@ -9207,7 +9281,7 @@
       <c r="F31" s="182" t="s">
         <v>310</v>
       </c>
-      <c r="G31" s="323"/>
+      <c r="G31" s="344"/>
       <c r="I31" s="109" t="s">
         <v>182</v>
       </c>
@@ -9231,7 +9305,7 @@
       <c r="F32" s="182" t="s">
         <v>310</v>
       </c>
-      <c r="G32" s="323"/>
+      <c r="G32" s="344"/>
       <c r="I32" s="102" t="s">
         <v>179</v>
       </c>
@@ -9258,7 +9332,7 @@
       <c r="F33" s="182" t="s">
         <v>310</v>
       </c>
-      <c r="G33" s="323"/>
+      <c r="G33" s="344"/>
       <c r="I33" s="103" t="s">
         <v>171</v>
       </c>
@@ -9285,7 +9359,7 @@
       <c r="F34" s="182" t="s">
         <v>310</v>
       </c>
-      <c r="G34" s="323"/>
+      <c r="G34" s="344"/>
       <c r="I34" s="103" t="s">
         <v>172</v>
       </c>
@@ -9309,7 +9383,7 @@
       <c r="F35" s="182" t="s">
         <v>310</v>
       </c>
-      <c r="G35" s="323"/>
+      <c r="G35" s="344"/>
       <c r="I35" s="103" t="s">
         <v>173</v>
       </c>
@@ -9333,7 +9407,7 @@
       <c r="F36" s="186" t="s">
         <v>310</v>
       </c>
-      <c r="G36" s="324"/>
+      <c r="G36" s="345"/>
       <c r="I36" s="103" t="s">
         <v>174</v>
       </c>
@@ -9360,11 +9434,11 @@
       <c r="C38" s="205" t="s">
         <v>327</v>
       </c>
-      <c r="D38" s="295" t="s">
+      <c r="D38" s="348" t="s">
         <v>342</v>
       </c>
-      <c r="E38" s="296"/>
-      <c r="F38" s="297"/>
+      <c r="E38" s="349"/>
+      <c r="F38" s="350"/>
       <c r="G38" s="196" t="s">
         <v>328</v>
       </c>
@@ -9543,7 +9617,7 @@
       </c>
     </row>
     <row r="46" spans="1:13" ht="17.5" thickBot="1">
-      <c r="A46" s="371">
+      <c r="A46" s="322">
         <v>49</v>
       </c>
       <c r="B46" s="209" t="s">
@@ -9552,11 +9626,11 @@
       <c r="C46" s="283" t="s">
         <v>538</v>
       </c>
-      <c r="D46" s="295" t="s">
+      <c r="D46" s="348" t="s">
         <v>596</v>
       </c>
-      <c r="E46" s="296"/>
-      <c r="F46" s="297"/>
+      <c r="E46" s="349"/>
+      <c r="F46" s="350"/>
       <c r="I46" s="100"/>
     </row>
     <row r="47" spans="1:13" ht="17">
@@ -9586,7 +9660,7 @@
       </c>
     </row>
     <row r="48" spans="1:13" ht="16" thickBot="1">
-      <c r="A48" s="371">
+      <c r="A48" s="322">
         <v>51</v>
       </c>
       <c r="B48" s="178" t="s">
@@ -9607,14 +9681,14 @@
       <c r="G48" s="282" t="s">
         <v>534</v>
       </c>
-      <c r="H48" s="357" t="s">
+      <c r="H48" s="308" t="s">
         <v>288</v>
       </c>
       <c r="I48" s="101" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="49" spans="1:9" ht="15.5">
+    <row r="49" spans="1:9" ht="16" thickBot="1">
       <c r="A49" s="94">
         <v>52</v>
       </c>
@@ -9623,20 +9697,37 @@
         <v>187</v>
       </c>
     </row>
-    <row r="50" spans="1:9" ht="15.5">
-      <c r="A50" s="140">
+    <row r="50" spans="1:9" ht="17">
+      <c r="A50" s="322">
         <v>53</v>
+      </c>
+      <c r="B50" s="281" t="s">
+        <v>35</v>
+      </c>
+      <c r="C50" s="281" t="s">
+        <v>39</v>
+      </c>
+      <c r="D50" s="281" t="s">
+        <v>33</v>
       </c>
       <c r="E50" s="194"/>
       <c r="I50" s="111" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="51" spans="1:9" ht="15.5">
-      <c r="A51" s="94">
+    <row r="51" spans="1:9" ht="16" thickBot="1">
+      <c r="A51" s="239">
         <v>54</v>
       </c>
-      <c r="D51" s="176"/>
+      <c r="B51" s="252" t="s">
+        <v>533</v>
+      </c>
+      <c r="C51" s="252" t="s">
+        <v>602</v>
+      </c>
+      <c r="D51" s="252" t="s">
+        <v>603</v>
+      </c>
       <c r="E51" s="194"/>
       <c r="I51" s="111" t="s">
         <v>189</v>
@@ -9664,7 +9755,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="54" spans="1:9" ht="16" thickBot="1">
+    <row r="54" spans="1:9" ht="15.5">
       <c r="A54" s="140">
         <v>57</v>
       </c>
@@ -9672,34 +9763,16 @@
       <c r="E54" s="194"/>
       <c r="F54" s="194"/>
     </row>
-    <row r="55" spans="1:9" ht="17">
+    <row r="55" spans="1:9" ht="15.5">
       <c r="A55" s="94">
         <v>58</v>
       </c>
-      <c r="B55" s="281" t="s">
-        <v>35</v>
-      </c>
-      <c r="C55" s="281" t="s">
-        <v>39</v>
-      </c>
-      <c r="D55" s="281" t="s">
-        <v>33</v>
-      </c>
       <c r="E55" s="194"/>
       <c r="F55" s="194"/>
     </row>
-    <row r="56" spans="1:9" ht="16" thickBot="1">
+    <row r="56" spans="1:9" ht="15.5">
       <c r="A56" s="140">
         <v>59</v>
-      </c>
-      <c r="B56" s="252" t="s">
-        <v>533</v>
-      </c>
-      <c r="C56" s="252" t="s">
-        <v>602</v>
-      </c>
-      <c r="D56" s="252" t="s">
-        <v>603</v>
       </c>
       <c r="E56" s="194"/>
       <c r="F56" s="194"/>
@@ -11268,13 +11341,6 @@
   </sheetData>
   <autoFilter ref="A2:G367" xr:uid="{C39EE772-119D-447F-B67C-406657C44E42}"/>
   <mergeCells count="18">
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="E8:E10"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="G30:G36"/>
-    <mergeCell ref="F20:F22"/>
-    <mergeCell ref="G11:G12"/>
     <mergeCell ref="D46:F46"/>
     <mergeCell ref="I16:I19"/>
     <mergeCell ref="I24:I27"/>
@@ -11286,13 +11352,20 @@
     <mergeCell ref="F24:F27"/>
     <mergeCell ref="H24:H27"/>
     <mergeCell ref="D38:F38"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="E8:E10"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="G30:G36"/>
+    <mergeCell ref="F20:F22"/>
+    <mergeCell ref="G11:G12"/>
   </mergeCells>
   <conditionalFormatting sqref="B24:B27">
     <cfRule type="uniqueValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="C48" r:id="rId1" display="https://mylan.service-now.com/sc_req_item.do?sys_id=da60d7988712dad046c1eb5f8bbb356a&amp;sysparm_record_target=sc_req_item&amp;sysparm_record_row=1&amp;sysparm_record_rows=1&amp;sysparm_record_list=parent%3Dc3f03af81b0e12d02a8d87f2604bcbe7%5Eassignment_group.sys_idIN2dd153e30f810b003861f18ce1050e7c%2Cf9aacc8e37490200d657d5a643990e37%2Cccd4f77a4fe671001e76c4501310c766%2Ca7aa74230f2f32403861f18ce1050e1b%2C2ac7c8771bfc61d087ec0ed5604bcb94%2C89ecc0ce37490200d657d5a643990edd%2C30f04d471b8dec90a35c3197cc4bcb07%2C%5EORassignment_group.parentISEMPTY%5EORassignment_groupISEMPTY%5EORassignment_group.parent.sys_idINccd4f77a4fe671001e76c4501310c766%5EORcaller_id%3D3a099cc21b1db410792699be034bcbf7%5EORwatch_listCONTAINS3a099cc21b1db410792699be034bcbf7%5EORu_requested_for%3D3a099cc21b1db410792699be034bcbf7%5EORu_requested_by%3D3a099cc21b1db410792699be034bcbf7%5EORopened_by%3D3a099cc21b1db410792699be034bcbf7%5EORDERBYsys_created_on" xr:uid="{DACE9F40-B233-49D4-92D8-CFB5FDA76395}"/>
-    <hyperlink ref="D56" r:id="rId2" display="https://mylan.service-now.com/change_task.do?sys_id=3a8590191ba296502a8d87f2604bcbfd&amp;sysparm_record_target=change_task&amp;sysparm_record_row=4&amp;sysparm_record_rows=4&amp;sysparm_record_list=change_request%3D7081c40d1baa9e102a8d87f2604bcb0e%5EORDERBYnumber" xr:uid="{D9AF5B41-8F48-48B3-B121-13127ED94B15}"/>
+    <hyperlink ref="D51" r:id="rId2" display="https://mylan.service-now.com/change_task.do?sys_id=3a8590191ba296502a8d87f2604bcbfd&amp;sysparm_record_target=change_task&amp;sysparm_record_row=4&amp;sysparm_record_rows=4&amp;sysparm_record_list=change_request%3D7081c40d1baa9e102a8d87f2604bcb0e%5EORDERBYnumber" xr:uid="{D9AF5B41-8F48-48B3-B121-13127ED94B15}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId3"/>
@@ -11301,143 +11374,146 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D808B9F-CAFF-482E-8485-74B088908DDD}">
-  <dimension ref="A1:L44"/>
+  <dimension ref="A1:N44"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="K34" sqref="K34"/>
+    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="44.36328125" customWidth="1"/>
-    <col min="3" max="3" width="26" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.36328125" customWidth="1"/>
-    <col min="5" max="5" width="49.08984375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="22.26953125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.08984375" customWidth="1"/>
-    <col min="12" max="12" width="85.36328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="45.81640625" customWidth="1"/>
+    <col min="3" max="3" width="31.90625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.54296875" customWidth="1"/>
+    <col min="5" max="5" width="66.26953125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.7265625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="31.453125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.453125" customWidth="1"/>
+    <col min="12" max="12" width="26.26953125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18.26953125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="163.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:14">
       <c r="A1" s="256" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="17">
+    <row r="2" spans="1:14" ht="17">
       <c r="A2" s="256">
         <v>1</v>
       </c>
-      <c r="B2" s="355" t="s">
+      <c r="B2" s="306" t="s">
         <v>540</v>
       </c>
-      <c r="C2" s="332" t="s">
+      <c r="C2" s="284" t="s">
         <v>543</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="34">
+    <row r="3" spans="1:14" ht="34">
       <c r="A3" s="256">
         <v>2</v>
       </c>
-      <c r="B3" s="363" t="s">
+      <c r="B3" s="314" t="s">
         <v>541</v>
       </c>
       <c r="C3" s="20"/>
     </row>
-    <row r="4" spans="1:12" ht="34">
+    <row r="4" spans="1:14" ht="34">
       <c r="A4" s="256">
         <v>3</v>
       </c>
-      <c r="B4" s="363" t="s">
+      <c r="B4" s="314" t="s">
         <v>542</v>
       </c>
       <c r="C4" s="20"/>
     </row>
-    <row r="5" spans="1:12" ht="15" thickBot="1">
+    <row r="5" spans="1:14" ht="15" thickBot="1">
       <c r="A5" s="256">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="15.5">
+    <row r="6" spans="1:14" ht="15.5">
       <c r="A6" s="256">
         <v>5</v>
       </c>
-      <c r="B6" s="356" t="s">
+      <c r="B6" s="307" t="s">
         <v>570</v>
       </c>
-      <c r="C6" s="356" t="s">
+      <c r="C6" s="307" t="s">
         <v>575</v>
       </c>
-      <c r="D6" s="356" t="s">
+      <c r="D6" s="307" t="s">
         <v>606</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="17">
+    <row r="7" spans="1:14" ht="17">
       <c r="A7" s="256">
         <v>6</v>
       </c>
-      <c r="B7" s="366" t="s">
+      <c r="B7" s="317" t="s">
         <v>563</v>
       </c>
-      <c r="C7" s="366" t="s">
+      <c r="C7" s="317" t="s">
         <v>582</v>
       </c>
-      <c r="D7" s="366"/>
-    </row>
-    <row r="8" spans="1:12" ht="17">
+      <c r="D7" s="317"/>
+    </row>
+    <row r="8" spans="1:14" ht="17">
       <c r="A8" s="256">
         <v>7</v>
       </c>
-      <c r="B8" s="366" t="s">
+      <c r="B8" s="317" t="s">
         <v>559</v>
       </c>
-      <c r="C8" s="366" t="s">
+      <c r="C8" s="317" t="s">
         <v>576</v>
       </c>
-      <c r="D8" s="366"/>
-    </row>
-    <row r="9" spans="1:12" ht="17">
+      <c r="D8" s="317"/>
+    </row>
+    <row r="9" spans="1:14" ht="17">
       <c r="A9" s="256">
         <v>8</v>
       </c>
-      <c r="B9" s="366" t="s">
+      <c r="B9" s="317" t="s">
         <v>560</v>
       </c>
-      <c r="C9" s="366" t="s">
+      <c r="C9" s="317" t="s">
         <v>576</v>
       </c>
-      <c r="D9" s="366"/>
-    </row>
-    <row r="10" spans="1:12" ht="17.5" thickBot="1">
+      <c r="D9" s="317"/>
+    </row>
+    <row r="10" spans="1:14" ht="17.5" thickBot="1">
       <c r="A10" s="256">
         <v>9</v>
       </c>
-      <c r="B10" s="366" t="s">
+      <c r="B10" s="317" t="s">
         <v>561</v>
       </c>
-      <c r="C10" s="366" t="s">
+      <c r="C10" s="317" t="s">
         <v>577</v>
       </c>
-      <c r="D10" s="366" t="s">
+      <c r="D10" s="317" t="s">
         <v>604</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="18.5">
+    <row r="11" spans="1:14" ht="18.5">
       <c r="A11" s="256">
         <v>10</v>
       </c>
-      <c r="B11" s="366" t="s">
+      <c r="B11" s="317" t="s">
         <v>562</v>
       </c>
-      <c r="C11" s="366" t="s">
+      <c r="C11" s="317" t="s">
         <v>576</v>
       </c>
-      <c r="D11" s="366"/>
-      <c r="E11" s="367" t="s">
+      <c r="D11" s="317"/>
+      <c r="E11" s="318" t="s">
         <v>579</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="17.5" thickBot="1">
+    <row r="12" spans="1:14" ht="17.5" thickBot="1">
       <c r="A12" s="256">
         <v>11</v>
       </c>
@@ -11446,364 +11522,426 @@
         <v>504</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="17">
+    <row r="13" spans="1:14" ht="17">
       <c r="A13" s="256">
         <v>12</v>
       </c>
-      <c r="B13" s="364" t="s">
+      <c r="B13" s="315" t="s">
         <v>564</v>
       </c>
-      <c r="C13" s="368" t="s">
+      <c r="C13" s="319" t="s">
         <v>575</v>
       </c>
-      <c r="D13" s="366" t="s">
+      <c r="D13" s="317" t="s">
         <v>605</v>
       </c>
-      <c r="E13" s="370" t="s">
+      <c r="E13" s="321" t="s">
         <v>580</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="19.5" customHeight="1">
+    <row r="14" spans="1:14" ht="19.5" customHeight="1">
       <c r="A14" s="251">
         <v>13</v>
       </c>
-      <c r="B14" s="366" t="s">
+      <c r="B14" s="317" t="s">
         <v>565</v>
       </c>
-      <c r="C14" s="369" t="s">
+      <c r="C14" s="320" t="s">
         <v>578</v>
       </c>
-      <c r="D14" s="366" t="s">
+      <c r="D14" s="317" t="s">
         <v>597</v>
       </c>
-      <c r="E14" s="370" t="s">
+      <c r="E14" s="321" t="s">
         <v>581</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="16.5" customHeight="1">
+    <row r="15" spans="1:14" ht="16.5" customHeight="1">
       <c r="A15" s="251">
         <v>14</v>
       </c>
-      <c r="B15" s="366" t="s">
+      <c r="B15" s="317" t="s">
         <v>566</v>
       </c>
-      <c r="C15" s="369" t="s">
+      <c r="C15" s="320" t="s">
         <v>578</v>
       </c>
-      <c r="D15" s="366" t="s">
+      <c r="D15" s="317" t="s">
         <v>598</v>
       </c>
-      <c r="E15" s="370" t="s">
+      <c r="E15" s="321" t="s">
         <v>607</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" ht="18" customHeight="1">
+      <c r="I15" s="366" t="s">
+        <v>618</v>
+      </c>
+      <c r="J15" s="366"/>
+      <c r="K15" s="366"/>
+      <c r="L15" s="366"/>
+      <c r="M15" s="366"/>
+      <c r="N15" s="366"/>
+    </row>
+    <row r="16" spans="1:14" ht="18" customHeight="1">
       <c r="A16" s="251">
         <v>15</v>
       </c>
-      <c r="B16" s="366" t="s">
+      <c r="B16" s="317" t="s">
         <v>567</v>
       </c>
-      <c r="C16" s="369" t="s">
+      <c r="C16" s="320" t="s">
         <v>578</v>
       </c>
-      <c r="D16" s="366" t="s">
+      <c r="D16" s="317" t="s">
         <v>599</v>
       </c>
-      <c r="J16" s="372" t="s">
+      <c r="I16" s="95" t="s">
+        <v>324</v>
+      </c>
+      <c r="J16" s="95" t="s">
+        <v>609</v>
+      </c>
+      <c r="K16" s="95" t="s">
+        <v>610</v>
+      </c>
+      <c r="L16" s="95" t="s">
         <v>35</v>
       </c>
-      <c r="K16" s="372" t="s">
+      <c r="M16" s="95" t="s">
         <v>8</v>
       </c>
-      <c r="L16" s="372" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" ht="19" customHeight="1">
+      <c r="N16" s="95" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" ht="19" customHeight="1">
       <c r="A17" s="251">
         <v>16</v>
       </c>
-      <c r="B17" s="366" t="s">
+      <c r="B17" s="317" t="s">
         <v>568</v>
       </c>
-      <c r="C17" s="369" t="s">
+      <c r="C17" s="320" t="s">
         <v>578</v>
       </c>
-      <c r="D17" s="366" t="s">
+      <c r="D17" s="317" t="s">
         <v>600</v>
       </c>
-      <c r="J17" s="372" t="s">
+      <c r="I17" s="95">
+        <v>1</v>
+      </c>
+      <c r="J17" s="95" t="s">
+        <v>611</v>
+      </c>
+      <c r="K17" s="95" t="s">
+        <v>612</v>
+      </c>
+      <c r="L17" s="95" t="s">
         <v>565</v>
       </c>
-      <c r="K17" s="372" t="s">
+      <c r="M17" s="95" t="s">
         <v>597</v>
       </c>
-      <c r="L17" s="372" t="s">
-        <v>609</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" ht="17">
+      <c r="N17" s="95" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" ht="17">
       <c r="A18" s="251">
         <v>17</v>
       </c>
-      <c r="B18" s="366" t="s">
+      <c r="B18" s="317" t="s">
         <v>569</v>
       </c>
-      <c r="C18" s="369" t="s">
+      <c r="C18" s="320" t="s">
         <v>578</v>
       </c>
-      <c r="D18" s="366" t="s">
+      <c r="D18" s="317" t="s">
         <v>601</v>
       </c>
-      <c r="J18" s="372" t="s">
+      <c r="I18" s="95">
+        <v>2</v>
+      </c>
+      <c r="J18" s="95" t="s">
+        <v>611</v>
+      </c>
+      <c r="K18" s="95" t="s">
+        <v>613</v>
+      </c>
+      <c r="L18" s="95" t="s">
         <v>566</v>
       </c>
-      <c r="K18" s="372" t="s">
+      <c r="M18" s="95" t="s">
         <v>598</v>
       </c>
-      <c r="L18" s="372" t="s">
-        <v>609</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" ht="17.5" thickBot="1">
+      <c r="N18" s="95" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" ht="16" thickBot="1">
       <c r="A19" s="256">
         <v>18</v>
       </c>
       <c r="B19" s="237"/>
       <c r="C19" s="237"/>
-      <c r="J19" s="372" t="s">
+      <c r="I19" s="95">
+        <v>3</v>
+      </c>
+      <c r="J19" s="95" t="s">
+        <v>611</v>
+      </c>
+      <c r="K19" s="95" t="s">
+        <v>614</v>
+      </c>
+      <c r="L19" s="95" t="s">
         <v>567</v>
       </c>
-      <c r="K19" s="372" t="s">
+      <c r="M19" s="95" t="s">
         <v>599</v>
       </c>
-      <c r="L19" s="372" t="s">
-        <v>609</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" ht="17">
+      <c r="N19" s="95" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" ht="15.5">
       <c r="A20" s="256">
         <v>19</v>
       </c>
-      <c r="B20" s="364" t="s">
+      <c r="B20" s="315" t="s">
         <v>571</v>
       </c>
-      <c r="C20" s="365" t="s">
+      <c r="C20" s="316" t="s">
         <v>575</v>
       </c>
-      <c r="J20" s="372" t="s">
+      <c r="I20" s="95">
+        <v>4</v>
+      </c>
+      <c r="J20" s="95" t="s">
+        <v>611</v>
+      </c>
+      <c r="K20" s="95" t="s">
+        <v>615</v>
+      </c>
+      <c r="L20" s="95" t="s">
         <v>568</v>
       </c>
-      <c r="K20" s="372" t="s">
+      <c r="M20" s="95" t="s">
         <v>600</v>
       </c>
-      <c r="L20" s="372" t="s">
-        <v>609</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" ht="17">
+      <c r="N20" s="95" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" ht="17">
       <c r="A21" s="256">
         <v>20</v>
       </c>
-      <c r="B21" s="366" t="s">
+      <c r="B21" s="317" t="s">
         <v>572</v>
       </c>
-      <c r="C21" s="366" t="s">
+      <c r="C21" s="317" t="s">
         <v>578</v>
       </c>
-      <c r="J21" s="372" t="s">
+      <c r="I21" s="95">
+        <v>5</v>
+      </c>
+      <c r="J21" s="95" t="s">
+        <v>611</v>
+      </c>
+      <c r="K21" s="95" t="s">
+        <v>616</v>
+      </c>
+      <c r="L21" s="95" t="s">
         <v>569</v>
       </c>
-      <c r="K21" s="372" t="s">
+      <c r="M21" s="95" t="s">
         <v>601</v>
       </c>
-      <c r="L21" s="372" t="s">
-        <v>609</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" ht="17">
+      <c r="N21" s="95" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" ht="17">
       <c r="A22" s="256">
         <v>21</v>
       </c>
-      <c r="B22" s="366" t="s">
+      <c r="B22" s="317" t="s">
         <v>573</v>
       </c>
-      <c r="C22" s="366" t="s">
+      <c r="C22" s="317" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="17">
+    <row r="23" spans="1:14" ht="17">
       <c r="A23" s="256">
         <v>22</v>
       </c>
-      <c r="B23" s="366" t="s">
+      <c r="B23" s="317" t="s">
         <v>574</v>
       </c>
-      <c r="C23" s="366" t="s">
+      <c r="C23" s="317" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="24" spans="1:12">
+    <row r="24" spans="1:14">
       <c r="A24" s="256">
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:12">
-      <c r="A26" s="362" t="s">
+    <row r="26" spans="1:14">
+      <c r="A26" s="313" t="s">
         <v>324</v>
       </c>
-      <c r="B26" s="362" t="s">
+      <c r="B26" s="313" t="s">
         <v>35</v>
       </c>
-      <c r="C26" s="362" t="s">
+      <c r="C26" s="313" t="s">
         <v>368</v>
       </c>
-      <c r="D26" s="362" t="s">
+      <c r="D26" s="313" t="s">
         <v>583</v>
       </c>
-      <c r="E26" s="362" t="s">
+      <c r="E26" s="313" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="27" spans="1:12">
-      <c r="A27" s="359">
+    <row r="27" spans="1:14">
+      <c r="A27" s="310">
         <v>1</v>
       </c>
-      <c r="B27" s="360" t="s">
+      <c r="B27" s="311" t="s">
         <v>559</v>
       </c>
-      <c r="C27" s="360"/>
-      <c r="D27" s="360" t="s">
+      <c r="C27" s="311"/>
+      <c r="D27" s="311" t="s">
         <v>576</v>
       </c>
-      <c r="E27" s="358"/>
-    </row>
-    <row r="28" spans="1:12">
-      <c r="A28" s="359">
+      <c r="E27" s="309"/>
+    </row>
+    <row r="28" spans="1:14">
+      <c r="A28" s="310">
         <v>2</v>
       </c>
-      <c r="B28" s="360" t="s">
+      <c r="B28" s="311" t="s">
         <v>560</v>
       </c>
-      <c r="C28" s="360"/>
-      <c r="D28" s="360" t="s">
+      <c r="C28" s="311"/>
+      <c r="D28" s="311" t="s">
         <v>576</v>
       </c>
-      <c r="E28" s="358"/>
-    </row>
-    <row r="29" spans="1:12">
-      <c r="A29" s="359">
+      <c r="E28" s="309"/>
+    </row>
+    <row r="29" spans="1:14">
+      <c r="A29" s="310">
         <v>3</v>
       </c>
-      <c r="B29" s="360" t="s">
+      <c r="B29" s="311" t="s">
         <v>561</v>
       </c>
-      <c r="C29" s="360"/>
-      <c r="D29" s="360" t="s">
+      <c r="C29" s="311"/>
+      <c r="D29" s="311" t="s">
         <v>577</v>
       </c>
-      <c r="E29" s="358"/>
-    </row>
-    <row r="30" spans="1:12">
-      <c r="A30" s="359">
+      <c r="E29" s="309"/>
+    </row>
+    <row r="30" spans="1:14">
+      <c r="A30" s="310">
         <v>4</v>
       </c>
-      <c r="B30" s="360" t="s">
+      <c r="B30" s="311" t="s">
         <v>562</v>
       </c>
-      <c r="C30" s="360"/>
-      <c r="D30" s="360" t="s">
+      <c r="C30" s="311"/>
+      <c r="D30" s="311" t="s">
         <v>576</v>
       </c>
-      <c r="E30" s="358"/>
-    </row>
-    <row r="31" spans="1:12">
-      <c r="A31" s="359">
+      <c r="E30" s="309"/>
+    </row>
+    <row r="31" spans="1:14">
+      <c r="A31" s="310">
         <v>5</v>
       </c>
-      <c r="B31" s="360" t="s">
+      <c r="B31" s="311" t="s">
         <v>565</v>
       </c>
-      <c r="C31" s="360"/>
-      <c r="D31" s="361" t="s">
+      <c r="C31" s="311"/>
+      <c r="D31" s="312" t="s">
         <v>585</v>
       </c>
-      <c r="E31" s="361" t="s">
+      <c r="E31" s="312" t="s">
         <v>586</v>
       </c>
     </row>
-    <row r="32" spans="1:12">
-      <c r="A32" s="359">
+    <row r="32" spans="1:14">
+      <c r="A32" s="310">
         <v>6</v>
       </c>
-      <c r="B32" s="360" t="s">
+      <c r="B32" s="311" t="s">
         <v>566</v>
       </c>
-      <c r="C32" s="360"/>
-      <c r="D32" s="361" t="s">
+      <c r="C32" s="311"/>
+      <c r="D32" s="312" t="s">
         <v>587</v>
       </c>
-      <c r="E32" s="361" t="s">
+      <c r="E32" s="312" t="s">
         <v>588</v>
       </c>
     </row>
     <row r="33" spans="1:5">
-      <c r="A33" s="359">
+      <c r="A33" s="310">
         <v>7</v>
       </c>
-      <c r="B33" s="360" t="s">
+      <c r="B33" s="311" t="s">
         <v>567</v>
       </c>
-      <c r="C33" s="360"/>
-      <c r="D33" s="361" t="s">
+      <c r="C33" s="311"/>
+      <c r="D33" s="312" t="s">
         <v>589</v>
       </c>
-      <c r="E33" s="361" t="s">
+      <c r="E33" s="312" t="s">
         <v>590</v>
       </c>
     </row>
     <row r="34" spans="1:5">
-      <c r="A34" s="359">
+      <c r="A34" s="310">
         <v>8</v>
       </c>
-      <c r="B34" s="360" t="s">
+      <c r="B34" s="311" t="s">
         <v>568</v>
       </c>
-      <c r="C34" s="360"/>
-      <c r="D34" s="361" t="s">
+      <c r="C34" s="311"/>
+      <c r="D34" s="312" t="s">
         <v>591</v>
       </c>
-      <c r="E34" s="361" t="s">
+      <c r="E34" s="312" t="s">
         <v>593</v>
       </c>
     </row>
     <row r="35" spans="1:5">
-      <c r="A35" s="359">
+      <c r="A35" s="310">
         <v>9</v>
       </c>
-      <c r="B35" s="360" t="s">
+      <c r="B35" s="311" t="s">
         <v>569</v>
       </c>
-      <c r="C35" s="360"/>
-      <c r="D35" s="361" t="s">
+      <c r="C35" s="311"/>
+      <c r="D35" s="312" t="s">
         <v>592</v>
       </c>
-      <c r="E35" s="361" t="s">
+      <c r="E35" s="312" t="s">
         <v>594</v>
       </c>
     </row>
     <row r="39" spans="1:5">
-      <c r="A39" s="362" t="s">
+      <c r="A39" s="313" t="s">
         <v>324</v>
       </c>
-      <c r="B39" s="362" t="s">
+      <c r="B39" s="313" t="s">
         <v>35</v>
       </c>
-      <c r="C39" s="362" t="s">
+      <c r="C39" s="313" t="s">
         <v>583</v>
       </c>
-      <c r="D39" s="362" t="s">
+      <c r="D39" s="313" t="s">
         <v>584</v>
       </c>
     </row>
@@ -11811,13 +11949,13 @@
       <c r="A40" s="251">
         <v>1</v>
       </c>
-      <c r="B40" s="360" t="s">
+      <c r="B40" s="311" t="s">
         <v>565</v>
       </c>
-      <c r="C40" s="361" t="s">
+      <c r="C40" s="312" t="s">
         <v>585</v>
       </c>
-      <c r="D40" s="361" t="s">
+      <c r="D40" s="312" t="s">
         <v>586</v>
       </c>
     </row>
@@ -11825,13 +11963,13 @@
       <c r="A41" s="251">
         <v>2</v>
       </c>
-      <c r="B41" s="360" t="s">
+      <c r="B41" s="311" t="s">
         <v>566</v>
       </c>
-      <c r="C41" s="361" t="s">
+      <c r="C41" s="312" t="s">
         <v>587</v>
       </c>
-      <c r="D41" s="361" t="s">
+      <c r="D41" s="312" t="s">
         <v>588</v>
       </c>
     </row>
@@ -11839,13 +11977,13 @@
       <c r="A42" s="251">
         <v>3</v>
       </c>
-      <c r="B42" s="360" t="s">
+      <c r="B42" s="311" t="s">
         <v>567</v>
       </c>
-      <c r="C42" s="361" t="s">
+      <c r="C42" s="312" t="s">
         <v>589</v>
       </c>
-      <c r="D42" s="361" t="s">
+      <c r="D42" s="312" t="s">
         <v>590</v>
       </c>
     </row>
@@ -11853,13 +11991,13 @@
       <c r="A43" s="251">
         <v>4</v>
       </c>
-      <c r="B43" s="360" t="s">
+      <c r="B43" s="311" t="s">
         <v>568</v>
       </c>
-      <c r="C43" s="361" t="s">
+      <c r="C43" s="312" t="s">
         <v>591</v>
       </c>
-      <c r="D43" s="361" t="s">
+      <c r="D43" s="312" t="s">
         <v>593</v>
       </c>
     </row>
@@ -11867,17 +12005,20 @@
       <c r="A44" s="251">
         <v>5</v>
       </c>
-      <c r="B44" s="360" t="s">
+      <c r="B44" s="311" t="s">
         <v>569</v>
       </c>
-      <c r="C44" s="361" t="s">
+      <c r="C44" s="312" t="s">
         <v>592</v>
       </c>
-      <c r="D44" s="361" t="s">
+      <c r="D44" s="312" t="s">
         <v>594</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="I15:N15"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -11886,7 +12027,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCFBE71E-1222-4470-977A-1E87DCBCE488}">
   <dimension ref="A1:O22"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
@@ -11944,11 +12085,11 @@
         <v>465</v>
       </c>
       <c r="L1" s="272"/>
-      <c r="M1" s="327" t="s">
+      <c r="M1" s="367" t="s">
         <v>508</v>
       </c>
-      <c r="N1" s="328"/>
-      <c r="O1" s="329"/>
+      <c r="N1" s="368"/>
+      <c r="O1" s="369"/>
     </row>
     <row r="2" spans="1:15">
       <c r="A2" s="255">
@@ -12383,15 +12524,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CEB1766-D579-4465-A0AC-3CF7721CD677}">
   <dimension ref="A1:M48"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="59" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K23" sqref="K23"/>
+    <sheetView topLeftCell="A2" zoomScale="59" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J30" sqref="J30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="5.6328125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.7265625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6.36328125" customWidth="1"/>
     <col min="5" max="5" width="20.08984375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17.6328125" bestFit="1" customWidth="1"/>
@@ -12410,19 +12551,19 @@
   <sheetData>
     <row r="1" spans="1:12" ht="15" thickBot="1"/>
     <row r="2" spans="1:12">
-      <c r="A2" s="351" t="s">
+      <c r="A2" s="302" t="s">
         <v>324</v>
       </c>
-      <c r="B2" s="352" t="s">
+      <c r="B2" s="303" t="s">
         <v>321</v>
       </c>
-      <c r="C2" s="352" t="s">
+      <c r="C2" s="303" t="s">
         <v>322</v>
       </c>
-      <c r="D2" s="352" t="s">
+      <c r="D2" s="303" t="s">
         <v>47</v>
       </c>
-      <c r="E2" s="353" t="s">
+      <c r="E2" s="304" t="s">
         <v>323</v>
       </c>
       <c r="G2" s="217" t="s">
@@ -12434,7 +12575,7 @@
       <c r="I2" s="219" t="s">
         <v>322</v>
       </c>
-      <c r="J2" s="333" t="s">
+      <c r="J2" s="285" t="s">
         <v>47</v>
       </c>
       <c r="K2" s="219" t="s">
@@ -12461,10 +12602,10 @@
       <c r="H3" s="221" t="s">
         <v>279</v>
       </c>
-      <c r="I3" s="335">
+      <c r="I3" s="287">
         <v>3000</v>
       </c>
-      <c r="J3" s="334" t="s">
+      <c r="J3" s="286" t="s">
         <v>287</v>
       </c>
       <c r="K3" s="224"/>
@@ -12494,7 +12635,7 @@
       <c r="I4" s="224">
         <v>13384</v>
       </c>
-      <c r="J4" s="334" t="s">
+      <c r="J4" s="286" t="s">
         <v>287</v>
       </c>
       <c r="K4" s="224" t="s">
@@ -12524,7 +12665,7 @@
       <c r="I5" s="224">
         <v>17666</v>
       </c>
-      <c r="J5" s="334" t="s">
+      <c r="J5" s="286" t="s">
         <v>287</v>
       </c>
       <c r="K5" s="224"/>
@@ -12552,7 +12693,7 @@
       <c r="I6" s="224" t="s">
         <v>608</v>
       </c>
-      <c r="J6" s="334" t="s">
+      <c r="J6" s="286" t="s">
         <v>287</v>
       </c>
       <c r="K6" s="224"/>
@@ -12580,7 +12721,7 @@
       <c r="I7" s="224">
         <v>800</v>
       </c>
-      <c r="J7" s="334" t="s">
+      <c r="J7" s="286" t="s">
         <v>287</v>
       </c>
       <c r="K7" s="224"/>
@@ -12608,7 +12749,7 @@
       <c r="I8" s="224">
         <v>1500</v>
       </c>
-      <c r="J8" s="334" t="s">
+      <c r="J8" s="286" t="s">
         <v>287</v>
       </c>
       <c r="K8" s="224"/>
@@ -12633,10 +12774,10 @@
       <c r="H9" s="228" t="s">
         <v>331</v>
       </c>
-      <c r="I9" s="336">
+      <c r="I9" s="288">
         <v>10000</v>
       </c>
-      <c r="J9" s="334" t="s">
+      <c r="J9" s="286" t="s">
         <v>287</v>
       </c>
       <c r="K9" s="224"/>
@@ -12661,10 +12802,10 @@
       <c r="H10" s="228" t="s">
         <v>544</v>
       </c>
-      <c r="I10" s="346">
+      <c r="I10" s="298">
         <v>5500</v>
       </c>
-      <c r="J10" s="334" t="s">
+      <c r="J10" s="286" t="s">
         <v>287</v>
       </c>
       <c r="K10" s="224"/>
@@ -12689,13 +12830,13 @@
       <c r="H11" s="228" t="s">
         <v>554</v>
       </c>
-      <c r="I11" s="346">
+      <c r="I11" s="298">
         <v>2000</v>
       </c>
-      <c r="J11" s="334" t="s">
+      <c r="J11" s="286" t="s">
         <v>287</v>
       </c>
-      <c r="K11" s="347" t="s">
+      <c r="K11" s="299" t="s">
         <v>555</v>
       </c>
     </row>
@@ -12749,7 +12890,7 @@
         <f>SUM(I3:I12)</f>
         <v>58050</v>
       </c>
-      <c r="J13" s="330"/>
+      <c r="J13" s="370"/>
       <c r="K13" s="227"/>
       <c r="L13" t="s">
         <v>558</v>
@@ -12765,18 +12906,18 @@
       <c r="C14" s="221">
         <v>100301</v>
       </c>
-      <c r="D14" s="330"/>
+      <c r="D14" s="370"/>
       <c r="E14" s="227"/>
       <c r="G14" s="229">
         <v>12</v>
       </c>
-      <c r="H14" s="348" t="s">
+      <c r="H14" s="300" t="s">
         <v>326</v>
       </c>
-      <c r="I14" s="349" t="s">
+      <c r="I14" s="301" t="s">
         <v>556</v>
       </c>
-      <c r="J14" s="350"/>
+      <c r="J14" s="372"/>
       <c r="K14" s="233"/>
     </row>
     <row r="15" spans="1:12">
@@ -12789,7 +12930,7 @@
       <c r="C15" s="228">
         <v>49766</v>
       </c>
-      <c r="D15" s="331"/>
+      <c r="D15" s="371"/>
       <c r="E15" s="227"/>
       <c r="G15" s="234"/>
       <c r="H15" s="238"/>
@@ -12812,19 +12953,19 @@
     </row>
     <row r="17" spans="1:13" ht="15" thickBot="1"/>
     <row r="18" spans="1:13">
-      <c r="A18" s="351" t="s">
+      <c r="A18" s="302" t="s">
         <v>324</v>
       </c>
-      <c r="B18" s="352" t="s">
+      <c r="B18" s="303" t="s">
         <v>365</v>
       </c>
-      <c r="C18" s="352" t="s">
+      <c r="C18" s="303" t="s">
         <v>322</v>
       </c>
-      <c r="D18" s="352" t="s">
+      <c r="D18" s="303" t="s">
         <v>47</v>
       </c>
-      <c r="E18" s="353" t="s">
+      <c r="E18" s="304" t="s">
         <v>323</v>
       </c>
     </row>
@@ -12842,7 +12983,7 @@
         <v>287</v>
       </c>
       <c r="E19" s="224"/>
-      <c r="F19" s="342"/>
+      <c r="F19" s="294"/>
       <c r="G19" s="177"/>
       <c r="H19" s="177"/>
       <c r="I19" s="177"/>
@@ -12867,9 +13008,9 @@
       <c r="E20" s="224" t="s">
         <v>366</v>
       </c>
-      <c r="F20" s="343"/>
-      <c r="G20" s="342"/>
-      <c r="H20" s="344"/>
+      <c r="F20" s="295"/>
+      <c r="G20" s="294"/>
+      <c r="H20" s="296"/>
       <c r="I20" s="177"/>
       <c r="J20" s="177"/>
       <c r="K20" s="177"/>
@@ -12890,13 +13031,13 @@
         <v>287</v>
       </c>
       <c r="E21" s="224"/>
-      <c r="F21" s="345"/>
-      <c r="G21" s="343"/>
-      <c r="H21" s="343"/>
+      <c r="F21" s="297"/>
+      <c r="G21" s="295"/>
+      <c r="H21" s="295"/>
       <c r="I21" s="177"/>
       <c r="J21" s="177"/>
-      <c r="K21" s="342"/>
-      <c r="L21" s="338"/>
+      <c r="K21" s="294"/>
+      <c r="L21" s="290"/>
       <c r="M21" s="122"/>
     </row>
     <row r="22" spans="1:13">
@@ -12918,9 +13059,9 @@
       <c r="H22" s="236"/>
       <c r="I22" s="176"/>
       <c r="J22" s="176"/>
-      <c r="K22" s="338"/>
-      <c r="L22" s="339"/>
-      <c r="M22" s="338"/>
+      <c r="K22" s="290"/>
+      <c r="L22" s="291"/>
+      <c r="M22" s="290"/>
     </row>
     <row r="23" spans="1:13">
       <c r="A23" s="220">
@@ -12941,9 +13082,9 @@
       <c r="H23" s="236"/>
       <c r="I23" s="176"/>
       <c r="J23" s="176"/>
-      <c r="K23" s="339"/>
-      <c r="L23" s="339"/>
-      <c r="M23" s="339"/>
+      <c r="K23" s="291"/>
+      <c r="L23" s="291"/>
+      <c r="M23" s="291"/>
     </row>
     <row r="24" spans="1:13">
       <c r="A24" s="220">
@@ -12964,9 +13105,9 @@
       <c r="H24" s="236"/>
       <c r="I24" s="176"/>
       <c r="J24" s="176"/>
-      <c r="K24" s="339"/>
-      <c r="L24" s="339"/>
-      <c r="M24" s="339"/>
+      <c r="K24" s="291"/>
+      <c r="L24" s="291"/>
+      <c r="M24" s="291"/>
     </row>
     <row r="25" spans="1:13">
       <c r="A25" s="220">
@@ -12987,9 +13128,9 @@
       <c r="H25" s="236"/>
       <c r="I25" s="176"/>
       <c r="J25" s="176"/>
-      <c r="K25" s="339"/>
-      <c r="L25" s="339"/>
-      <c r="M25" s="339"/>
+      <c r="K25" s="291"/>
+      <c r="L25" s="291"/>
+      <c r="M25" s="291"/>
     </row>
     <row r="26" spans="1:13">
       <c r="A26" s="220">
@@ -13010,9 +13151,9 @@
       <c r="H26" s="236"/>
       <c r="I26" s="176"/>
       <c r="J26" s="176"/>
-      <c r="K26" s="339"/>
-      <c r="L26" s="339"/>
-      <c r="M26" s="339"/>
+      <c r="K26" s="291"/>
+      <c r="L26" s="291"/>
+      <c r="M26" s="291"/>
     </row>
     <row r="27" spans="1:13">
       <c r="A27" s="220">
@@ -13032,9 +13173,9 @@
       <c r="H27" s="236"/>
       <c r="I27" s="176"/>
       <c r="J27" s="176"/>
-      <c r="K27" s="339"/>
-      <c r="L27" s="339"/>
-      <c r="M27" s="339"/>
+      <c r="K27" s="291"/>
+      <c r="L27" s="291"/>
+      <c r="M27" s="291"/>
     </row>
     <row r="28" spans="1:13" ht="15" thickBot="1">
       <c r="A28" s="229">
@@ -13043,19 +13184,19 @@
       <c r="B28" s="230" t="s">
         <v>326</v>
       </c>
-      <c r="C28" s="348">
+      <c r="C28" s="300">
         <v>100301</v>
       </c>
-      <c r="D28" s="354"/>
+      <c r="D28" s="305"/>
       <c r="E28" s="233"/>
       <c r="F28" s="238"/>
       <c r="G28" s="236"/>
       <c r="H28" s="236"/>
       <c r="I28" s="176"/>
       <c r="J28" s="176"/>
-      <c r="K28" s="339"/>
-      <c r="L28" s="339"/>
-      <c r="M28" s="339"/>
+      <c r="K28" s="291"/>
+      <c r="L28" s="291"/>
+      <c r="M28" s="291"/>
     </row>
     <row r="29" spans="1:13">
       <c r="A29" s="234"/>
@@ -13068,9 +13209,9 @@
       <c r="H29" s="236"/>
       <c r="I29" s="176"/>
       <c r="J29" s="176"/>
-      <c r="K29" s="339"/>
-      <c r="L29" s="339"/>
-      <c r="M29" s="339"/>
+      <c r="K29" s="291"/>
+      <c r="L29" s="291"/>
+      <c r="M29" s="291"/>
     </row>
     <row r="30" spans="1:13">
       <c r="F30" s="236"/>
@@ -13078,9 +13219,9 @@
       <c r="H30" s="235"/>
       <c r="I30" s="176"/>
       <c r="J30" s="176"/>
-      <c r="K30" s="339"/>
-      <c r="L30" s="339"/>
-      <c r="M30" s="339"/>
+      <c r="K30" s="291"/>
+      <c r="L30" s="291"/>
+      <c r="M30" s="291"/>
     </row>
     <row r="31" spans="1:13">
       <c r="F31" s="236"/>
@@ -13088,34 +13229,57 @@
       <c r="H31" s="236"/>
       <c r="I31" s="176"/>
       <c r="J31" s="176"/>
-      <c r="K31" s="339"/>
-      <c r="L31" s="338"/>
-      <c r="M31" s="340"/>
+      <c r="K31" s="291"/>
+      <c r="L31" s="290"/>
+      <c r="M31" s="292"/>
     </row>
     <row r="32" spans="1:13">
+      <c r="B32" t="s">
+        <v>621</v>
+      </c>
       <c r="F32" s="236"/>
       <c r="G32" s="236"/>
       <c r="H32" s="236"/>
       <c r="I32" s="176"/>
       <c r="J32" s="176"/>
       <c r="K32" s="122"/>
-      <c r="L32" s="338"/>
-      <c r="M32" s="341"/>
+      <c r="L32" s="290"/>
+      <c r="M32" s="293"/>
     </row>
     <row r="33" spans="1:13">
-      <c r="F33" s="236"/>
+      <c r="B33">
+        <v>1000</v>
+      </c>
+      <c r="C33" t="s">
+        <v>622</v>
+      </c>
+      <c r="F33" s="236" t="s">
+        <v>627</v>
+      </c>
       <c r="G33" s="236"/>
       <c r="H33" s="236"/>
       <c r="I33" s="176"/>
       <c r="J33" s="176"/>
       <c r="K33" s="122"/>
       <c r="L33" s="176"/>
-      <c r="M33" s="341"/>
+      <c r="M33" s="293"/>
     </row>
     <row r="34" spans="1:13">
-      <c r="F34" s="236"/>
-      <c r="G34" s="236"/>
-      <c r="H34" s="236"/>
+      <c r="B34">
+        <v>875</v>
+      </c>
+      <c r="C34" t="s">
+        <v>623</v>
+      </c>
+      <c r="F34" s="236" t="s">
+        <v>628</v>
+      </c>
+      <c r="G34" s="236">
+        <v>5610</v>
+      </c>
+      <c r="H34" s="236" t="s">
+        <v>631</v>
+      </c>
       <c r="I34" s="176"/>
       <c r="J34" s="176"/>
       <c r="K34" s="176"/>
@@ -13123,9 +13287,21 @@
       <c r="M34" s="176"/>
     </row>
     <row r="35" spans="1:13">
-      <c r="F35" s="236"/>
-      <c r="G35" s="236"/>
-      <c r="H35" s="236"/>
+      <c r="B35">
+        <v>200</v>
+      </c>
+      <c r="C35" t="s">
+        <v>624</v>
+      </c>
+      <c r="F35" s="236" t="s">
+        <v>629</v>
+      </c>
+      <c r="G35" s="236">
+        <v>646</v>
+      </c>
+      <c r="H35" s="236" t="s">
+        <v>630</v>
+      </c>
       <c r="I35" s="176"/>
       <c r="J35" s="176"/>
       <c r="K35" s="176"/>
@@ -13133,16 +13309,32 @@
       <c r="M35" s="176"/>
     </row>
     <row r="36" spans="1:13">
+      <c r="B36">
+        <v>350</v>
+      </c>
+      <c r="C36" t="s">
+        <v>625</v>
+      </c>
       <c r="F36" s="234"/>
       <c r="G36" s="234"/>
       <c r="H36" s="234"/>
     </row>
     <row r="37" spans="1:13">
+      <c r="B37">
+        <v>1500</v>
+      </c>
+      <c r="C37" t="s">
+        <v>626</v>
+      </c>
       <c r="F37" s="234"/>
       <c r="G37" s="234"/>
       <c r="H37" s="234"/>
     </row>
     <row r="38" spans="1:13">
+      <c r="B38">
+        <f>SUM(B33:B37)</f>
+        <v>3925</v>
+      </c>
       <c r="F38" s="234"/>
       <c r="G38" s="234"/>
       <c r="H38" s="234"/>
